--- a/data/CurrentSeason/NOP.xlsx
+++ b/data/CurrentSeason/NOP.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S40"/>
+  <dimension ref="A1:S41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2912,6 +2912,67 @@
       </c>
       <c r="S40" t="n">
         <v>0</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>40</v>
+      </c>
+      <c r="B41" s="2" t="n">
+        <v>45304</v>
+      </c>
+      <c r="C41" t="n">
+        <v>1</v>
+      </c>
+      <c r="D41" t="n">
+        <v>118</v>
+      </c>
+      <c r="E41" t="n">
+        <v>89.7</v>
+      </c>
+      <c r="F41" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="G41" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="H41" t="n">
+        <v>35.9</v>
+      </c>
+      <c r="I41" t="n">
+        <v>0.354</v>
+      </c>
+      <c r="J41" t="n">
+        <v>131.6</v>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>DAL</t>
+        </is>
+      </c>
+      <c r="L41" t="n">
+        <v>108</v>
+      </c>
+      <c r="M41" t="n">
+        <v>0.543</v>
+      </c>
+      <c r="N41" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="O41" t="n">
+        <v>23.1</v>
+      </c>
+      <c r="P41" t="n">
+        <v>0.232</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>120.5</v>
+      </c>
+      <c r="R41" t="n">
+        <v>0</v>
+      </c>
+      <c r="S41" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -2925,7 +2986,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C44"/>
+  <dimension ref="A1:C43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2952,7 +3013,7 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45304</v>
+        <v>45306</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -2965,24 +3026,24 @@
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45306</v>
+        <v>45308</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>DAL</t>
+          <t>CHO</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45308</v>
+        <v>45310</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>CHO</t>
+          <t>PHO</t>
         </is>
       </c>
       <c r="C4" t="n">
@@ -2991,11 +3052,11 @@
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45310</v>
+        <v>45314</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>PHO</t>
+          <t>UTA</t>
         </is>
       </c>
       <c r="C5" t="n">
@@ -3004,11 +3065,11 @@
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45314</v>
+        <v>45317</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>UTA</t>
+          <t>OKC</t>
         </is>
       </c>
       <c r="C6" t="n">
@@ -3017,24 +3078,24 @@
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45317</v>
+        <v>45318</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>OKC</t>
+          <t>MIL</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45318</v>
+        <v>45320</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>MIL</t>
+          <t>BOS</t>
         </is>
       </c>
       <c r="C8" t="n">
@@ -3043,11 +3104,11 @@
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>45320</v>
+        <v>45322</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>BOS</t>
+          <t>HOU</t>
         </is>
       </c>
       <c r="C9" t="n">
@@ -3056,11 +3117,11 @@
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>45322</v>
+        <v>45324</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>HOU</t>
+          <t>SAS</t>
         </is>
       </c>
       <c r="C10" t="n">
@@ -3069,37 +3130,37 @@
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>45324</v>
+        <v>45327</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>SAS</t>
+          <t>TOR</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>45327</v>
+        <v>45329</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>TOR</t>
+          <t>LAC</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>45329</v>
+        <v>45331</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>LAC</t>
+          <t>LAL</t>
         </is>
       </c>
       <c r="C13" t="n">
@@ -3108,11 +3169,11 @@
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>45331</v>
+        <v>45332</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>LAL</t>
+          <t>POR</t>
         </is>
       </c>
       <c r="C14" t="n">
@@ -3121,11 +3182,11 @@
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>45332</v>
+        <v>45334</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>POR</t>
+          <t>MEM</t>
         </is>
       </c>
       <c r="C15" t="n">
@@ -3134,24 +3195,24 @@
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>45334</v>
+        <v>45336</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>MEM</t>
+          <t>WAS</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>45336</v>
+        <v>45344</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>WAS</t>
+          <t>HOU</t>
         </is>
       </c>
       <c r="C17" t="n">
@@ -3160,11 +3221,11 @@
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>45344</v>
+        <v>45345</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>HOU</t>
+          <t>MIA</t>
         </is>
       </c>
       <c r="C18" t="n">
@@ -3173,11 +3234,11 @@
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>45345</v>
+        <v>45347</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>MIA</t>
+          <t>CHI</t>
         </is>
       </c>
       <c r="C19" t="n">
@@ -3186,24 +3247,24 @@
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>45347</v>
+        <v>45349</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>CHI</t>
+          <t>NYK</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>45349</v>
+        <v>45350</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>NYK</t>
+          <t>IND</t>
         </is>
       </c>
       <c r="C21" t="n">
@@ -3212,7 +3273,7 @@
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>45350</v>
+        <v>45352</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
@@ -3220,29 +3281,29 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>45352</v>
+        <v>45356</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>IND</t>
+          <t>TOR</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>45356</v>
+        <v>45359</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>TOR</t>
+          <t>PHI</t>
         </is>
       </c>
       <c r="C24" t="n">
@@ -3251,11 +3312,11 @@
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>45359</v>
+        <v>45361</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>PHI</t>
+          <t>ATL</t>
         </is>
       </c>
       <c r="C25" t="n">
@@ -3264,24 +3325,24 @@
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>45361</v>
+        <v>45364</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>ATL</t>
+          <t>CLE</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>45364</v>
+        <v>45366</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>CLE</t>
+          <t>LAC</t>
         </is>
       </c>
       <c r="C27" t="n">
@@ -3290,11 +3351,11 @@
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>45366</v>
+        <v>45367</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>LAC</t>
+          <t>POR</t>
         </is>
       </c>
       <c r="C28" t="n">
@@ -3303,24 +3364,24 @@
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>45367</v>
+        <v>45370</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>POR</t>
+          <t>BRK</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
-        <v>45370</v>
+        <v>45372</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>BRK</t>
+          <t>ORL</t>
         </is>
       </c>
       <c r="C30" t="n">
@@ -3329,11 +3390,11 @@
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
-        <v>45372</v>
+        <v>45373</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>ORL</t>
+          <t>MIA</t>
         </is>
       </c>
       <c r="C31" t="n">
@@ -3342,11 +3403,11 @@
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
-        <v>45373</v>
+        <v>45375</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>MIA</t>
+          <t>DET</t>
         </is>
       </c>
       <c r="C32" t="n">
@@ -3355,24 +3416,24 @@
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
-        <v>45375</v>
+        <v>45377</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>DET</t>
+          <t>OKC</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
-        <v>45377</v>
+        <v>45379</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>OKC</t>
+          <t>MIL</t>
         </is>
       </c>
       <c r="C34" t="n">
@@ -3381,11 +3442,11 @@
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
-        <v>45379</v>
+        <v>45381</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>MIL</t>
+          <t>BOS</t>
         </is>
       </c>
       <c r="C35" t="n">
@@ -3394,11 +3455,11 @@
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
-        <v>45381</v>
+        <v>45383</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>BOS</t>
+          <t>PHO</t>
         </is>
       </c>
       <c r="C36" t="n">
@@ -3407,11 +3468,11 @@
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
-        <v>45383</v>
+        <v>45385</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>PHO</t>
+          <t>ORL</t>
         </is>
       </c>
       <c r="C37" t="n">
@@ -3420,11 +3481,11 @@
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
-        <v>45385</v>
+        <v>45387</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>ORL</t>
+          <t>SAS</t>
         </is>
       </c>
       <c r="C38" t="n">
@@ -3433,24 +3494,24 @@
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
-        <v>45387</v>
+        <v>45389</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>SAS</t>
+          <t>PHO</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
-        <v>45389</v>
+        <v>45391</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>PHO</t>
+          <t>POR</t>
         </is>
       </c>
       <c r="C40" t="n">
@@ -3459,11 +3520,11 @@
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
-        <v>45391</v>
+        <v>45393</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>POR</t>
+          <t>SAC</t>
         </is>
       </c>
       <c r="C41" t="n">
@@ -3472,11 +3533,11 @@
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
-        <v>45393</v>
+        <v>45394</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>SAC</t>
+          <t>GSW</t>
         </is>
       </c>
       <c r="C42" t="n">
@@ -3485,27 +3546,14 @@
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
-        <v>45394</v>
+        <v>45396</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>GSW</t>
+          <t>LAL</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="2" t="n">
-        <v>45396</v>
-      </c>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>LAL</t>
-        </is>
-      </c>
-      <c r="C44" t="n">
         <v>1</v>
       </c>
     </row>

--- a/data/CurrentSeason/NOP.xlsx
+++ b/data/CurrentSeason/NOP.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S41"/>
+  <dimension ref="A1:S42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2973,6 +2973,67 @@
       </c>
       <c r="S41" t="n">
         <v>1</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>41</v>
+      </c>
+      <c r="B42" s="2" t="n">
+        <v>45306</v>
+      </c>
+      <c r="C42" t="n">
+        <v>-1</v>
+      </c>
+      <c r="D42" t="n">
+        <v>120</v>
+      </c>
+      <c r="E42" t="n">
+        <v>96</v>
+      </c>
+      <c r="F42" t="n">
+        <v>0.549</v>
+      </c>
+      <c r="G42" t="n">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="H42" t="n">
+        <v>21.6</v>
+      </c>
+      <c r="I42" t="n">
+        <v>0.383</v>
+      </c>
+      <c r="J42" t="n">
+        <v>125.1</v>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>DAL</t>
+        </is>
+      </c>
+      <c r="L42" t="n">
+        <v>125</v>
+      </c>
+      <c r="M42" t="n">
+        <v>0.5649999999999999</v>
+      </c>
+      <c r="N42" t="n">
+        <v>9.9</v>
+      </c>
+      <c r="O42" t="n">
+        <v>31</v>
+      </c>
+      <c r="P42" t="n">
+        <v>0.341</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>130.3</v>
+      </c>
+      <c r="R42" t="n">
+        <v>0</v>
+      </c>
+      <c r="S42" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -2986,7 +3047,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C43"/>
+  <dimension ref="A1:C42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3013,24 +3074,24 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45306</v>
+        <v>45308</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>DAL</t>
+          <t>CHO</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45308</v>
+        <v>45310</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>CHO</t>
+          <t>PHO</t>
         </is>
       </c>
       <c r="C3" t="n">
@@ -3039,11 +3100,11 @@
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45310</v>
+        <v>45314</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>PHO</t>
+          <t>UTA</t>
         </is>
       </c>
       <c r="C4" t="n">
@@ -3052,11 +3113,11 @@
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45314</v>
+        <v>45317</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>UTA</t>
+          <t>OKC</t>
         </is>
       </c>
       <c r="C5" t="n">
@@ -3065,24 +3126,24 @@
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45317</v>
+        <v>45318</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>OKC</t>
+          <t>MIL</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45318</v>
+        <v>45320</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>MIL</t>
+          <t>BOS</t>
         </is>
       </c>
       <c r="C7" t="n">
@@ -3091,11 +3152,11 @@
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45320</v>
+        <v>45322</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>BOS</t>
+          <t>HOU</t>
         </is>
       </c>
       <c r="C8" t="n">
@@ -3104,11 +3165,11 @@
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>45322</v>
+        <v>45324</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>HOU</t>
+          <t>SAS</t>
         </is>
       </c>
       <c r="C9" t="n">
@@ -3117,37 +3178,37 @@
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>45324</v>
+        <v>45327</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>SAS</t>
+          <t>TOR</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>45327</v>
+        <v>45329</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>TOR</t>
+          <t>LAC</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>45329</v>
+        <v>45331</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>LAC</t>
+          <t>LAL</t>
         </is>
       </c>
       <c r="C12" t="n">
@@ -3156,11 +3217,11 @@
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>45331</v>
+        <v>45332</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>LAL</t>
+          <t>POR</t>
         </is>
       </c>
       <c r="C13" t="n">
@@ -3169,11 +3230,11 @@
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>45332</v>
+        <v>45334</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>POR</t>
+          <t>MEM</t>
         </is>
       </c>
       <c r="C14" t="n">
@@ -3182,24 +3243,24 @@
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>45334</v>
+        <v>45336</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>MEM</t>
+          <t>WAS</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>45336</v>
+        <v>45344</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>WAS</t>
+          <t>HOU</t>
         </is>
       </c>
       <c r="C16" t="n">
@@ -3208,11 +3269,11 @@
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>45344</v>
+        <v>45345</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>HOU</t>
+          <t>MIA</t>
         </is>
       </c>
       <c r="C17" t="n">
@@ -3221,11 +3282,11 @@
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>45345</v>
+        <v>45347</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>MIA</t>
+          <t>CHI</t>
         </is>
       </c>
       <c r="C18" t="n">
@@ -3234,24 +3295,24 @@
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>45347</v>
+        <v>45349</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>CHI</t>
+          <t>NYK</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>45349</v>
+        <v>45350</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>NYK</t>
+          <t>IND</t>
         </is>
       </c>
       <c r="C20" t="n">
@@ -3260,7 +3321,7 @@
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>45350</v>
+        <v>45352</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
@@ -3268,29 +3329,29 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>45352</v>
+        <v>45356</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>IND</t>
+          <t>TOR</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>45356</v>
+        <v>45359</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>TOR</t>
+          <t>PHI</t>
         </is>
       </c>
       <c r="C23" t="n">
@@ -3299,11 +3360,11 @@
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>45359</v>
+        <v>45361</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>PHI</t>
+          <t>ATL</t>
         </is>
       </c>
       <c r="C24" t="n">
@@ -3312,24 +3373,24 @@
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>45361</v>
+        <v>45364</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>ATL</t>
+          <t>CLE</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>45364</v>
+        <v>45366</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>CLE</t>
+          <t>LAC</t>
         </is>
       </c>
       <c r="C26" t="n">
@@ -3338,11 +3399,11 @@
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>45366</v>
+        <v>45367</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>LAC</t>
+          <t>POR</t>
         </is>
       </c>
       <c r="C27" t="n">
@@ -3351,24 +3412,24 @@
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>45367</v>
+        <v>45370</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>POR</t>
+          <t>BRK</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>45370</v>
+        <v>45372</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>BRK</t>
+          <t>ORL</t>
         </is>
       </c>
       <c r="C29" t="n">
@@ -3377,11 +3438,11 @@
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
-        <v>45372</v>
+        <v>45373</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>ORL</t>
+          <t>MIA</t>
         </is>
       </c>
       <c r="C30" t="n">
@@ -3390,11 +3451,11 @@
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
-        <v>45373</v>
+        <v>45375</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>MIA</t>
+          <t>DET</t>
         </is>
       </c>
       <c r="C31" t="n">
@@ -3403,24 +3464,24 @@
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
-        <v>45375</v>
+        <v>45377</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>DET</t>
+          <t>OKC</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
-        <v>45377</v>
+        <v>45379</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>OKC</t>
+          <t>MIL</t>
         </is>
       </c>
       <c r="C33" t="n">
@@ -3429,11 +3490,11 @@
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
-        <v>45379</v>
+        <v>45381</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>MIL</t>
+          <t>BOS</t>
         </is>
       </c>
       <c r="C34" t="n">
@@ -3442,11 +3503,11 @@
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
-        <v>45381</v>
+        <v>45383</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>BOS</t>
+          <t>PHO</t>
         </is>
       </c>
       <c r="C35" t="n">
@@ -3455,11 +3516,11 @@
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
-        <v>45383</v>
+        <v>45385</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>PHO</t>
+          <t>ORL</t>
         </is>
       </c>
       <c r="C36" t="n">
@@ -3468,11 +3529,11 @@
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
-        <v>45385</v>
+        <v>45387</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>ORL</t>
+          <t>SAS</t>
         </is>
       </c>
       <c r="C37" t="n">
@@ -3481,24 +3542,24 @@
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
-        <v>45387</v>
+        <v>45389</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>SAS</t>
+          <t>PHO</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
-        <v>45389</v>
+        <v>45391</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>PHO</t>
+          <t>POR</t>
         </is>
       </c>
       <c r="C39" t="n">
@@ -3507,11 +3568,11 @@
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
-        <v>45391</v>
+        <v>45393</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>POR</t>
+          <t>SAC</t>
         </is>
       </c>
       <c r="C40" t="n">
@@ -3520,11 +3581,11 @@
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
-        <v>45393</v>
+        <v>45394</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>SAC</t>
+          <t>GSW</t>
         </is>
       </c>
       <c r="C41" t="n">
@@ -3533,27 +3594,14 @@
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
-        <v>45394</v>
+        <v>45396</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>GSW</t>
+          <t>LAL</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="2" t="n">
-        <v>45396</v>
-      </c>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>LAL</t>
-        </is>
-      </c>
-      <c r="C43" t="n">
         <v>1</v>
       </c>
     </row>

--- a/data/CurrentSeason/NOP.xlsx
+++ b/data/CurrentSeason/NOP.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S42"/>
+  <dimension ref="A1:S44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3033,6 +3033,128 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>42</v>
+      </c>
+      <c r="B43" s="2" t="n">
+        <v>45308</v>
+      </c>
+      <c r="C43" t="n">
+        <v>1</v>
+      </c>
+      <c r="D43" t="n">
+        <v>132</v>
+      </c>
+      <c r="E43" t="n">
+        <v>92.40000000000001</v>
+      </c>
+      <c r="F43" t="n">
+        <v>0.642</v>
+      </c>
+      <c r="G43" t="n">
+        <v>10.9</v>
+      </c>
+      <c r="H43" t="n">
+        <v>38.1</v>
+      </c>
+      <c r="I43" t="n">
+        <v>0.216</v>
+      </c>
+      <c r="J43" t="n">
+        <v>142.9</v>
+      </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>CHO</t>
+        </is>
+      </c>
+      <c r="L43" t="n">
+        <v>112</v>
+      </c>
+      <c r="M43" t="n">
+        <v>0.539</v>
+      </c>
+      <c r="N43" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="O43" t="n">
+        <v>30.6</v>
+      </c>
+      <c r="P43" t="n">
+        <v>0.167</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>121.2</v>
+      </c>
+      <c r="R43" t="n">
+        <v>1</v>
+      </c>
+      <c r="S43" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>43</v>
+      </c>
+      <c r="B44" s="2" t="n">
+        <v>45310</v>
+      </c>
+      <c r="C44" t="n">
+        <v>-1</v>
+      </c>
+      <c r="D44" t="n">
+        <v>109</v>
+      </c>
+      <c r="E44" t="n">
+        <v>101.9</v>
+      </c>
+      <c r="F44" t="n">
+        <v>0.495</v>
+      </c>
+      <c r="G44" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="H44" t="n">
+        <v>18</v>
+      </c>
+      <c r="I44" t="n">
+        <v>0.183</v>
+      </c>
+      <c r="J44" t="n">
+        <v>107</v>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>PHO</t>
+        </is>
+      </c>
+      <c r="L44" t="n">
+        <v>123</v>
+      </c>
+      <c r="M44" t="n">
+        <v>0.575</v>
+      </c>
+      <c r="N44" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="O44" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="P44" t="n">
+        <v>0.172</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>120.7</v>
+      </c>
+      <c r="R44" t="n">
+        <v>1</v>
+      </c>
+      <c r="S44" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3047,7 +3169,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C42"/>
+  <dimension ref="A1:C40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3074,11 +3196,11 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45308</v>
+        <v>45314</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>CHO</t>
+          <t>UTA</t>
         </is>
       </c>
       <c r="C2" t="n">
@@ -3087,11 +3209,11 @@
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45310</v>
+        <v>45317</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>PHO</t>
+          <t>OKC</t>
         </is>
       </c>
       <c r="C3" t="n">
@@ -3100,37 +3222,37 @@
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45314</v>
+        <v>45318</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>UTA</t>
+          <t>MIL</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45317</v>
+        <v>45320</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>OKC</t>
+          <t>BOS</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45318</v>
+        <v>45322</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>MIL</t>
+          <t>HOU</t>
         </is>
       </c>
       <c r="C6" t="n">
@@ -3139,11 +3261,11 @@
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45320</v>
+        <v>45324</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>BOS</t>
+          <t>SAS</t>
         </is>
       </c>
       <c r="C7" t="n">
@@ -3152,24 +3274,24 @@
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45322</v>
+        <v>45327</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>HOU</t>
+          <t>TOR</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>45324</v>
+        <v>45329</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>SAS</t>
+          <t>LAC</t>
         </is>
       </c>
       <c r="C9" t="n">
@@ -3178,24 +3300,24 @@
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>45327</v>
+        <v>45331</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>TOR</t>
+          <t>LAL</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>45329</v>
+        <v>45332</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>LAC</t>
+          <t>POR</t>
         </is>
       </c>
       <c r="C11" t="n">
@@ -3204,11 +3326,11 @@
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>45331</v>
+        <v>45334</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>LAL</t>
+          <t>MEM</t>
         </is>
       </c>
       <c r="C12" t="n">
@@ -3217,37 +3339,37 @@
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>45332</v>
+        <v>45336</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>POR</t>
+          <t>WAS</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>45334</v>
+        <v>45344</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>MEM</t>
+          <t>HOU</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>45336</v>
+        <v>45345</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>WAS</t>
+          <t>MIA</t>
         </is>
       </c>
       <c r="C15" t="n">
@@ -3256,11 +3378,11 @@
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>45344</v>
+        <v>45347</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>HOU</t>
+          <t>CHI</t>
         </is>
       </c>
       <c r="C16" t="n">
@@ -3269,50 +3391,50 @@
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>45345</v>
+        <v>45349</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>MIA</t>
+          <t>NYK</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>45347</v>
+        <v>45350</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>CHI</t>
+          <t>IND</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>45349</v>
+        <v>45352</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>NYK</t>
+          <t>IND</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>45350</v>
+        <v>45356</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>IND</t>
+          <t>TOR</t>
         </is>
       </c>
       <c r="C20" t="n">
@@ -3321,24 +3443,24 @@
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>45352</v>
+        <v>45359</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>IND</t>
+          <t>PHI</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>45356</v>
+        <v>45361</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>TOR</t>
+          <t>ATL</t>
         </is>
       </c>
       <c r="C22" t="n">
@@ -3347,37 +3469,37 @@
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>45359</v>
+        <v>45364</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>PHI</t>
+          <t>CLE</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>45361</v>
+        <v>45366</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>ATL</t>
+          <t>LAC</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>45364</v>
+        <v>45367</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>CLE</t>
+          <t>POR</t>
         </is>
       </c>
       <c r="C25" t="n">
@@ -3386,37 +3508,37 @@
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>45366</v>
+        <v>45370</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>LAC</t>
+          <t>BRK</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>45367</v>
+        <v>45372</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>POR</t>
+          <t>ORL</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>45370</v>
+        <v>45373</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>BRK</t>
+          <t>MIA</t>
         </is>
       </c>
       <c r="C28" t="n">
@@ -3425,11 +3547,11 @@
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>45372</v>
+        <v>45375</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>ORL</t>
+          <t>DET</t>
         </is>
       </c>
       <c r="C29" t="n">
@@ -3438,37 +3560,37 @@
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
-        <v>45373</v>
+        <v>45377</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>MIA</t>
+          <t>OKC</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
-        <v>45375</v>
+        <v>45379</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>DET</t>
+          <t>MIL</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
-        <v>45377</v>
+        <v>45381</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>OKC</t>
+          <t>BOS</t>
         </is>
       </c>
       <c r="C32" t="n">
@@ -3477,11 +3599,11 @@
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
-        <v>45379</v>
+        <v>45383</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>MIL</t>
+          <t>PHO</t>
         </is>
       </c>
       <c r="C33" t="n">
@@ -3490,11 +3612,11 @@
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
-        <v>45381</v>
+        <v>45385</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>BOS</t>
+          <t>ORL</t>
         </is>
       </c>
       <c r="C34" t="n">
@@ -3503,11 +3625,11 @@
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
-        <v>45383</v>
+        <v>45387</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>PHO</t>
+          <t>SAS</t>
         </is>
       </c>
       <c r="C35" t="n">
@@ -3516,37 +3638,37 @@
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
-        <v>45385</v>
+        <v>45389</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>ORL</t>
+          <t>PHO</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
-        <v>45387</v>
+        <v>45391</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>SAS</t>
+          <t>POR</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
-        <v>45389</v>
+        <v>45393</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>PHO</t>
+          <t>SAC</t>
         </is>
       </c>
       <c r="C38" t="n">
@@ -3555,11 +3677,11 @@
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
-        <v>45391</v>
+        <v>45394</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>POR</t>
+          <t>GSW</t>
         </is>
       </c>
       <c r="C39" t="n">
@@ -3568,40 +3690,14 @@
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
-        <v>45393</v>
+        <v>45396</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>SAC</t>
+          <t>LAL</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="2" t="n">
-        <v>45394</v>
-      </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>GSW</t>
-        </is>
-      </c>
-      <c r="C41" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="2" t="n">
-        <v>45396</v>
-      </c>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>LAL</t>
-        </is>
-      </c>
-      <c r="C42" t="n">
         <v>1</v>
       </c>
     </row>

--- a/data/CurrentSeason/NOP.xlsx
+++ b/data/CurrentSeason/NOP.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S44"/>
+  <dimension ref="A1:S45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3156,6 +3156,67 @@
       </c>
       <c r="S44" t="n">
         <v>0</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>44</v>
+      </c>
+      <c r="B45" s="2" t="n">
+        <v>45314</v>
+      </c>
+      <c r="C45" t="n">
+        <v>1</v>
+      </c>
+      <c r="D45" t="n">
+        <v>153</v>
+      </c>
+      <c r="E45" t="n">
+        <v>106.4</v>
+      </c>
+      <c r="F45" t="n">
+        <v>0.6879999999999999</v>
+      </c>
+      <c r="G45" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="H45" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="I45" t="n">
+        <v>0.096</v>
+      </c>
+      <c r="J45" t="n">
+        <v>143.8</v>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>UTA</t>
+        </is>
+      </c>
+      <c r="L45" t="n">
+        <v>124</v>
+      </c>
+      <c r="M45" t="n">
+        <v>0.533</v>
+      </c>
+      <c r="N45" t="n">
+        <v>7</v>
+      </c>
+      <c r="O45" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="P45" t="n">
+        <v>0.283</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>116.5</v>
+      </c>
+      <c r="R45" t="n">
+        <v>1</v>
+      </c>
+      <c r="S45" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -3169,7 +3230,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C40"/>
+  <dimension ref="A1:C39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3196,11 +3257,11 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45314</v>
+        <v>45317</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>UTA</t>
+          <t>OKC</t>
         </is>
       </c>
       <c r="C2" t="n">
@@ -3209,24 +3270,24 @@
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45317</v>
+        <v>45318</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>OKC</t>
+          <t>MIL</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45318</v>
+        <v>45320</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>MIL</t>
+          <t>BOS</t>
         </is>
       </c>
       <c r="C4" t="n">
@@ -3235,11 +3296,11 @@
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45320</v>
+        <v>45322</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>BOS</t>
+          <t>HOU</t>
         </is>
       </c>
       <c r="C5" t="n">
@@ -3248,11 +3309,11 @@
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45322</v>
+        <v>45324</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>HOU</t>
+          <t>SAS</t>
         </is>
       </c>
       <c r="C6" t="n">
@@ -3261,37 +3322,37 @@
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45324</v>
+        <v>45327</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>SAS</t>
+          <t>TOR</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45327</v>
+        <v>45329</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>TOR</t>
+          <t>LAC</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>45329</v>
+        <v>45331</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>LAC</t>
+          <t>LAL</t>
         </is>
       </c>
       <c r="C9" t="n">
@@ -3300,11 +3361,11 @@
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>45331</v>
+        <v>45332</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>LAL</t>
+          <t>POR</t>
         </is>
       </c>
       <c r="C10" t="n">
@@ -3313,11 +3374,11 @@
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>45332</v>
+        <v>45334</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>POR</t>
+          <t>MEM</t>
         </is>
       </c>
       <c r="C11" t="n">
@@ -3326,24 +3387,24 @@
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>45334</v>
+        <v>45336</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>MEM</t>
+          <t>WAS</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>45336</v>
+        <v>45344</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>WAS</t>
+          <t>HOU</t>
         </is>
       </c>
       <c r="C13" t="n">
@@ -3352,11 +3413,11 @@
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>45344</v>
+        <v>45345</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>HOU</t>
+          <t>MIA</t>
         </is>
       </c>
       <c r="C14" t="n">
@@ -3365,11 +3426,11 @@
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>45345</v>
+        <v>45347</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>MIA</t>
+          <t>CHI</t>
         </is>
       </c>
       <c r="C15" t="n">
@@ -3378,24 +3439,24 @@
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>45347</v>
+        <v>45349</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>CHI</t>
+          <t>NYK</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>45349</v>
+        <v>45350</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>NYK</t>
+          <t>IND</t>
         </is>
       </c>
       <c r="C17" t="n">
@@ -3404,7 +3465,7 @@
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>45350</v>
+        <v>45352</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
@@ -3412,29 +3473,29 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>45352</v>
+        <v>45356</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>IND</t>
+          <t>TOR</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>45356</v>
+        <v>45359</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>TOR</t>
+          <t>PHI</t>
         </is>
       </c>
       <c r="C20" t="n">
@@ -3443,11 +3504,11 @@
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>45359</v>
+        <v>45361</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>PHI</t>
+          <t>ATL</t>
         </is>
       </c>
       <c r="C21" t="n">
@@ -3456,24 +3517,24 @@
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>45361</v>
+        <v>45364</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>ATL</t>
+          <t>CLE</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>45364</v>
+        <v>45366</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>CLE</t>
+          <t>LAC</t>
         </is>
       </c>
       <c r="C23" t="n">
@@ -3482,11 +3543,11 @@
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>45366</v>
+        <v>45367</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>LAC</t>
+          <t>POR</t>
         </is>
       </c>
       <c r="C24" t="n">
@@ -3495,24 +3556,24 @@
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>45367</v>
+        <v>45370</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>POR</t>
+          <t>BRK</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>45370</v>
+        <v>45372</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>BRK</t>
+          <t>ORL</t>
         </is>
       </c>
       <c r="C26" t="n">
@@ -3521,11 +3582,11 @@
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>45372</v>
+        <v>45373</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>ORL</t>
+          <t>MIA</t>
         </is>
       </c>
       <c r="C27" t="n">
@@ -3534,11 +3595,11 @@
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>45373</v>
+        <v>45375</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>MIA</t>
+          <t>DET</t>
         </is>
       </c>
       <c r="C28" t="n">
@@ -3547,24 +3608,24 @@
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>45375</v>
+        <v>45377</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>DET</t>
+          <t>OKC</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
-        <v>45377</v>
+        <v>45379</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>OKC</t>
+          <t>MIL</t>
         </is>
       </c>
       <c r="C30" t="n">
@@ -3573,11 +3634,11 @@
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
-        <v>45379</v>
+        <v>45381</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>MIL</t>
+          <t>BOS</t>
         </is>
       </c>
       <c r="C31" t="n">
@@ -3586,11 +3647,11 @@
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
-        <v>45381</v>
+        <v>45383</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>BOS</t>
+          <t>PHO</t>
         </is>
       </c>
       <c r="C32" t="n">
@@ -3599,11 +3660,11 @@
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
-        <v>45383</v>
+        <v>45385</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>PHO</t>
+          <t>ORL</t>
         </is>
       </c>
       <c r="C33" t="n">
@@ -3612,11 +3673,11 @@
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
-        <v>45385</v>
+        <v>45387</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>ORL</t>
+          <t>SAS</t>
         </is>
       </c>
       <c r="C34" t="n">
@@ -3625,24 +3686,24 @@
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
-        <v>45387</v>
+        <v>45389</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>SAS</t>
+          <t>PHO</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
-        <v>45389</v>
+        <v>45391</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>PHO</t>
+          <t>POR</t>
         </is>
       </c>
       <c r="C36" t="n">
@@ -3651,11 +3712,11 @@
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
-        <v>45391</v>
+        <v>45393</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>POR</t>
+          <t>SAC</t>
         </is>
       </c>
       <c r="C37" t="n">
@@ -3664,11 +3725,11 @@
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
-        <v>45393</v>
+        <v>45394</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>SAC</t>
+          <t>GSW</t>
         </is>
       </c>
       <c r="C38" t="n">
@@ -3677,27 +3738,14 @@
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
-        <v>45394</v>
+        <v>45396</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>GSW</t>
+          <t>LAL</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="2" t="n">
-        <v>45396</v>
-      </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>LAL</t>
-        </is>
-      </c>
-      <c r="C40" t="n">
         <v>1</v>
       </c>
     </row>

--- a/data/CurrentSeason/NOP.xlsx
+++ b/data/CurrentSeason/NOP.xlsx
@@ -17,9 +17,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="yyyy-mm-dd"/>
-    <numFmt numFmtId="165" formatCode="YYYY-MM-DD"/>
+  <numFmts count="4">
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
+    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
+    <numFmt numFmtId="166" formatCode="yyyy-mm-dd"/>
+    <numFmt numFmtId="167" formatCode="YYYY-MM-DD"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -59,12 +61,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -430,7 +433,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S45"/>
+  <dimension ref="A1:S47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3217,6 +3220,128 @@
       </c>
       <c r="S45" t="n">
         <v>1</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>45</v>
+      </c>
+      <c r="B46" s="2" t="n">
+        <v>45317</v>
+      </c>
+      <c r="C46" t="n">
+        <v>-1</v>
+      </c>
+      <c r="D46" t="n">
+        <v>83</v>
+      </c>
+      <c r="E46" t="n">
+        <v>97.8</v>
+      </c>
+      <c r="F46" t="n">
+        <v>0.445</v>
+      </c>
+      <c r="G46" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="H46" t="n">
+        <v>17</v>
+      </c>
+      <c r="I46" t="n">
+        <v>0.122</v>
+      </c>
+      <c r="J46" t="n">
+        <v>84.90000000000001</v>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>OKC</t>
+        </is>
+      </c>
+      <c r="L46" t="n">
+        <v>107</v>
+      </c>
+      <c r="M46" t="n">
+        <v>0.534</v>
+      </c>
+      <c r="N46" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="O46" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="P46" t="n">
+        <v>0.148</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>109.5</v>
+      </c>
+      <c r="R46" t="n">
+        <v>1</v>
+      </c>
+      <c r="S46" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>46</v>
+      </c>
+      <c r="B47" s="3" t="n">
+        <v>45318</v>
+      </c>
+      <c r="C47" t="n">
+        <v>-2</v>
+      </c>
+      <c r="D47" t="n">
+        <v>117</v>
+      </c>
+      <c r="E47" t="n">
+        <v>104</v>
+      </c>
+      <c r="F47" t="n">
+        <v>0.524</v>
+      </c>
+      <c r="G47" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="H47" t="n">
+        <v>18.8</v>
+      </c>
+      <c r="I47" t="n">
+        <v>0.329</v>
+      </c>
+      <c r="J47" t="n">
+        <v>112.5</v>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>MIL</t>
+        </is>
+      </c>
+      <c r="L47" t="n">
+        <v>141</v>
+      </c>
+      <c r="M47" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="N47" t="n">
+        <v>8.1</v>
+      </c>
+      <c r="O47" t="n">
+        <v>15</v>
+      </c>
+      <c r="P47" t="n">
+        <v>0.209</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>135.6</v>
+      </c>
+      <c r="R47" t="n">
+        <v>0</v>
+      </c>
+      <c r="S47" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -3230,7 +3355,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C39"/>
+  <dimension ref="A1:C37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3256,496 +3381,470 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>45317</v>
+      <c r="A2" s="3" t="n">
+        <v>45320</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>BOS</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="3" t="n">
+        <v>45322</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>HOU</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="3" t="n">
+        <v>45324</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>SAS</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="3" t="n">
+        <v>45327</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>TOR</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="3" t="n">
+        <v>45329</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>LAC</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="3" t="n">
+        <v>45331</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>LAL</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="3" t="n">
+        <v>45332</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>POR</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="3" t="n">
+        <v>45334</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>MEM</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="3" t="n">
+        <v>45336</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>WAS</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="3" t="n">
+        <v>45344</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>HOU</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="3" t="n">
+        <v>45345</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>MIA</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="3" t="n">
+        <v>45347</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>CHI</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="3" t="n">
+        <v>45349</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>NYK</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="3" t="n">
+        <v>45350</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>IND</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="3" t="n">
+        <v>45352</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>IND</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="3" t="n">
+        <v>45356</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>TOR</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="3" t="n">
+        <v>45359</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>PHI</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="3" t="n">
+        <v>45361</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>ATL</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="3" t="n">
+        <v>45364</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>CLE</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="3" t="n">
+        <v>45366</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>LAC</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="3" t="n">
+        <v>45367</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>POR</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="3" t="n">
+        <v>45370</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>BRK</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="3" t="n">
+        <v>45372</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>ORL</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="3" t="n">
+        <v>45373</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>MIA</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="3" t="n">
+        <v>45375</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>DET</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="3" t="n">
+        <v>45377</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
           <t>OKC</t>
         </is>
       </c>
-      <c r="C2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>45318</v>
-      </c>
-      <c r="B3" t="inlineStr">
+      <c r="C27" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="3" t="n">
+        <v>45379</v>
+      </c>
+      <c r="B28" t="inlineStr">
         <is>
           <t>MIL</t>
         </is>
       </c>
-      <c r="C3" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>45320</v>
-      </c>
-      <c r="B4" t="inlineStr">
+      <c r="C28" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="3" t="n">
+        <v>45381</v>
+      </c>
+      <c r="B29" t="inlineStr">
         <is>
           <t>BOS</t>
         </is>
       </c>
-      <c r="C4" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>45322</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>HOU</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>45324</v>
-      </c>
-      <c r="B6" t="inlineStr">
+      <c r="C29" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="3" t="n">
+        <v>45383</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>PHO</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="3" t="n">
+        <v>45385</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>ORL</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="3" t="n">
+        <v>45387</v>
+      </c>
+      <c r="B32" t="inlineStr">
         <is>
           <t>SAS</t>
         </is>
       </c>
-      <c r="C6" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>45327</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>TOR</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>45329</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>LAC</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>45331</v>
-      </c>
-      <c r="B9" t="inlineStr">
+      <c r="C32" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="3" t="n">
+        <v>45389</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>PHO</t>
+        </is>
+      </c>
+      <c r="C33" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="3" t="n">
+        <v>45391</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>POR</t>
+        </is>
+      </c>
+      <c r="C34" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="3" t="n">
+        <v>45393</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>SAC</t>
+        </is>
+      </c>
+      <c r="C35" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="3" t="n">
+        <v>45394</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>GSW</t>
+        </is>
+      </c>
+      <c r="C36" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="3" t="n">
+        <v>45396</v>
+      </c>
+      <c r="B37" t="inlineStr">
         <is>
           <t>LAL</t>
         </is>
       </c>
-      <c r="C9" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>45332</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>POR</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>45334</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>MEM</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="n">
-        <v>45336</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>WAS</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="n">
-        <v>45344</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>HOU</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="2" t="n">
-        <v>45345</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>MIA</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="2" t="n">
-        <v>45347</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>CHI</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="2" t="n">
-        <v>45349</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>NYK</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="2" t="n">
-        <v>45350</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>IND</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="2" t="n">
-        <v>45352</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>IND</t>
-        </is>
-      </c>
-      <c r="C18" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="2" t="n">
-        <v>45356</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>TOR</t>
-        </is>
-      </c>
-      <c r="C19" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="2" t="n">
-        <v>45359</v>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>PHI</t>
-        </is>
-      </c>
-      <c r="C20" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="2" t="n">
-        <v>45361</v>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>ATL</t>
-        </is>
-      </c>
-      <c r="C21" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="2" t="n">
-        <v>45364</v>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>CLE</t>
-        </is>
-      </c>
-      <c r="C22" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="2" t="n">
-        <v>45366</v>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>LAC</t>
-        </is>
-      </c>
-      <c r="C23" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="2" t="n">
-        <v>45367</v>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>POR</t>
-        </is>
-      </c>
-      <c r="C24" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="2" t="n">
-        <v>45370</v>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>BRK</t>
-        </is>
-      </c>
-      <c r="C25" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="2" t="n">
-        <v>45372</v>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>ORL</t>
-        </is>
-      </c>
-      <c r="C26" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="2" t="n">
-        <v>45373</v>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>MIA</t>
-        </is>
-      </c>
-      <c r="C27" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="2" t="n">
-        <v>45375</v>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>DET</t>
-        </is>
-      </c>
-      <c r="C28" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="2" t="n">
-        <v>45377</v>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>OKC</t>
-        </is>
-      </c>
-      <c r="C29" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="2" t="n">
-        <v>45379</v>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>MIL</t>
-        </is>
-      </c>
-      <c r="C30" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="2" t="n">
-        <v>45381</v>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>BOS</t>
-        </is>
-      </c>
-      <c r="C31" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="2" t="n">
-        <v>45383</v>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>PHO</t>
-        </is>
-      </c>
-      <c r="C32" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="2" t="n">
-        <v>45385</v>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>ORL</t>
-        </is>
-      </c>
-      <c r="C33" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="2" t="n">
-        <v>45387</v>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>SAS</t>
-        </is>
-      </c>
-      <c r="C34" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="2" t="n">
-        <v>45389</v>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>PHO</t>
-        </is>
-      </c>
-      <c r="C35" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="2" t="n">
-        <v>45391</v>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>POR</t>
-        </is>
-      </c>
-      <c r="C36" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="2" t="n">
-        <v>45393</v>
-      </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>SAC</t>
-        </is>
-      </c>
       <c r="C37" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="2" t="n">
-        <v>45394</v>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>GSW</t>
-        </is>
-      </c>
-      <c r="C38" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="2" t="n">
-        <v>45396</v>
-      </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>LAL</t>
-        </is>
-      </c>
-      <c r="C39" t="n">
         <v>1</v>
       </c>
     </row>

--- a/data/CurrentSeason/NOP.xlsx
+++ b/data/CurrentSeason/NOP.xlsx
@@ -433,7 +433,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S47"/>
+  <dimension ref="A1:S48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3287,7 +3287,7 @@
       <c r="A47" t="n">
         <v>46</v>
       </c>
-      <c r="B47" s="3" t="n">
+      <c r="B47" s="2" t="n">
         <v>45318</v>
       </c>
       <c r="C47" t="n">
@@ -3341,6 +3341,67 @@
         <v>0</v>
       </c>
       <c r="S47" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>47</v>
+      </c>
+      <c r="B48" s="3" t="n">
+        <v>45320</v>
+      </c>
+      <c r="C48" t="n">
+        <v>-3</v>
+      </c>
+      <c r="D48" t="n">
+        <v>112</v>
+      </c>
+      <c r="E48" t="n">
+        <v>97.40000000000001</v>
+      </c>
+      <c r="F48" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="G48" t="n">
+        <v>11</v>
+      </c>
+      <c r="H48" t="n">
+        <v>20.9</v>
+      </c>
+      <c r="I48" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="J48" t="n">
+        <v>115</v>
+      </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>BOS</t>
+        </is>
+      </c>
+      <c r="L48" t="n">
+        <v>118</v>
+      </c>
+      <c r="M48" t="n">
+        <v>0.606</v>
+      </c>
+      <c r="N48" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="O48" t="n">
+        <v>16.2</v>
+      </c>
+      <c r="P48" t="n">
+        <v>0.176</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>121.1</v>
+      </c>
+      <c r="R48" t="n">
+        <v>0</v>
+      </c>
+      <c r="S48" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3355,7 +3416,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C37"/>
+  <dimension ref="A1:C36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3382,11 +3443,11 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>45320</v>
+        <v>45322</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>BOS</t>
+          <t>HOU</t>
         </is>
       </c>
       <c r="C2" t="n">
@@ -3395,11 +3456,11 @@
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>45322</v>
+        <v>45324</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>HOU</t>
+          <t>SAS</t>
         </is>
       </c>
       <c r="C3" t="n">
@@ -3408,37 +3469,37 @@
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>45324</v>
+        <v>45327</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>SAS</t>
+          <t>TOR</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>45327</v>
+        <v>45329</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>TOR</t>
+          <t>LAC</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="3" t="n">
-        <v>45329</v>
+        <v>45331</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>LAC</t>
+          <t>LAL</t>
         </is>
       </c>
       <c r="C6" t="n">
@@ -3447,11 +3508,11 @@
     </row>
     <row r="7">
       <c r="A7" s="3" t="n">
-        <v>45331</v>
+        <v>45332</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>LAL</t>
+          <t>POR</t>
         </is>
       </c>
       <c r="C7" t="n">
@@ -3460,11 +3521,11 @@
     </row>
     <row r="8">
       <c r="A8" s="3" t="n">
-        <v>45332</v>
+        <v>45334</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>POR</t>
+          <t>MEM</t>
         </is>
       </c>
       <c r="C8" t="n">
@@ -3473,24 +3534,24 @@
     </row>
     <row r="9">
       <c r="A9" s="3" t="n">
-        <v>45334</v>
+        <v>45336</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>MEM</t>
+          <t>WAS</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="3" t="n">
-        <v>45336</v>
+        <v>45344</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>WAS</t>
+          <t>HOU</t>
         </is>
       </c>
       <c r="C10" t="n">
@@ -3499,11 +3560,11 @@
     </row>
     <row r="11">
       <c r="A11" s="3" t="n">
-        <v>45344</v>
+        <v>45345</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>HOU</t>
+          <t>MIA</t>
         </is>
       </c>
       <c r="C11" t="n">
@@ -3512,11 +3573,11 @@
     </row>
     <row r="12">
       <c r="A12" s="3" t="n">
-        <v>45345</v>
+        <v>45347</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>MIA</t>
+          <t>CHI</t>
         </is>
       </c>
       <c r="C12" t="n">
@@ -3525,24 +3586,24 @@
     </row>
     <row r="13">
       <c r="A13" s="3" t="n">
-        <v>45347</v>
+        <v>45349</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>CHI</t>
+          <t>NYK</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="3" t="n">
-        <v>45349</v>
+        <v>45350</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>NYK</t>
+          <t>IND</t>
         </is>
       </c>
       <c r="C14" t="n">
@@ -3551,7 +3612,7 @@
     </row>
     <row r="15">
       <c r="A15" s="3" t="n">
-        <v>45350</v>
+        <v>45352</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
@@ -3559,29 +3620,29 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="3" t="n">
-        <v>45352</v>
+        <v>45356</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>IND</t>
+          <t>TOR</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="3" t="n">
-        <v>45356</v>
+        <v>45359</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>TOR</t>
+          <t>PHI</t>
         </is>
       </c>
       <c r="C17" t="n">
@@ -3590,11 +3651,11 @@
     </row>
     <row r="18">
       <c r="A18" s="3" t="n">
-        <v>45359</v>
+        <v>45361</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>PHI</t>
+          <t>ATL</t>
         </is>
       </c>
       <c r="C18" t="n">
@@ -3603,24 +3664,24 @@
     </row>
     <row r="19">
       <c r="A19" s="3" t="n">
-        <v>45361</v>
+        <v>45364</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>ATL</t>
+          <t>CLE</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="3" t="n">
-        <v>45364</v>
+        <v>45366</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>CLE</t>
+          <t>LAC</t>
         </is>
       </c>
       <c r="C20" t="n">
@@ -3629,11 +3690,11 @@
     </row>
     <row r="21">
       <c r="A21" s="3" t="n">
-        <v>45366</v>
+        <v>45367</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>LAC</t>
+          <t>POR</t>
         </is>
       </c>
       <c r="C21" t="n">
@@ -3642,24 +3703,24 @@
     </row>
     <row r="22">
       <c r="A22" s="3" t="n">
-        <v>45367</v>
+        <v>45370</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>POR</t>
+          <t>BRK</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="3" t="n">
-        <v>45370</v>
+        <v>45372</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>BRK</t>
+          <t>ORL</t>
         </is>
       </c>
       <c r="C23" t="n">
@@ -3668,11 +3729,11 @@
     </row>
     <row r="24">
       <c r="A24" s="3" t="n">
-        <v>45372</v>
+        <v>45373</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>ORL</t>
+          <t>MIA</t>
         </is>
       </c>
       <c r="C24" t="n">
@@ -3681,11 +3742,11 @@
     </row>
     <row r="25">
       <c r="A25" s="3" t="n">
-        <v>45373</v>
+        <v>45375</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>MIA</t>
+          <t>DET</t>
         </is>
       </c>
       <c r="C25" t="n">
@@ -3694,24 +3755,24 @@
     </row>
     <row r="26">
       <c r="A26" s="3" t="n">
-        <v>45375</v>
+        <v>45377</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>DET</t>
+          <t>OKC</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="3" t="n">
-        <v>45377</v>
+        <v>45379</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>OKC</t>
+          <t>MIL</t>
         </is>
       </c>
       <c r="C27" t="n">
@@ -3720,11 +3781,11 @@
     </row>
     <row r="28">
       <c r="A28" s="3" t="n">
-        <v>45379</v>
+        <v>45381</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>MIL</t>
+          <t>BOS</t>
         </is>
       </c>
       <c r="C28" t="n">
@@ -3733,11 +3794,11 @@
     </row>
     <row r="29">
       <c r="A29" s="3" t="n">
-        <v>45381</v>
+        <v>45383</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>BOS</t>
+          <t>PHO</t>
         </is>
       </c>
       <c r="C29" t="n">
@@ -3746,11 +3807,11 @@
     </row>
     <row r="30">
       <c r="A30" s="3" t="n">
-        <v>45383</v>
+        <v>45385</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>PHO</t>
+          <t>ORL</t>
         </is>
       </c>
       <c r="C30" t="n">
@@ -3759,11 +3820,11 @@
     </row>
     <row r="31">
       <c r="A31" s="3" t="n">
-        <v>45385</v>
+        <v>45387</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>ORL</t>
+          <t>SAS</t>
         </is>
       </c>
       <c r="C31" t="n">
@@ -3772,24 +3833,24 @@
     </row>
     <row r="32">
       <c r="A32" s="3" t="n">
-        <v>45387</v>
+        <v>45389</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>SAS</t>
+          <t>PHO</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="3" t="n">
-        <v>45389</v>
+        <v>45391</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>PHO</t>
+          <t>POR</t>
         </is>
       </c>
       <c r="C33" t="n">
@@ -3798,11 +3859,11 @@
     </row>
     <row r="34">
       <c r="A34" s="3" t="n">
-        <v>45391</v>
+        <v>45393</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>POR</t>
+          <t>SAC</t>
         </is>
       </c>
       <c r="C34" t="n">
@@ -3811,11 +3872,11 @@
     </row>
     <row r="35">
       <c r="A35" s="3" t="n">
-        <v>45393</v>
+        <v>45394</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>SAC</t>
+          <t>GSW</t>
         </is>
       </c>
       <c r="C35" t="n">
@@ -3824,27 +3885,14 @@
     </row>
     <row r="36">
       <c r="A36" s="3" t="n">
-        <v>45394</v>
+        <v>45396</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>GSW</t>
+          <t>LAL</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="3" t="n">
-        <v>45396</v>
-      </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>LAL</t>
-        </is>
-      </c>
-      <c r="C37" t="n">
         <v>1</v>
       </c>
     </row>

--- a/data/CurrentSeason/NOP.xlsx
+++ b/data/CurrentSeason/NOP.xlsx
@@ -3348,7 +3348,7 @@
       <c r="A48" t="n">
         <v>47</v>
       </c>
-      <c r="B48" s="3" t="n">
+      <c r="B48" s="2" t="n">
         <v>45320</v>
       </c>
       <c r="C48" t="n">

--- a/data/CurrentSeason/NOP.xlsx
+++ b/data/CurrentSeason/NOP.xlsx
@@ -433,7 +433,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S48"/>
+  <dimension ref="A1:S49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3403,6 +3403,67 @@
       </c>
       <c r="S48" t="n">
         <v>0</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>48</v>
+      </c>
+      <c r="B49" s="3" t="n">
+        <v>45322</v>
+      </c>
+      <c r="C49" t="n">
+        <v>1</v>
+      </c>
+      <c r="D49" t="n">
+        <v>110</v>
+      </c>
+      <c r="E49" t="n">
+        <v>93</v>
+      </c>
+      <c r="F49" t="n">
+        <v>0.5669999999999999</v>
+      </c>
+      <c r="G49" t="n">
+        <v>14.7</v>
+      </c>
+      <c r="H49" t="n">
+        <v>33.3</v>
+      </c>
+      <c r="I49" t="n">
+        <v>0.207</v>
+      </c>
+      <c r="J49" t="n">
+        <v>118.2</v>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>HOU</t>
+        </is>
+      </c>
+      <c r="L49" t="n">
+        <v>99</v>
+      </c>
+      <c r="M49" t="n">
+        <v>0.477</v>
+      </c>
+      <c r="N49" t="n">
+        <v>5</v>
+      </c>
+      <c r="O49" t="n">
+        <v>10.2</v>
+      </c>
+      <c r="P49" t="n">
+        <v>0.184</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>106.4</v>
+      </c>
+      <c r="R49" t="n">
+        <v>0</v>
+      </c>
+      <c r="S49" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -3416,7 +3477,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C36"/>
+  <dimension ref="A1:C35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3443,11 +3504,11 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>45322</v>
+        <v>45324</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>HOU</t>
+          <t>SAS</t>
         </is>
       </c>
       <c r="C2" t="n">
@@ -3456,37 +3517,37 @@
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>45324</v>
+        <v>45327</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>SAS</t>
+          <t>TOR</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>45327</v>
+        <v>45329</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>TOR</t>
+          <t>LAC</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>45329</v>
+        <v>45331</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>LAC</t>
+          <t>LAL</t>
         </is>
       </c>
       <c r="C5" t="n">
@@ -3495,11 +3556,11 @@
     </row>
     <row r="6">
       <c r="A6" s="3" t="n">
-        <v>45331</v>
+        <v>45332</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>LAL</t>
+          <t>POR</t>
         </is>
       </c>
       <c r="C6" t="n">
@@ -3508,11 +3569,11 @@
     </row>
     <row r="7">
       <c r="A7" s="3" t="n">
-        <v>45332</v>
+        <v>45334</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>POR</t>
+          <t>MEM</t>
         </is>
       </c>
       <c r="C7" t="n">
@@ -3521,24 +3582,24 @@
     </row>
     <row r="8">
       <c r="A8" s="3" t="n">
-        <v>45334</v>
+        <v>45336</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>MEM</t>
+          <t>WAS</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="3" t="n">
-        <v>45336</v>
+        <v>45344</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>WAS</t>
+          <t>HOU</t>
         </is>
       </c>
       <c r="C9" t="n">
@@ -3547,11 +3608,11 @@
     </row>
     <row r="10">
       <c r="A10" s="3" t="n">
-        <v>45344</v>
+        <v>45345</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>HOU</t>
+          <t>MIA</t>
         </is>
       </c>
       <c r="C10" t="n">
@@ -3560,11 +3621,11 @@
     </row>
     <row r="11">
       <c r="A11" s="3" t="n">
-        <v>45345</v>
+        <v>45347</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>MIA</t>
+          <t>CHI</t>
         </is>
       </c>
       <c r="C11" t="n">
@@ -3573,24 +3634,24 @@
     </row>
     <row r="12">
       <c r="A12" s="3" t="n">
-        <v>45347</v>
+        <v>45349</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>CHI</t>
+          <t>NYK</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="3" t="n">
-        <v>45349</v>
+        <v>45350</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>NYK</t>
+          <t>IND</t>
         </is>
       </c>
       <c r="C13" t="n">
@@ -3599,7 +3660,7 @@
     </row>
     <row r="14">
       <c r="A14" s="3" t="n">
-        <v>45350</v>
+        <v>45352</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
@@ -3607,29 +3668,29 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="3" t="n">
-        <v>45352</v>
+        <v>45356</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>IND</t>
+          <t>TOR</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="3" t="n">
-        <v>45356</v>
+        <v>45359</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>TOR</t>
+          <t>PHI</t>
         </is>
       </c>
       <c r="C16" t="n">
@@ -3638,11 +3699,11 @@
     </row>
     <row r="17">
       <c r="A17" s="3" t="n">
-        <v>45359</v>
+        <v>45361</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>PHI</t>
+          <t>ATL</t>
         </is>
       </c>
       <c r="C17" t="n">
@@ -3651,24 +3712,24 @@
     </row>
     <row r="18">
       <c r="A18" s="3" t="n">
-        <v>45361</v>
+        <v>45364</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>ATL</t>
+          <t>CLE</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="3" t="n">
-        <v>45364</v>
+        <v>45366</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>CLE</t>
+          <t>LAC</t>
         </is>
       </c>
       <c r="C19" t="n">
@@ -3677,11 +3738,11 @@
     </row>
     <row r="20">
       <c r="A20" s="3" t="n">
-        <v>45366</v>
+        <v>45367</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>LAC</t>
+          <t>POR</t>
         </is>
       </c>
       <c r="C20" t="n">
@@ -3690,24 +3751,24 @@
     </row>
     <row r="21">
       <c r="A21" s="3" t="n">
-        <v>45367</v>
+        <v>45370</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>POR</t>
+          <t>BRK</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="3" t="n">
-        <v>45370</v>
+        <v>45372</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>BRK</t>
+          <t>ORL</t>
         </is>
       </c>
       <c r="C22" t="n">
@@ -3716,11 +3777,11 @@
     </row>
     <row r="23">
       <c r="A23" s="3" t="n">
-        <v>45372</v>
+        <v>45373</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>ORL</t>
+          <t>MIA</t>
         </is>
       </c>
       <c r="C23" t="n">
@@ -3729,11 +3790,11 @@
     </row>
     <row r="24">
       <c r="A24" s="3" t="n">
-        <v>45373</v>
+        <v>45375</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>MIA</t>
+          <t>DET</t>
         </is>
       </c>
       <c r="C24" t="n">
@@ -3742,24 +3803,24 @@
     </row>
     <row r="25">
       <c r="A25" s="3" t="n">
-        <v>45375</v>
+        <v>45377</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>DET</t>
+          <t>OKC</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="3" t="n">
-        <v>45377</v>
+        <v>45379</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>OKC</t>
+          <t>MIL</t>
         </is>
       </c>
       <c r="C26" t="n">
@@ -3768,11 +3829,11 @@
     </row>
     <row r="27">
       <c r="A27" s="3" t="n">
-        <v>45379</v>
+        <v>45381</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>MIL</t>
+          <t>BOS</t>
         </is>
       </c>
       <c r="C27" t="n">
@@ -3781,11 +3842,11 @@
     </row>
     <row r="28">
       <c r="A28" s="3" t="n">
-        <v>45381</v>
+        <v>45383</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>BOS</t>
+          <t>PHO</t>
         </is>
       </c>
       <c r="C28" t="n">
@@ -3794,11 +3855,11 @@
     </row>
     <row r="29">
       <c r="A29" s="3" t="n">
-        <v>45383</v>
+        <v>45385</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>PHO</t>
+          <t>ORL</t>
         </is>
       </c>
       <c r="C29" t="n">
@@ -3807,11 +3868,11 @@
     </row>
     <row r="30">
       <c r="A30" s="3" t="n">
-        <v>45385</v>
+        <v>45387</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>ORL</t>
+          <t>SAS</t>
         </is>
       </c>
       <c r="C30" t="n">
@@ -3820,24 +3881,24 @@
     </row>
     <row r="31">
       <c r="A31" s="3" t="n">
-        <v>45387</v>
+        <v>45389</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>SAS</t>
+          <t>PHO</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="3" t="n">
-        <v>45389</v>
+        <v>45391</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>PHO</t>
+          <t>POR</t>
         </is>
       </c>
       <c r="C32" t="n">
@@ -3846,11 +3907,11 @@
     </row>
     <row r="33">
       <c r="A33" s="3" t="n">
-        <v>45391</v>
+        <v>45393</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>POR</t>
+          <t>SAC</t>
         </is>
       </c>
       <c r="C33" t="n">
@@ -3859,11 +3920,11 @@
     </row>
     <row r="34">
       <c r="A34" s="3" t="n">
-        <v>45393</v>
+        <v>45394</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>SAC</t>
+          <t>GSW</t>
         </is>
       </c>
       <c r="C34" t="n">
@@ -3872,27 +3933,14 @@
     </row>
     <row r="35">
       <c r="A35" s="3" t="n">
-        <v>45394</v>
+        <v>45396</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>GSW</t>
+          <t>LAL</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="3" t="n">
-        <v>45396</v>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>LAL</t>
-        </is>
-      </c>
-      <c r="C36" t="n">
         <v>1</v>
       </c>
     </row>

--- a/data/CurrentSeason/NOP.xlsx
+++ b/data/CurrentSeason/NOP.xlsx
@@ -433,7 +433,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S49"/>
+  <dimension ref="A1:S50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3409,7 +3409,7 @@
       <c r="A49" t="n">
         <v>48</v>
       </c>
-      <c r="B49" s="3" t="n">
+      <c r="B49" s="2" t="n">
         <v>45322</v>
       </c>
       <c r="C49" t="n">
@@ -3463,6 +3463,67 @@
         <v>0</v>
       </c>
       <c r="S49" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>49</v>
+      </c>
+      <c r="B50" s="3" t="n">
+        <v>45324</v>
+      </c>
+      <c r="C50" t="n">
+        <v>2</v>
+      </c>
+      <c r="D50" t="n">
+        <v>114</v>
+      </c>
+      <c r="E50" t="n">
+        <v>99</v>
+      </c>
+      <c r="F50" t="n">
+        <v>0.521</v>
+      </c>
+      <c r="G50" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="H50" t="n">
+        <v>26</v>
+      </c>
+      <c r="I50" t="n">
+        <v>0.158</v>
+      </c>
+      <c r="J50" t="n">
+        <v>115.1</v>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>SAS</t>
+        </is>
+      </c>
+      <c r="L50" t="n">
+        <v>113</v>
+      </c>
+      <c r="M50" t="n">
+        <v>0.531</v>
+      </c>
+      <c r="N50" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="O50" t="n">
+        <v>40.9</v>
+      </c>
+      <c r="P50" t="n">
+        <v>0.115</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>114.1</v>
+      </c>
+      <c r="R50" t="n">
+        <v>0</v>
+      </c>
+      <c r="S50" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3477,7 +3538,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C35"/>
+  <dimension ref="A1:C34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3504,37 +3565,37 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>45324</v>
+        <v>45327</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>SAS</t>
+          <t>TOR</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>45327</v>
+        <v>45329</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>TOR</t>
+          <t>LAC</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>45329</v>
+        <v>45331</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>LAC</t>
+          <t>LAL</t>
         </is>
       </c>
       <c r="C4" t="n">
@@ -3543,11 +3604,11 @@
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>45331</v>
+        <v>45332</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>LAL</t>
+          <t>POR</t>
         </is>
       </c>
       <c r="C5" t="n">
@@ -3556,11 +3617,11 @@
     </row>
     <row r="6">
       <c r="A6" s="3" t="n">
-        <v>45332</v>
+        <v>45334</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>POR</t>
+          <t>MEM</t>
         </is>
       </c>
       <c r="C6" t="n">
@@ -3569,24 +3630,24 @@
     </row>
     <row r="7">
       <c r="A7" s="3" t="n">
-        <v>45334</v>
+        <v>45336</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>MEM</t>
+          <t>WAS</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="3" t="n">
-        <v>45336</v>
+        <v>45344</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>WAS</t>
+          <t>HOU</t>
         </is>
       </c>
       <c r="C8" t="n">
@@ -3595,11 +3656,11 @@
     </row>
     <row r="9">
       <c r="A9" s="3" t="n">
-        <v>45344</v>
+        <v>45345</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>HOU</t>
+          <t>MIA</t>
         </is>
       </c>
       <c r="C9" t="n">
@@ -3608,11 +3669,11 @@
     </row>
     <row r="10">
       <c r="A10" s="3" t="n">
-        <v>45345</v>
+        <v>45347</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>MIA</t>
+          <t>CHI</t>
         </is>
       </c>
       <c r="C10" t="n">
@@ -3621,24 +3682,24 @@
     </row>
     <row r="11">
       <c r="A11" s="3" t="n">
-        <v>45347</v>
+        <v>45349</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>CHI</t>
+          <t>NYK</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="3" t="n">
-        <v>45349</v>
+        <v>45350</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>NYK</t>
+          <t>IND</t>
         </is>
       </c>
       <c r="C12" t="n">
@@ -3647,7 +3708,7 @@
     </row>
     <row r="13">
       <c r="A13" s="3" t="n">
-        <v>45350</v>
+        <v>45352</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
@@ -3655,29 +3716,29 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="3" t="n">
-        <v>45352</v>
+        <v>45356</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>IND</t>
+          <t>TOR</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="3" t="n">
-        <v>45356</v>
+        <v>45359</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>TOR</t>
+          <t>PHI</t>
         </is>
       </c>
       <c r="C15" t="n">
@@ -3686,11 +3747,11 @@
     </row>
     <row r="16">
       <c r="A16" s="3" t="n">
-        <v>45359</v>
+        <v>45361</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>PHI</t>
+          <t>ATL</t>
         </is>
       </c>
       <c r="C16" t="n">
@@ -3699,24 +3760,24 @@
     </row>
     <row r="17">
       <c r="A17" s="3" t="n">
-        <v>45361</v>
+        <v>45364</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>ATL</t>
+          <t>CLE</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="3" t="n">
-        <v>45364</v>
+        <v>45366</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>CLE</t>
+          <t>LAC</t>
         </is>
       </c>
       <c r="C18" t="n">
@@ -3725,11 +3786,11 @@
     </row>
     <row r="19">
       <c r="A19" s="3" t="n">
-        <v>45366</v>
+        <v>45367</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>LAC</t>
+          <t>POR</t>
         </is>
       </c>
       <c r="C19" t="n">
@@ -3738,24 +3799,24 @@
     </row>
     <row r="20">
       <c r="A20" s="3" t="n">
-        <v>45367</v>
+        <v>45370</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>POR</t>
+          <t>BRK</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="3" t="n">
-        <v>45370</v>
+        <v>45372</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>BRK</t>
+          <t>ORL</t>
         </is>
       </c>
       <c r="C21" t="n">
@@ -3764,11 +3825,11 @@
     </row>
     <row r="22">
       <c r="A22" s="3" t="n">
-        <v>45372</v>
+        <v>45373</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>ORL</t>
+          <t>MIA</t>
         </is>
       </c>
       <c r="C22" t="n">
@@ -3777,11 +3838,11 @@
     </row>
     <row r="23">
       <c r="A23" s="3" t="n">
-        <v>45373</v>
+        <v>45375</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>MIA</t>
+          <t>DET</t>
         </is>
       </c>
       <c r="C23" t="n">
@@ -3790,24 +3851,24 @@
     </row>
     <row r="24">
       <c r="A24" s="3" t="n">
-        <v>45375</v>
+        <v>45377</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>DET</t>
+          <t>OKC</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="3" t="n">
-        <v>45377</v>
+        <v>45379</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>OKC</t>
+          <t>MIL</t>
         </is>
       </c>
       <c r="C25" t="n">
@@ -3816,11 +3877,11 @@
     </row>
     <row r="26">
       <c r="A26" s="3" t="n">
-        <v>45379</v>
+        <v>45381</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>MIL</t>
+          <t>BOS</t>
         </is>
       </c>
       <c r="C26" t="n">
@@ -3829,11 +3890,11 @@
     </row>
     <row r="27">
       <c r="A27" s="3" t="n">
-        <v>45381</v>
+        <v>45383</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>BOS</t>
+          <t>PHO</t>
         </is>
       </c>
       <c r="C27" t="n">
@@ -3842,11 +3903,11 @@
     </row>
     <row r="28">
       <c r="A28" s="3" t="n">
-        <v>45383</v>
+        <v>45385</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>PHO</t>
+          <t>ORL</t>
         </is>
       </c>
       <c r="C28" t="n">
@@ -3855,11 +3916,11 @@
     </row>
     <row r="29">
       <c r="A29" s="3" t="n">
-        <v>45385</v>
+        <v>45387</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>ORL</t>
+          <t>SAS</t>
         </is>
       </c>
       <c r="C29" t="n">
@@ -3868,24 +3929,24 @@
     </row>
     <row r="30">
       <c r="A30" s="3" t="n">
-        <v>45387</v>
+        <v>45389</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>SAS</t>
+          <t>PHO</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="3" t="n">
-        <v>45389</v>
+        <v>45391</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>PHO</t>
+          <t>POR</t>
         </is>
       </c>
       <c r="C31" t="n">
@@ -3894,11 +3955,11 @@
     </row>
     <row r="32">
       <c r="A32" s="3" t="n">
-        <v>45391</v>
+        <v>45393</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>POR</t>
+          <t>SAC</t>
         </is>
       </c>
       <c r="C32" t="n">
@@ -3907,11 +3968,11 @@
     </row>
     <row r="33">
       <c r="A33" s="3" t="n">
-        <v>45393</v>
+        <v>45394</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>SAC</t>
+          <t>GSW</t>
         </is>
       </c>
       <c r="C33" t="n">
@@ -3920,27 +3981,14 @@
     </row>
     <row r="34">
       <c r="A34" s="3" t="n">
-        <v>45394</v>
+        <v>45396</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>GSW</t>
+          <t>LAL</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="3" t="n">
-        <v>45396</v>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>LAL</t>
-        </is>
-      </c>
-      <c r="C35" t="n">
         <v>1</v>
       </c>
     </row>

--- a/data/CurrentSeason/NOP.xlsx
+++ b/data/CurrentSeason/NOP.xlsx
@@ -3470,7 +3470,7 @@
       <c r="A50" t="n">
         <v>49</v>
       </c>
-      <c r="B50" s="3" t="n">
+      <c r="B50" s="2" t="n">
         <v>45324</v>
       </c>
       <c r="C50" t="n">

--- a/data/CurrentSeason/NOP.xlsx
+++ b/data/CurrentSeason/NOP.xlsx
@@ -433,7 +433,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S50"/>
+  <dimension ref="A1:S51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3524,6 +3524,67 @@
         <v>0</v>
       </c>
       <c r="S50" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>50</v>
+      </c>
+      <c r="B51" s="3" t="n">
+        <v>45327</v>
+      </c>
+      <c r="C51" t="n">
+        <v>3</v>
+      </c>
+      <c r="D51" t="n">
+        <v>138</v>
+      </c>
+      <c r="E51" t="n">
+        <v>96.40000000000001</v>
+      </c>
+      <c r="F51" t="n">
+        <v>0.601</v>
+      </c>
+      <c r="G51" t="n">
+        <v>6</v>
+      </c>
+      <c r="H51" t="n">
+        <v>37.8</v>
+      </c>
+      <c r="I51" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="J51" t="n">
+        <v>143.1</v>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>TOR</t>
+        </is>
+      </c>
+      <c r="L51" t="n">
+        <v>100</v>
+      </c>
+      <c r="M51" t="n">
+        <v>0.536</v>
+      </c>
+      <c r="N51" t="n">
+        <v>16.6</v>
+      </c>
+      <c r="O51" t="n">
+        <v>22.7</v>
+      </c>
+      <c r="P51" t="n">
+        <v>0.119</v>
+      </c>
+      <c r="Q51" t="n">
+        <v>103.7</v>
+      </c>
+      <c r="R51" t="n">
+        <v>1</v>
+      </c>
+      <c r="S51" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3538,7 +3599,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C34"/>
+  <dimension ref="A1:C33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3565,24 +3626,24 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>45327</v>
+        <v>45329</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>TOR</t>
+          <t>LAC</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>45329</v>
+        <v>45331</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>LAC</t>
+          <t>LAL</t>
         </is>
       </c>
       <c r="C3" t="n">
@@ -3591,11 +3652,11 @@
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>45331</v>
+        <v>45332</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>LAL</t>
+          <t>POR</t>
         </is>
       </c>
       <c r="C4" t="n">
@@ -3604,11 +3665,11 @@
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>45332</v>
+        <v>45334</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>POR</t>
+          <t>MEM</t>
         </is>
       </c>
       <c r="C5" t="n">
@@ -3617,24 +3678,24 @@
     </row>
     <row r="6">
       <c r="A6" s="3" t="n">
-        <v>45334</v>
+        <v>45336</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>MEM</t>
+          <t>WAS</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="3" t="n">
-        <v>45336</v>
+        <v>45344</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>WAS</t>
+          <t>HOU</t>
         </is>
       </c>
       <c r="C7" t="n">
@@ -3643,11 +3704,11 @@
     </row>
     <row r="8">
       <c r="A8" s="3" t="n">
-        <v>45344</v>
+        <v>45345</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>HOU</t>
+          <t>MIA</t>
         </is>
       </c>
       <c r="C8" t="n">
@@ -3656,11 +3717,11 @@
     </row>
     <row r="9">
       <c r="A9" s="3" t="n">
-        <v>45345</v>
+        <v>45347</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>MIA</t>
+          <t>CHI</t>
         </is>
       </c>
       <c r="C9" t="n">
@@ -3669,24 +3730,24 @@
     </row>
     <row r="10">
       <c r="A10" s="3" t="n">
-        <v>45347</v>
+        <v>45349</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>CHI</t>
+          <t>NYK</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="3" t="n">
-        <v>45349</v>
+        <v>45350</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>NYK</t>
+          <t>IND</t>
         </is>
       </c>
       <c r="C11" t="n">
@@ -3695,7 +3756,7 @@
     </row>
     <row r="12">
       <c r="A12" s="3" t="n">
-        <v>45350</v>
+        <v>45352</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
@@ -3703,29 +3764,29 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="3" t="n">
-        <v>45352</v>
+        <v>45356</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>IND</t>
+          <t>TOR</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="3" t="n">
-        <v>45356</v>
+        <v>45359</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>TOR</t>
+          <t>PHI</t>
         </is>
       </c>
       <c r="C14" t="n">
@@ -3734,11 +3795,11 @@
     </row>
     <row r="15">
       <c r="A15" s="3" t="n">
-        <v>45359</v>
+        <v>45361</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>PHI</t>
+          <t>ATL</t>
         </is>
       </c>
       <c r="C15" t="n">
@@ -3747,24 +3808,24 @@
     </row>
     <row r="16">
       <c r="A16" s="3" t="n">
-        <v>45361</v>
+        <v>45364</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>ATL</t>
+          <t>CLE</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="3" t="n">
-        <v>45364</v>
+        <v>45366</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>CLE</t>
+          <t>LAC</t>
         </is>
       </c>
       <c r="C17" t="n">
@@ -3773,11 +3834,11 @@
     </row>
     <row r="18">
       <c r="A18" s="3" t="n">
-        <v>45366</v>
+        <v>45367</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>LAC</t>
+          <t>POR</t>
         </is>
       </c>
       <c r="C18" t="n">
@@ -3786,24 +3847,24 @@
     </row>
     <row r="19">
       <c r="A19" s="3" t="n">
-        <v>45367</v>
+        <v>45370</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>POR</t>
+          <t>BRK</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="3" t="n">
-        <v>45370</v>
+        <v>45372</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>BRK</t>
+          <t>ORL</t>
         </is>
       </c>
       <c r="C20" t="n">
@@ -3812,11 +3873,11 @@
     </row>
     <row r="21">
       <c r="A21" s="3" t="n">
-        <v>45372</v>
+        <v>45373</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>ORL</t>
+          <t>MIA</t>
         </is>
       </c>
       <c r="C21" t="n">
@@ -3825,11 +3886,11 @@
     </row>
     <row r="22">
       <c r="A22" s="3" t="n">
-        <v>45373</v>
+        <v>45375</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>MIA</t>
+          <t>DET</t>
         </is>
       </c>
       <c r="C22" t="n">
@@ -3838,24 +3899,24 @@
     </row>
     <row r="23">
       <c r="A23" s="3" t="n">
-        <v>45375</v>
+        <v>45377</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>DET</t>
+          <t>OKC</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="3" t="n">
-        <v>45377</v>
+        <v>45379</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>OKC</t>
+          <t>MIL</t>
         </is>
       </c>
       <c r="C24" t="n">
@@ -3864,11 +3925,11 @@
     </row>
     <row r="25">
       <c r="A25" s="3" t="n">
-        <v>45379</v>
+        <v>45381</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>MIL</t>
+          <t>BOS</t>
         </is>
       </c>
       <c r="C25" t="n">
@@ -3877,11 +3938,11 @@
     </row>
     <row r="26">
       <c r="A26" s="3" t="n">
-        <v>45381</v>
+        <v>45383</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>BOS</t>
+          <t>PHO</t>
         </is>
       </c>
       <c r="C26" t="n">
@@ -3890,11 +3951,11 @@
     </row>
     <row r="27">
       <c r="A27" s="3" t="n">
-        <v>45383</v>
+        <v>45385</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>PHO</t>
+          <t>ORL</t>
         </is>
       </c>
       <c r="C27" t="n">
@@ -3903,11 +3964,11 @@
     </row>
     <row r="28">
       <c r="A28" s="3" t="n">
-        <v>45385</v>
+        <v>45387</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>ORL</t>
+          <t>SAS</t>
         </is>
       </c>
       <c r="C28" t="n">
@@ -3916,24 +3977,24 @@
     </row>
     <row r="29">
       <c r="A29" s="3" t="n">
-        <v>45387</v>
+        <v>45389</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>SAS</t>
+          <t>PHO</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="3" t="n">
-        <v>45389</v>
+        <v>45391</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>PHO</t>
+          <t>POR</t>
         </is>
       </c>
       <c r="C30" t="n">
@@ -3942,11 +4003,11 @@
     </row>
     <row r="31">
       <c r="A31" s="3" t="n">
-        <v>45391</v>
+        <v>45393</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>POR</t>
+          <t>SAC</t>
         </is>
       </c>
       <c r="C31" t="n">
@@ -3955,11 +4016,11 @@
     </row>
     <row r="32">
       <c r="A32" s="3" t="n">
-        <v>45393</v>
+        <v>45394</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>SAC</t>
+          <t>GSW</t>
         </is>
       </c>
       <c r="C32" t="n">
@@ -3968,27 +4029,14 @@
     </row>
     <row r="33">
       <c r="A33" s="3" t="n">
-        <v>45394</v>
+        <v>45396</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>GSW</t>
+          <t>LAL</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="3" t="n">
-        <v>45396</v>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>LAL</t>
-        </is>
-      </c>
-      <c r="C34" t="n">
         <v>1</v>
       </c>
     </row>

--- a/data/CurrentSeason/NOP.xlsx
+++ b/data/CurrentSeason/NOP.xlsx
@@ -433,7 +433,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S51"/>
+  <dimension ref="A1:S52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3531,7 +3531,7 @@
       <c r="A51" t="n">
         <v>50</v>
       </c>
-      <c r="B51" s="3" t="n">
+      <c r="B51" s="2" t="n">
         <v>45327</v>
       </c>
       <c r="C51" t="n">
@@ -3585,6 +3585,67 @@
         <v>1</v>
       </c>
       <c r="S51" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>51</v>
+      </c>
+      <c r="B52" s="3" t="n">
+        <v>45329</v>
+      </c>
+      <c r="C52" t="n">
+        <v>4</v>
+      </c>
+      <c r="D52" t="n">
+        <v>117</v>
+      </c>
+      <c r="E52" t="n">
+        <v>97.40000000000001</v>
+      </c>
+      <c r="F52" t="n">
+        <v>0.602</v>
+      </c>
+      <c r="G52" t="n">
+        <v>11.2</v>
+      </c>
+      <c r="H52" t="n">
+        <v>21.6</v>
+      </c>
+      <c r="I52" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="J52" t="n">
+        <v>120.1</v>
+      </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>LAC</t>
+        </is>
+      </c>
+      <c r="L52" t="n">
+        <v>106</v>
+      </c>
+      <c r="M52" t="n">
+        <v>0.538</v>
+      </c>
+      <c r="N52" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="O52" t="n">
+        <v>21.1</v>
+      </c>
+      <c r="P52" t="n">
+        <v>0.282</v>
+      </c>
+      <c r="Q52" t="n">
+        <v>108.8</v>
+      </c>
+      <c r="R52" t="n">
+        <v>0</v>
+      </c>
+      <c r="S52" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3599,7 +3660,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C33"/>
+  <dimension ref="A1:C32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3626,11 +3687,11 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>45329</v>
+        <v>45331</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>LAC</t>
+          <t>LAL</t>
         </is>
       </c>
       <c r="C2" t="n">
@@ -3639,11 +3700,11 @@
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>45331</v>
+        <v>45332</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>LAL</t>
+          <t>POR</t>
         </is>
       </c>
       <c r="C3" t="n">
@@ -3652,11 +3713,11 @@
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>45332</v>
+        <v>45334</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>POR</t>
+          <t>MEM</t>
         </is>
       </c>
       <c r="C4" t="n">
@@ -3665,24 +3726,24 @@
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>45334</v>
+        <v>45336</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>MEM</t>
+          <t>WAS</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="3" t="n">
-        <v>45336</v>
+        <v>45344</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>WAS</t>
+          <t>HOU</t>
         </is>
       </c>
       <c r="C6" t="n">
@@ -3691,11 +3752,11 @@
     </row>
     <row r="7">
       <c r="A7" s="3" t="n">
-        <v>45344</v>
+        <v>45345</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>HOU</t>
+          <t>MIA</t>
         </is>
       </c>
       <c r="C7" t="n">
@@ -3704,11 +3765,11 @@
     </row>
     <row r="8">
       <c r="A8" s="3" t="n">
-        <v>45345</v>
+        <v>45347</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>MIA</t>
+          <t>CHI</t>
         </is>
       </c>
       <c r="C8" t="n">
@@ -3717,24 +3778,24 @@
     </row>
     <row r="9">
       <c r="A9" s="3" t="n">
-        <v>45347</v>
+        <v>45349</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>CHI</t>
+          <t>NYK</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="3" t="n">
-        <v>45349</v>
+        <v>45350</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>NYK</t>
+          <t>IND</t>
         </is>
       </c>
       <c r="C10" t="n">
@@ -3743,7 +3804,7 @@
     </row>
     <row r="11">
       <c r="A11" s="3" t="n">
-        <v>45350</v>
+        <v>45352</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
@@ -3751,29 +3812,29 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="3" t="n">
-        <v>45352</v>
+        <v>45356</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>IND</t>
+          <t>TOR</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="3" t="n">
-        <v>45356</v>
+        <v>45359</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>TOR</t>
+          <t>PHI</t>
         </is>
       </c>
       <c r="C13" t="n">
@@ -3782,11 +3843,11 @@
     </row>
     <row r="14">
       <c r="A14" s="3" t="n">
-        <v>45359</v>
+        <v>45361</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>PHI</t>
+          <t>ATL</t>
         </is>
       </c>
       <c r="C14" t="n">
@@ -3795,24 +3856,24 @@
     </row>
     <row r="15">
       <c r="A15" s="3" t="n">
-        <v>45361</v>
+        <v>45364</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>ATL</t>
+          <t>CLE</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="3" t="n">
-        <v>45364</v>
+        <v>45366</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>CLE</t>
+          <t>LAC</t>
         </is>
       </c>
       <c r="C16" t="n">
@@ -3821,11 +3882,11 @@
     </row>
     <row r="17">
       <c r="A17" s="3" t="n">
-        <v>45366</v>
+        <v>45367</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>LAC</t>
+          <t>POR</t>
         </is>
       </c>
       <c r="C17" t="n">
@@ -3834,24 +3895,24 @@
     </row>
     <row r="18">
       <c r="A18" s="3" t="n">
-        <v>45367</v>
+        <v>45370</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>POR</t>
+          <t>BRK</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="3" t="n">
-        <v>45370</v>
+        <v>45372</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>BRK</t>
+          <t>ORL</t>
         </is>
       </c>
       <c r="C19" t="n">
@@ -3860,11 +3921,11 @@
     </row>
     <row r="20">
       <c r="A20" s="3" t="n">
-        <v>45372</v>
+        <v>45373</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>ORL</t>
+          <t>MIA</t>
         </is>
       </c>
       <c r="C20" t="n">
@@ -3873,11 +3934,11 @@
     </row>
     <row r="21">
       <c r="A21" s="3" t="n">
-        <v>45373</v>
+        <v>45375</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>MIA</t>
+          <t>DET</t>
         </is>
       </c>
       <c r="C21" t="n">
@@ -3886,24 +3947,24 @@
     </row>
     <row r="22">
       <c r="A22" s="3" t="n">
-        <v>45375</v>
+        <v>45377</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>DET</t>
+          <t>OKC</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="3" t="n">
-        <v>45377</v>
+        <v>45379</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>OKC</t>
+          <t>MIL</t>
         </is>
       </c>
       <c r="C23" t="n">
@@ -3912,11 +3973,11 @@
     </row>
     <row r="24">
       <c r="A24" s="3" t="n">
-        <v>45379</v>
+        <v>45381</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>MIL</t>
+          <t>BOS</t>
         </is>
       </c>
       <c r="C24" t="n">
@@ -3925,11 +3986,11 @@
     </row>
     <row r="25">
       <c r="A25" s="3" t="n">
-        <v>45381</v>
+        <v>45383</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>BOS</t>
+          <t>PHO</t>
         </is>
       </c>
       <c r="C25" t="n">
@@ -3938,11 +3999,11 @@
     </row>
     <row r="26">
       <c r="A26" s="3" t="n">
-        <v>45383</v>
+        <v>45385</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>PHO</t>
+          <t>ORL</t>
         </is>
       </c>
       <c r="C26" t="n">
@@ -3951,11 +4012,11 @@
     </row>
     <row r="27">
       <c r="A27" s="3" t="n">
-        <v>45385</v>
+        <v>45387</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>ORL</t>
+          <t>SAS</t>
         </is>
       </c>
       <c r="C27" t="n">
@@ -3964,24 +4025,24 @@
     </row>
     <row r="28">
       <c r="A28" s="3" t="n">
-        <v>45387</v>
+        <v>45389</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>SAS</t>
+          <t>PHO</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="3" t="n">
-        <v>45389</v>
+        <v>45391</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>PHO</t>
+          <t>POR</t>
         </is>
       </c>
       <c r="C29" t="n">
@@ -3990,11 +4051,11 @@
     </row>
     <row r="30">
       <c r="A30" s="3" t="n">
-        <v>45391</v>
+        <v>45393</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>POR</t>
+          <t>SAC</t>
         </is>
       </c>
       <c r="C30" t="n">
@@ -4003,11 +4064,11 @@
     </row>
     <row r="31">
       <c r="A31" s="3" t="n">
-        <v>45393</v>
+        <v>45394</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>SAC</t>
+          <t>GSW</t>
         </is>
       </c>
       <c r="C31" t="n">
@@ -4016,27 +4077,14 @@
     </row>
     <row r="32">
       <c r="A32" s="3" t="n">
-        <v>45394</v>
+        <v>45396</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>GSW</t>
+          <t>LAL</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="3" t="n">
-        <v>45396</v>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>LAL</t>
-        </is>
-      </c>
-      <c r="C33" t="n">
         <v>1</v>
       </c>
     </row>

--- a/data/CurrentSeason/NOP.xlsx
+++ b/data/CurrentSeason/NOP.xlsx
@@ -433,7 +433,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S52"/>
+  <dimension ref="A1:S53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3592,7 +3592,7 @@
       <c r="A52" t="n">
         <v>51</v>
       </c>
-      <c r="B52" s="3" t="n">
+      <c r="B52" s="2" t="n">
         <v>45329</v>
       </c>
       <c r="C52" t="n">
@@ -3647,6 +3647,67 @@
       </c>
       <c r="S52" t="n">
         <v>1</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>52</v>
+      </c>
+      <c r="B53" s="3" t="n">
+        <v>45331</v>
+      </c>
+      <c r="C53" t="n">
+        <v>-1</v>
+      </c>
+      <c r="D53" t="n">
+        <v>122</v>
+      </c>
+      <c r="E53" t="n">
+        <v>100.4</v>
+      </c>
+      <c r="F53" t="n">
+        <v>0.579</v>
+      </c>
+      <c r="G53" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="H53" t="n">
+        <v>27</v>
+      </c>
+      <c r="I53" t="n">
+        <v>0.213</v>
+      </c>
+      <c r="J53" t="n">
+        <v>121.5</v>
+      </c>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>LAL</t>
+        </is>
+      </c>
+      <c r="L53" t="n">
+        <v>139</v>
+      </c>
+      <c r="M53" t="n">
+        <v>0.636</v>
+      </c>
+      <c r="N53" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="O53" t="n">
+        <v>13.9</v>
+      </c>
+      <c r="P53" t="n">
+        <v>0.307</v>
+      </c>
+      <c r="Q53" t="n">
+        <v>138.5</v>
+      </c>
+      <c r="R53" t="n">
+        <v>0</v>
+      </c>
+      <c r="S53" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -3660,7 +3721,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C32"/>
+  <dimension ref="A1:C31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3687,11 +3748,11 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>45331</v>
+        <v>45332</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>LAL</t>
+          <t>POR</t>
         </is>
       </c>
       <c r="C2" t="n">
@@ -3700,11 +3761,11 @@
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>45332</v>
+        <v>45334</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>POR</t>
+          <t>MEM</t>
         </is>
       </c>
       <c r="C3" t="n">
@@ -3713,24 +3774,24 @@
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>45334</v>
+        <v>45336</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>MEM</t>
+          <t>WAS</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>45336</v>
+        <v>45344</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>WAS</t>
+          <t>HOU</t>
         </is>
       </c>
       <c r="C5" t="n">
@@ -3739,11 +3800,11 @@
     </row>
     <row r="6">
       <c r="A6" s="3" t="n">
-        <v>45344</v>
+        <v>45345</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>HOU</t>
+          <t>MIA</t>
         </is>
       </c>
       <c r="C6" t="n">
@@ -3752,11 +3813,11 @@
     </row>
     <row r="7">
       <c r="A7" s="3" t="n">
-        <v>45345</v>
+        <v>45347</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>MIA</t>
+          <t>CHI</t>
         </is>
       </c>
       <c r="C7" t="n">
@@ -3765,24 +3826,24 @@
     </row>
     <row r="8">
       <c r="A8" s="3" t="n">
-        <v>45347</v>
+        <v>45349</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>CHI</t>
+          <t>NYK</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="3" t="n">
-        <v>45349</v>
+        <v>45350</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>NYK</t>
+          <t>IND</t>
         </is>
       </c>
       <c r="C9" t="n">
@@ -3791,7 +3852,7 @@
     </row>
     <row r="10">
       <c r="A10" s="3" t="n">
-        <v>45350</v>
+        <v>45352</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
@@ -3799,29 +3860,29 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="3" t="n">
-        <v>45352</v>
+        <v>45356</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>IND</t>
+          <t>TOR</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="3" t="n">
-        <v>45356</v>
+        <v>45359</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>TOR</t>
+          <t>PHI</t>
         </is>
       </c>
       <c r="C12" t="n">
@@ -3830,11 +3891,11 @@
     </row>
     <row r="13">
       <c r="A13" s="3" t="n">
-        <v>45359</v>
+        <v>45361</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>PHI</t>
+          <t>ATL</t>
         </is>
       </c>
       <c r="C13" t="n">
@@ -3843,24 +3904,24 @@
     </row>
     <row r="14">
       <c r="A14" s="3" t="n">
-        <v>45361</v>
+        <v>45364</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>ATL</t>
+          <t>CLE</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="3" t="n">
-        <v>45364</v>
+        <v>45366</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>CLE</t>
+          <t>LAC</t>
         </is>
       </c>
       <c r="C15" t="n">
@@ -3869,11 +3930,11 @@
     </row>
     <row r="16">
       <c r="A16" s="3" t="n">
-        <v>45366</v>
+        <v>45367</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>LAC</t>
+          <t>POR</t>
         </is>
       </c>
       <c r="C16" t="n">
@@ -3882,24 +3943,24 @@
     </row>
     <row r="17">
       <c r="A17" s="3" t="n">
-        <v>45367</v>
+        <v>45370</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>POR</t>
+          <t>BRK</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="3" t="n">
-        <v>45370</v>
+        <v>45372</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>BRK</t>
+          <t>ORL</t>
         </is>
       </c>
       <c r="C18" t="n">
@@ -3908,11 +3969,11 @@
     </row>
     <row r="19">
       <c r="A19" s="3" t="n">
-        <v>45372</v>
+        <v>45373</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>ORL</t>
+          <t>MIA</t>
         </is>
       </c>
       <c r="C19" t="n">
@@ -3921,11 +3982,11 @@
     </row>
     <row r="20">
       <c r="A20" s="3" t="n">
-        <v>45373</v>
+        <v>45375</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>MIA</t>
+          <t>DET</t>
         </is>
       </c>
       <c r="C20" t="n">
@@ -3934,24 +3995,24 @@
     </row>
     <row r="21">
       <c r="A21" s="3" t="n">
-        <v>45375</v>
+        <v>45377</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>DET</t>
+          <t>OKC</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="3" t="n">
-        <v>45377</v>
+        <v>45379</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>OKC</t>
+          <t>MIL</t>
         </is>
       </c>
       <c r="C22" t="n">
@@ -3960,11 +4021,11 @@
     </row>
     <row r="23">
       <c r="A23" s="3" t="n">
-        <v>45379</v>
+        <v>45381</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>MIL</t>
+          <t>BOS</t>
         </is>
       </c>
       <c r="C23" t="n">
@@ -3973,11 +4034,11 @@
     </row>
     <row r="24">
       <c r="A24" s="3" t="n">
-        <v>45381</v>
+        <v>45383</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>BOS</t>
+          <t>PHO</t>
         </is>
       </c>
       <c r="C24" t="n">
@@ -3986,11 +4047,11 @@
     </row>
     <row r="25">
       <c r="A25" s="3" t="n">
-        <v>45383</v>
+        <v>45385</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>PHO</t>
+          <t>ORL</t>
         </is>
       </c>
       <c r="C25" t="n">
@@ -3999,11 +4060,11 @@
     </row>
     <row r="26">
       <c r="A26" s="3" t="n">
-        <v>45385</v>
+        <v>45387</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>ORL</t>
+          <t>SAS</t>
         </is>
       </c>
       <c r="C26" t="n">
@@ -4012,24 +4073,24 @@
     </row>
     <row r="27">
       <c r="A27" s="3" t="n">
-        <v>45387</v>
+        <v>45389</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>SAS</t>
+          <t>PHO</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="3" t="n">
-        <v>45389</v>
+        <v>45391</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>PHO</t>
+          <t>POR</t>
         </is>
       </c>
       <c r="C28" t="n">
@@ -4038,11 +4099,11 @@
     </row>
     <row r="29">
       <c r="A29" s="3" t="n">
-        <v>45391</v>
+        <v>45393</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>POR</t>
+          <t>SAC</t>
         </is>
       </c>
       <c r="C29" t="n">
@@ -4051,11 +4112,11 @@
     </row>
     <row r="30">
       <c r="A30" s="3" t="n">
-        <v>45393</v>
+        <v>45394</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>SAC</t>
+          <t>GSW</t>
         </is>
       </c>
       <c r="C30" t="n">
@@ -4064,27 +4125,14 @@
     </row>
     <row r="31">
       <c r="A31" s="3" t="n">
-        <v>45394</v>
+        <v>45396</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>GSW</t>
+          <t>LAL</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="3" t="n">
-        <v>45396</v>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>LAL</t>
-        </is>
-      </c>
-      <c r="C32" t="n">
         <v>1</v>
       </c>
     </row>

--- a/data/CurrentSeason/NOP.xlsx
+++ b/data/CurrentSeason/NOP.xlsx
@@ -433,7 +433,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S53"/>
+  <dimension ref="A1:S54"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3653,7 +3653,7 @@
       <c r="A53" t="n">
         <v>52</v>
       </c>
-      <c r="B53" s="3" t="n">
+      <c r="B53" s="2" t="n">
         <v>45331</v>
       </c>
       <c r="C53" t="n">
@@ -3708,6 +3708,67 @@
       </c>
       <c r="S53" t="n">
         <v>0</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>53</v>
+      </c>
+      <c r="B54" s="2" t="n">
+        <v>45332</v>
+      </c>
+      <c r="C54" t="n">
+        <v>1</v>
+      </c>
+      <c r="D54" t="n">
+        <v>93</v>
+      </c>
+      <c r="E54" t="n">
+        <v>86.2</v>
+      </c>
+      <c r="F54" t="n">
+        <v>0.539</v>
+      </c>
+      <c r="G54" t="n">
+        <v>12.6</v>
+      </c>
+      <c r="H54" t="n">
+        <v>20.5</v>
+      </c>
+      <c r="I54" t="n">
+        <v>0.145</v>
+      </c>
+      <c r="J54" t="n">
+        <v>107.9</v>
+      </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>POR</t>
+        </is>
+      </c>
+      <c r="L54" t="n">
+        <v>84</v>
+      </c>
+      <c r="M54" t="n">
+        <v>0.474</v>
+      </c>
+      <c r="N54" t="n">
+        <v>16.9</v>
+      </c>
+      <c r="O54" t="n">
+        <v>28.2</v>
+      </c>
+      <c r="P54" t="n">
+        <v>0.158</v>
+      </c>
+      <c r="Q54" t="n">
+        <v>97.40000000000001</v>
+      </c>
+      <c r="R54" t="n">
+        <v>0</v>
+      </c>
+      <c r="S54" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -3721,7 +3782,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C31"/>
+  <dimension ref="A1:C30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3748,11 +3809,11 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>45332</v>
+        <v>45334</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>POR</t>
+          <t>MEM</t>
         </is>
       </c>
       <c r="C2" t="n">
@@ -3761,24 +3822,24 @@
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>45334</v>
+        <v>45336</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>MEM</t>
+          <t>WAS</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>45336</v>
+        <v>45344</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>WAS</t>
+          <t>HOU</t>
         </is>
       </c>
       <c r="C4" t="n">
@@ -3787,11 +3848,11 @@
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>45344</v>
+        <v>45345</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>HOU</t>
+          <t>MIA</t>
         </is>
       </c>
       <c r="C5" t="n">
@@ -3800,11 +3861,11 @@
     </row>
     <row r="6">
       <c r="A6" s="3" t="n">
-        <v>45345</v>
+        <v>45347</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>MIA</t>
+          <t>CHI</t>
         </is>
       </c>
       <c r="C6" t="n">
@@ -3813,24 +3874,24 @@
     </row>
     <row r="7">
       <c r="A7" s="3" t="n">
-        <v>45347</v>
+        <v>45349</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>CHI</t>
+          <t>NYK</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="3" t="n">
-        <v>45349</v>
+        <v>45350</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>NYK</t>
+          <t>IND</t>
         </is>
       </c>
       <c r="C8" t="n">
@@ -3839,7 +3900,7 @@
     </row>
     <row r="9">
       <c r="A9" s="3" t="n">
-        <v>45350</v>
+        <v>45352</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
@@ -3847,29 +3908,29 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="3" t="n">
-        <v>45352</v>
+        <v>45356</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>IND</t>
+          <t>TOR</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="3" t="n">
-        <v>45356</v>
+        <v>45359</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>TOR</t>
+          <t>PHI</t>
         </is>
       </c>
       <c r="C11" t="n">
@@ -3878,11 +3939,11 @@
     </row>
     <row r="12">
       <c r="A12" s="3" t="n">
-        <v>45359</v>
+        <v>45361</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>PHI</t>
+          <t>ATL</t>
         </is>
       </c>
       <c r="C12" t="n">
@@ -3891,24 +3952,24 @@
     </row>
     <row r="13">
       <c r="A13" s="3" t="n">
-        <v>45361</v>
+        <v>45364</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>ATL</t>
+          <t>CLE</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="3" t="n">
-        <v>45364</v>
+        <v>45366</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>CLE</t>
+          <t>LAC</t>
         </is>
       </c>
       <c r="C14" t="n">
@@ -3917,11 +3978,11 @@
     </row>
     <row r="15">
       <c r="A15" s="3" t="n">
-        <v>45366</v>
+        <v>45367</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>LAC</t>
+          <t>POR</t>
         </is>
       </c>
       <c r="C15" t="n">
@@ -3930,24 +3991,24 @@
     </row>
     <row r="16">
       <c r="A16" s="3" t="n">
-        <v>45367</v>
+        <v>45370</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>POR</t>
+          <t>BRK</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="3" t="n">
-        <v>45370</v>
+        <v>45372</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>BRK</t>
+          <t>ORL</t>
         </is>
       </c>
       <c r="C17" t="n">
@@ -3956,11 +4017,11 @@
     </row>
     <row r="18">
       <c r="A18" s="3" t="n">
-        <v>45372</v>
+        <v>45373</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>ORL</t>
+          <t>MIA</t>
         </is>
       </c>
       <c r="C18" t="n">
@@ -3969,11 +4030,11 @@
     </row>
     <row r="19">
       <c r="A19" s="3" t="n">
-        <v>45373</v>
+        <v>45375</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>MIA</t>
+          <t>DET</t>
         </is>
       </c>
       <c r="C19" t="n">
@@ -3982,24 +4043,24 @@
     </row>
     <row r="20">
       <c r="A20" s="3" t="n">
-        <v>45375</v>
+        <v>45377</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>DET</t>
+          <t>OKC</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="3" t="n">
-        <v>45377</v>
+        <v>45379</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>OKC</t>
+          <t>MIL</t>
         </is>
       </c>
       <c r="C21" t="n">
@@ -4008,11 +4069,11 @@
     </row>
     <row r="22">
       <c r="A22" s="3" t="n">
-        <v>45379</v>
+        <v>45381</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>MIL</t>
+          <t>BOS</t>
         </is>
       </c>
       <c r="C22" t="n">
@@ -4021,11 +4082,11 @@
     </row>
     <row r="23">
       <c r="A23" s="3" t="n">
-        <v>45381</v>
+        <v>45383</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>BOS</t>
+          <t>PHO</t>
         </is>
       </c>
       <c r="C23" t="n">
@@ -4034,11 +4095,11 @@
     </row>
     <row r="24">
       <c r="A24" s="3" t="n">
-        <v>45383</v>
+        <v>45385</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>PHO</t>
+          <t>ORL</t>
         </is>
       </c>
       <c r="C24" t="n">
@@ -4047,11 +4108,11 @@
     </row>
     <row r="25">
       <c r="A25" s="3" t="n">
-        <v>45385</v>
+        <v>45387</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>ORL</t>
+          <t>SAS</t>
         </is>
       </c>
       <c r="C25" t="n">
@@ -4060,24 +4121,24 @@
     </row>
     <row r="26">
       <c r="A26" s="3" t="n">
-        <v>45387</v>
+        <v>45389</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>SAS</t>
+          <t>PHO</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="3" t="n">
-        <v>45389</v>
+        <v>45391</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>PHO</t>
+          <t>POR</t>
         </is>
       </c>
       <c r="C27" t="n">
@@ -4086,11 +4147,11 @@
     </row>
     <row r="28">
       <c r="A28" s="3" t="n">
-        <v>45391</v>
+        <v>45393</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>POR</t>
+          <t>SAC</t>
         </is>
       </c>
       <c r="C28" t="n">
@@ -4099,11 +4160,11 @@
     </row>
     <row r="29">
       <c r="A29" s="3" t="n">
-        <v>45393</v>
+        <v>45394</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>SAC</t>
+          <t>GSW</t>
         </is>
       </c>
       <c r="C29" t="n">
@@ -4112,27 +4173,14 @@
     </row>
     <row r="30">
       <c r="A30" s="3" t="n">
-        <v>45394</v>
+        <v>45396</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>GSW</t>
+          <t>LAL</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="3" t="n">
-        <v>45396</v>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>LAL</t>
-        </is>
-      </c>
-      <c r="C31" t="n">
         <v>1</v>
       </c>
     </row>

--- a/data/CurrentSeason/NOP.xlsx
+++ b/data/CurrentSeason/NOP.xlsx
@@ -433,7 +433,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S54"/>
+  <dimension ref="A1:S55"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3768,6 +3768,67 @@
         <v>0</v>
       </c>
       <c r="S54" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>54</v>
+      </c>
+      <c r="B55" s="3" t="n">
+        <v>45334</v>
+      </c>
+      <c r="C55" t="n">
+        <v>2</v>
+      </c>
+      <c r="D55" t="n">
+        <v>96</v>
+      </c>
+      <c r="E55" t="n">
+        <v>94.5</v>
+      </c>
+      <c r="F55" t="n">
+        <v>0.494</v>
+      </c>
+      <c r="G55" t="n">
+        <v>16.1</v>
+      </c>
+      <c r="H55" t="n">
+        <v>26.7</v>
+      </c>
+      <c r="I55" t="n">
+        <v>0.244</v>
+      </c>
+      <c r="J55" t="n">
+        <v>101.6</v>
+      </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>MEM</t>
+        </is>
+      </c>
+      <c r="L55" t="n">
+        <v>87</v>
+      </c>
+      <c r="M55" t="n">
+        <v>0.494</v>
+      </c>
+      <c r="N55" t="n">
+        <v>16.7</v>
+      </c>
+      <c r="O55" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="P55" t="n">
+        <v>0.08599999999999999</v>
+      </c>
+      <c r="Q55" t="n">
+        <v>92.09999999999999</v>
+      </c>
+      <c r="R55" t="n">
+        <v>0</v>
+      </c>
+      <c r="S55" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3782,7 +3843,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C30"/>
+  <dimension ref="A1:C29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3809,24 +3870,24 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>45334</v>
+        <v>45336</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>MEM</t>
+          <t>WAS</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>45336</v>
+        <v>45344</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>WAS</t>
+          <t>HOU</t>
         </is>
       </c>
       <c r="C3" t="n">
@@ -3835,11 +3896,11 @@
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>45344</v>
+        <v>45345</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>HOU</t>
+          <t>MIA</t>
         </is>
       </c>
       <c r="C4" t="n">
@@ -3848,11 +3909,11 @@
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>45345</v>
+        <v>45347</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>MIA</t>
+          <t>CHI</t>
         </is>
       </c>
       <c r="C5" t="n">
@@ -3861,24 +3922,24 @@
     </row>
     <row r="6">
       <c r="A6" s="3" t="n">
-        <v>45347</v>
+        <v>45349</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>CHI</t>
+          <t>NYK</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="3" t="n">
-        <v>45349</v>
+        <v>45350</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>NYK</t>
+          <t>IND</t>
         </is>
       </c>
       <c r="C7" t="n">
@@ -3887,7 +3948,7 @@
     </row>
     <row r="8">
       <c r="A8" s="3" t="n">
-        <v>45350</v>
+        <v>45352</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
@@ -3895,29 +3956,29 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="3" t="n">
-        <v>45352</v>
+        <v>45356</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>IND</t>
+          <t>TOR</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="3" t="n">
-        <v>45356</v>
+        <v>45359</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>TOR</t>
+          <t>PHI</t>
         </is>
       </c>
       <c r="C10" t="n">
@@ -3926,11 +3987,11 @@
     </row>
     <row r="11">
       <c r="A11" s="3" t="n">
-        <v>45359</v>
+        <v>45361</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>PHI</t>
+          <t>ATL</t>
         </is>
       </c>
       <c r="C11" t="n">
@@ -3939,24 +4000,24 @@
     </row>
     <row r="12">
       <c r="A12" s="3" t="n">
-        <v>45361</v>
+        <v>45364</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>ATL</t>
+          <t>CLE</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="3" t="n">
-        <v>45364</v>
+        <v>45366</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>CLE</t>
+          <t>LAC</t>
         </is>
       </c>
       <c r="C13" t="n">
@@ -3965,11 +4026,11 @@
     </row>
     <row r="14">
       <c r="A14" s="3" t="n">
-        <v>45366</v>
+        <v>45367</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>LAC</t>
+          <t>POR</t>
         </is>
       </c>
       <c r="C14" t="n">
@@ -3978,24 +4039,24 @@
     </row>
     <row r="15">
       <c r="A15" s="3" t="n">
-        <v>45367</v>
+        <v>45370</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>POR</t>
+          <t>BRK</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="3" t="n">
-        <v>45370</v>
+        <v>45372</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>BRK</t>
+          <t>ORL</t>
         </is>
       </c>
       <c r="C16" t="n">
@@ -4004,11 +4065,11 @@
     </row>
     <row r="17">
       <c r="A17" s="3" t="n">
-        <v>45372</v>
+        <v>45373</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>ORL</t>
+          <t>MIA</t>
         </is>
       </c>
       <c r="C17" t="n">
@@ -4017,11 +4078,11 @@
     </row>
     <row r="18">
       <c r="A18" s="3" t="n">
-        <v>45373</v>
+        <v>45375</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>MIA</t>
+          <t>DET</t>
         </is>
       </c>
       <c r="C18" t="n">
@@ -4030,24 +4091,24 @@
     </row>
     <row r="19">
       <c r="A19" s="3" t="n">
-        <v>45375</v>
+        <v>45377</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>DET</t>
+          <t>OKC</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="3" t="n">
-        <v>45377</v>
+        <v>45379</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>OKC</t>
+          <t>MIL</t>
         </is>
       </c>
       <c r="C20" t="n">
@@ -4056,11 +4117,11 @@
     </row>
     <row r="21">
       <c r="A21" s="3" t="n">
-        <v>45379</v>
+        <v>45381</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>MIL</t>
+          <t>BOS</t>
         </is>
       </c>
       <c r="C21" t="n">
@@ -4069,11 +4130,11 @@
     </row>
     <row r="22">
       <c r="A22" s="3" t="n">
-        <v>45381</v>
+        <v>45383</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>BOS</t>
+          <t>PHO</t>
         </is>
       </c>
       <c r="C22" t="n">
@@ -4082,11 +4143,11 @@
     </row>
     <row r="23">
       <c r="A23" s="3" t="n">
-        <v>45383</v>
+        <v>45385</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>PHO</t>
+          <t>ORL</t>
         </is>
       </c>
       <c r="C23" t="n">
@@ -4095,11 +4156,11 @@
     </row>
     <row r="24">
       <c r="A24" s="3" t="n">
-        <v>45385</v>
+        <v>45387</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>ORL</t>
+          <t>SAS</t>
         </is>
       </c>
       <c r="C24" t="n">
@@ -4108,24 +4169,24 @@
     </row>
     <row r="25">
       <c r="A25" s="3" t="n">
-        <v>45387</v>
+        <v>45389</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>SAS</t>
+          <t>PHO</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="3" t="n">
-        <v>45389</v>
+        <v>45391</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>PHO</t>
+          <t>POR</t>
         </is>
       </c>
       <c r="C26" t="n">
@@ -4134,11 +4195,11 @@
     </row>
     <row r="27">
       <c r="A27" s="3" t="n">
-        <v>45391</v>
+        <v>45393</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>POR</t>
+          <t>SAC</t>
         </is>
       </c>
       <c r="C27" t="n">
@@ -4147,11 +4208,11 @@
     </row>
     <row r="28">
       <c r="A28" s="3" t="n">
-        <v>45393</v>
+        <v>45394</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>SAC</t>
+          <t>GSW</t>
         </is>
       </c>
       <c r="C28" t="n">
@@ -4160,27 +4221,14 @@
     </row>
     <row r="29">
       <c r="A29" s="3" t="n">
-        <v>45394</v>
+        <v>45396</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>GSW</t>
+          <t>LAL</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="3" t="n">
-        <v>45396</v>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>LAL</t>
-        </is>
-      </c>
-      <c r="C30" t="n">
         <v>1</v>
       </c>
     </row>

--- a/data/CurrentSeason/NOP.xlsx
+++ b/data/CurrentSeason/NOP.xlsx
@@ -3775,7 +3775,7 @@
       <c r="A55" t="n">
         <v>54</v>
       </c>
-      <c r="B55" s="3" t="n">
+      <c r="B55" s="2" t="n">
         <v>45334</v>
       </c>
       <c r="C55" t="n">

--- a/data/CurrentSeason/NOP.xlsx
+++ b/data/CurrentSeason/NOP.xlsx
@@ -433,7 +433,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S55"/>
+  <dimension ref="A1:S56"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3829,6 +3829,67 @@
         <v>0</v>
       </c>
       <c r="S55" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>55</v>
+      </c>
+      <c r="B56" s="3" t="n">
+        <v>45336</v>
+      </c>
+      <c r="C56" t="n">
+        <v>3</v>
+      </c>
+      <c r="D56" t="n">
+        <v>133</v>
+      </c>
+      <c r="E56" t="n">
+        <v>101.7</v>
+      </c>
+      <c r="F56" t="n">
+        <v>0.618</v>
+      </c>
+      <c r="G56" t="n">
+        <v>8.9</v>
+      </c>
+      <c r="H56" t="n">
+        <v>22.9</v>
+      </c>
+      <c r="I56" t="n">
+        <v>0.258</v>
+      </c>
+      <c r="J56" t="n">
+        <v>130.8</v>
+      </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>WAS</t>
+        </is>
+      </c>
+      <c r="L56" t="n">
+        <v>126</v>
+      </c>
+      <c r="M56" t="n">
+        <v>0.592</v>
+      </c>
+      <c r="N56" t="n">
+        <v>15.9</v>
+      </c>
+      <c r="O56" t="n">
+        <v>32.6</v>
+      </c>
+      <c r="P56" t="n">
+        <v>0.185</v>
+      </c>
+      <c r="Q56" t="n">
+        <v>123.9</v>
+      </c>
+      <c r="R56" t="n">
+        <v>1</v>
+      </c>
+      <c r="S56" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3843,7 +3904,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C29"/>
+  <dimension ref="A1:C28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3870,11 +3931,11 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>45336</v>
+        <v>45344</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>WAS</t>
+          <t>HOU</t>
         </is>
       </c>
       <c r="C2" t="n">
@@ -3883,11 +3944,11 @@
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>45344</v>
+        <v>45345</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>HOU</t>
+          <t>MIA</t>
         </is>
       </c>
       <c r="C3" t="n">
@@ -3896,11 +3957,11 @@
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>45345</v>
+        <v>45347</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>MIA</t>
+          <t>CHI</t>
         </is>
       </c>
       <c r="C4" t="n">
@@ -3909,24 +3970,24 @@
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>45347</v>
+        <v>45349</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>CHI</t>
+          <t>NYK</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="3" t="n">
-        <v>45349</v>
+        <v>45350</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>NYK</t>
+          <t>IND</t>
         </is>
       </c>
       <c r="C6" t="n">
@@ -3935,7 +3996,7 @@
     </row>
     <row r="7">
       <c r="A7" s="3" t="n">
-        <v>45350</v>
+        <v>45352</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
@@ -3943,29 +4004,29 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="3" t="n">
-        <v>45352</v>
+        <v>45356</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>IND</t>
+          <t>TOR</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="3" t="n">
-        <v>45356</v>
+        <v>45359</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>TOR</t>
+          <t>PHI</t>
         </is>
       </c>
       <c r="C9" t="n">
@@ -3974,11 +4035,11 @@
     </row>
     <row r="10">
       <c r="A10" s="3" t="n">
-        <v>45359</v>
+        <v>45361</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>PHI</t>
+          <t>ATL</t>
         </is>
       </c>
       <c r="C10" t="n">
@@ -3987,24 +4048,24 @@
     </row>
     <row r="11">
       <c r="A11" s="3" t="n">
-        <v>45361</v>
+        <v>45364</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>ATL</t>
+          <t>CLE</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="3" t="n">
-        <v>45364</v>
+        <v>45366</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>CLE</t>
+          <t>LAC</t>
         </is>
       </c>
       <c r="C12" t="n">
@@ -4013,11 +4074,11 @@
     </row>
     <row r="13">
       <c r="A13" s="3" t="n">
-        <v>45366</v>
+        <v>45367</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>LAC</t>
+          <t>POR</t>
         </is>
       </c>
       <c r="C13" t="n">
@@ -4026,24 +4087,24 @@
     </row>
     <row r="14">
       <c r="A14" s="3" t="n">
-        <v>45367</v>
+        <v>45370</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>POR</t>
+          <t>BRK</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="3" t="n">
-        <v>45370</v>
+        <v>45372</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>BRK</t>
+          <t>ORL</t>
         </is>
       </c>
       <c r="C15" t="n">
@@ -4052,11 +4113,11 @@
     </row>
     <row r="16">
       <c r="A16" s="3" t="n">
-        <v>45372</v>
+        <v>45373</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>ORL</t>
+          <t>MIA</t>
         </is>
       </c>
       <c r="C16" t="n">
@@ -4065,11 +4126,11 @@
     </row>
     <row r="17">
       <c r="A17" s="3" t="n">
-        <v>45373</v>
+        <v>45375</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>MIA</t>
+          <t>DET</t>
         </is>
       </c>
       <c r="C17" t="n">
@@ -4078,24 +4139,24 @@
     </row>
     <row r="18">
       <c r="A18" s="3" t="n">
-        <v>45375</v>
+        <v>45377</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>DET</t>
+          <t>OKC</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="3" t="n">
-        <v>45377</v>
+        <v>45379</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>OKC</t>
+          <t>MIL</t>
         </is>
       </c>
       <c r="C19" t="n">
@@ -4104,11 +4165,11 @@
     </row>
     <row r="20">
       <c r="A20" s="3" t="n">
-        <v>45379</v>
+        <v>45381</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>MIL</t>
+          <t>BOS</t>
         </is>
       </c>
       <c r="C20" t="n">
@@ -4117,11 +4178,11 @@
     </row>
     <row r="21">
       <c r="A21" s="3" t="n">
-        <v>45381</v>
+        <v>45383</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>BOS</t>
+          <t>PHO</t>
         </is>
       </c>
       <c r="C21" t="n">
@@ -4130,11 +4191,11 @@
     </row>
     <row r="22">
       <c r="A22" s="3" t="n">
-        <v>45383</v>
+        <v>45385</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>PHO</t>
+          <t>ORL</t>
         </is>
       </c>
       <c r="C22" t="n">
@@ -4143,11 +4204,11 @@
     </row>
     <row r="23">
       <c r="A23" s="3" t="n">
-        <v>45385</v>
+        <v>45387</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>ORL</t>
+          <t>SAS</t>
         </is>
       </c>
       <c r="C23" t="n">
@@ -4156,24 +4217,24 @@
     </row>
     <row r="24">
       <c r="A24" s="3" t="n">
-        <v>45387</v>
+        <v>45389</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>SAS</t>
+          <t>PHO</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="3" t="n">
-        <v>45389</v>
+        <v>45391</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>PHO</t>
+          <t>POR</t>
         </is>
       </c>
       <c r="C25" t="n">
@@ -4182,11 +4243,11 @@
     </row>
     <row r="26">
       <c r="A26" s="3" t="n">
-        <v>45391</v>
+        <v>45393</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>POR</t>
+          <t>SAC</t>
         </is>
       </c>
       <c r="C26" t="n">
@@ -4195,11 +4256,11 @@
     </row>
     <row r="27">
       <c r="A27" s="3" t="n">
-        <v>45393</v>
+        <v>45394</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>SAC</t>
+          <t>GSW</t>
         </is>
       </c>
       <c r="C27" t="n">
@@ -4208,27 +4269,14 @@
     </row>
     <row r="28">
       <c r="A28" s="3" t="n">
-        <v>45394</v>
+        <v>45396</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>GSW</t>
+          <t>LAL</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="3" t="n">
-        <v>45396</v>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>LAL</t>
-        </is>
-      </c>
-      <c r="C29" t="n">
         <v>1</v>
       </c>
     </row>

--- a/data/CurrentSeason/NOP.xlsx
+++ b/data/CurrentSeason/NOP.xlsx
@@ -3836,7 +3836,7 @@
       <c r="A56" t="n">
         <v>55</v>
       </c>
-      <c r="B56" s="3" t="n">
+      <c r="B56" s="2" t="n">
         <v>45336</v>
       </c>
       <c r="C56" t="n">

--- a/data/CurrentSeason/NOP.xlsx
+++ b/data/CurrentSeason/NOP.xlsx
@@ -433,7 +433,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S56"/>
+  <dimension ref="A1:S57"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3890,6 +3890,67 @@
         <v>1</v>
       </c>
       <c r="S56" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>56</v>
+      </c>
+      <c r="B57" s="3" t="n">
+        <v>45344</v>
+      </c>
+      <c r="C57" t="n">
+        <v>4</v>
+      </c>
+      <c r="D57" t="n">
+        <v>127</v>
+      </c>
+      <c r="E57" t="n">
+        <v>103.9</v>
+      </c>
+      <c r="F57" t="n">
+        <v>0.604</v>
+      </c>
+      <c r="G57" t="n">
+        <v>11.1</v>
+      </c>
+      <c r="H57" t="n">
+        <v>22</v>
+      </c>
+      <c r="I57" t="n">
+        <v>0.115</v>
+      </c>
+      <c r="J57" t="n">
+        <v>122.3</v>
+      </c>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>HOU</t>
+        </is>
+      </c>
+      <c r="L57" t="n">
+        <v>105</v>
+      </c>
+      <c r="M57" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="N57" t="n">
+        <v>18.9</v>
+      </c>
+      <c r="O57" t="n">
+        <v>26.1</v>
+      </c>
+      <c r="P57" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="Q57" t="n">
+        <v>101.1</v>
+      </c>
+      <c r="R57" t="n">
+        <v>1</v>
+      </c>
+      <c r="S57" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3904,7 +3965,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C28"/>
+  <dimension ref="A1:C27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3931,11 +3992,11 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>45344</v>
+        <v>45345</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>HOU</t>
+          <t>MIA</t>
         </is>
       </c>
       <c r="C2" t="n">
@@ -3944,11 +4005,11 @@
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>45345</v>
+        <v>45347</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>MIA</t>
+          <t>CHI</t>
         </is>
       </c>
       <c r="C3" t="n">
@@ -3957,24 +4018,24 @@
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>45347</v>
+        <v>45349</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>CHI</t>
+          <t>NYK</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>45349</v>
+        <v>45350</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>NYK</t>
+          <t>IND</t>
         </is>
       </c>
       <c r="C5" t="n">
@@ -3983,7 +4044,7 @@
     </row>
     <row r="6">
       <c r="A6" s="3" t="n">
-        <v>45350</v>
+        <v>45352</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
@@ -3991,29 +4052,29 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="3" t="n">
-        <v>45352</v>
+        <v>45356</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>IND</t>
+          <t>TOR</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="3" t="n">
-        <v>45356</v>
+        <v>45359</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>TOR</t>
+          <t>PHI</t>
         </is>
       </c>
       <c r="C8" t="n">
@@ -4022,11 +4083,11 @@
     </row>
     <row r="9">
       <c r="A9" s="3" t="n">
-        <v>45359</v>
+        <v>45361</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>PHI</t>
+          <t>ATL</t>
         </is>
       </c>
       <c r="C9" t="n">
@@ -4035,24 +4096,24 @@
     </row>
     <row r="10">
       <c r="A10" s="3" t="n">
-        <v>45361</v>
+        <v>45364</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>ATL</t>
+          <t>CLE</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="3" t="n">
-        <v>45364</v>
+        <v>45366</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>CLE</t>
+          <t>LAC</t>
         </is>
       </c>
       <c r="C11" t="n">
@@ -4061,11 +4122,11 @@
     </row>
     <row r="12">
       <c r="A12" s="3" t="n">
-        <v>45366</v>
+        <v>45367</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>LAC</t>
+          <t>POR</t>
         </is>
       </c>
       <c r="C12" t="n">
@@ -4074,24 +4135,24 @@
     </row>
     <row r="13">
       <c r="A13" s="3" t="n">
-        <v>45367</v>
+        <v>45370</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>POR</t>
+          <t>BRK</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="3" t="n">
-        <v>45370</v>
+        <v>45372</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>BRK</t>
+          <t>ORL</t>
         </is>
       </c>
       <c r="C14" t="n">
@@ -4100,11 +4161,11 @@
     </row>
     <row r="15">
       <c r="A15" s="3" t="n">
-        <v>45372</v>
+        <v>45373</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>ORL</t>
+          <t>MIA</t>
         </is>
       </c>
       <c r="C15" t="n">
@@ -4113,11 +4174,11 @@
     </row>
     <row r="16">
       <c r="A16" s="3" t="n">
-        <v>45373</v>
+        <v>45375</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>MIA</t>
+          <t>DET</t>
         </is>
       </c>
       <c r="C16" t="n">
@@ -4126,24 +4187,24 @@
     </row>
     <row r="17">
       <c r="A17" s="3" t="n">
-        <v>45375</v>
+        <v>45377</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>DET</t>
+          <t>OKC</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="3" t="n">
-        <v>45377</v>
+        <v>45379</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>OKC</t>
+          <t>MIL</t>
         </is>
       </c>
       <c r="C18" t="n">
@@ -4152,11 +4213,11 @@
     </row>
     <row r="19">
       <c r="A19" s="3" t="n">
-        <v>45379</v>
+        <v>45381</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>MIL</t>
+          <t>BOS</t>
         </is>
       </c>
       <c r="C19" t="n">
@@ -4165,11 +4226,11 @@
     </row>
     <row r="20">
       <c r="A20" s="3" t="n">
-        <v>45381</v>
+        <v>45383</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>BOS</t>
+          <t>PHO</t>
         </is>
       </c>
       <c r="C20" t="n">
@@ -4178,11 +4239,11 @@
     </row>
     <row r="21">
       <c r="A21" s="3" t="n">
-        <v>45383</v>
+        <v>45385</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>PHO</t>
+          <t>ORL</t>
         </is>
       </c>
       <c r="C21" t="n">
@@ -4191,11 +4252,11 @@
     </row>
     <row r="22">
       <c r="A22" s="3" t="n">
-        <v>45385</v>
+        <v>45387</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>ORL</t>
+          <t>SAS</t>
         </is>
       </c>
       <c r="C22" t="n">
@@ -4204,24 +4265,24 @@
     </row>
     <row r="23">
       <c r="A23" s="3" t="n">
-        <v>45387</v>
+        <v>45389</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>SAS</t>
+          <t>PHO</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="3" t="n">
-        <v>45389</v>
+        <v>45391</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>PHO</t>
+          <t>POR</t>
         </is>
       </c>
       <c r="C24" t="n">
@@ -4230,11 +4291,11 @@
     </row>
     <row r="25">
       <c r="A25" s="3" t="n">
-        <v>45391</v>
+        <v>45393</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>POR</t>
+          <t>SAC</t>
         </is>
       </c>
       <c r="C25" t="n">
@@ -4243,11 +4304,11 @@
     </row>
     <row r="26">
       <c r="A26" s="3" t="n">
-        <v>45393</v>
+        <v>45394</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>SAC</t>
+          <t>GSW</t>
         </is>
       </c>
       <c r="C26" t="n">
@@ -4256,27 +4317,14 @@
     </row>
     <row r="27">
       <c r="A27" s="3" t="n">
-        <v>45394</v>
+        <v>45396</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>GSW</t>
+          <t>LAL</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="3" t="n">
-        <v>45396</v>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>LAL</t>
-        </is>
-      </c>
-      <c r="C28" t="n">
         <v>1</v>
       </c>
     </row>

--- a/data/CurrentSeason/NOP.xlsx
+++ b/data/CurrentSeason/NOP.xlsx
@@ -433,7 +433,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S57"/>
+  <dimension ref="A1:S58"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3897,7 +3897,7 @@
       <c r="A57" t="n">
         <v>56</v>
       </c>
-      <c r="B57" s="3" t="n">
+      <c r="B57" s="2" t="n">
         <v>45344</v>
       </c>
       <c r="C57" t="n">
@@ -3952,6 +3952,67 @@
       </c>
       <c r="S57" t="n">
         <v>1</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>57</v>
+      </c>
+      <c r="B58" s="2" t="n">
+        <v>45345</v>
+      </c>
+      <c r="C58" t="n">
+        <v>-1</v>
+      </c>
+      <c r="D58" t="n">
+        <v>95</v>
+      </c>
+      <c r="E58" t="n">
+        <v>96.40000000000001</v>
+      </c>
+      <c r="F58" t="n">
+        <v>0.409</v>
+      </c>
+      <c r="G58" t="n">
+        <v>9.1</v>
+      </c>
+      <c r="H58" t="n">
+        <v>33.3</v>
+      </c>
+      <c r="I58" t="n">
+        <v>0.096</v>
+      </c>
+      <c r="J58" t="n">
+        <v>98.59999999999999</v>
+      </c>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>MIA</t>
+        </is>
+      </c>
+      <c r="L58" t="n">
+        <v>106</v>
+      </c>
+      <c r="M58" t="n">
+        <v>0.543</v>
+      </c>
+      <c r="N58" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="O58" t="n">
+        <v>21.7</v>
+      </c>
+      <c r="P58" t="n">
+        <v>0.207</v>
+      </c>
+      <c r="Q58" t="n">
+        <v>110</v>
+      </c>
+      <c r="R58" t="n">
+        <v>1</v>
+      </c>
+      <c r="S58" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -3965,7 +4026,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C27"/>
+  <dimension ref="A1:C26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3992,11 +4053,11 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>45345</v>
+        <v>45347</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>MIA</t>
+          <t>CHI</t>
         </is>
       </c>
       <c r="C2" t="n">
@@ -4005,24 +4066,24 @@
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>45347</v>
+        <v>45349</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>CHI</t>
+          <t>NYK</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>45349</v>
+        <v>45350</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>NYK</t>
+          <t>IND</t>
         </is>
       </c>
       <c r="C4" t="n">
@@ -4031,7 +4092,7 @@
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>45350</v>
+        <v>45352</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -4039,29 +4100,29 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="3" t="n">
-        <v>45352</v>
+        <v>45356</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>IND</t>
+          <t>TOR</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="3" t="n">
-        <v>45356</v>
+        <v>45359</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>TOR</t>
+          <t>PHI</t>
         </is>
       </c>
       <c r="C7" t="n">
@@ -4070,11 +4131,11 @@
     </row>
     <row r="8">
       <c r="A8" s="3" t="n">
-        <v>45359</v>
+        <v>45361</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>PHI</t>
+          <t>ATL</t>
         </is>
       </c>
       <c r="C8" t="n">
@@ -4083,24 +4144,24 @@
     </row>
     <row r="9">
       <c r="A9" s="3" t="n">
-        <v>45361</v>
+        <v>45364</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>ATL</t>
+          <t>CLE</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="3" t="n">
-        <v>45364</v>
+        <v>45366</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>CLE</t>
+          <t>LAC</t>
         </is>
       </c>
       <c r="C10" t="n">
@@ -4109,11 +4170,11 @@
     </row>
     <row r="11">
       <c r="A11" s="3" t="n">
-        <v>45366</v>
+        <v>45367</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>LAC</t>
+          <t>POR</t>
         </is>
       </c>
       <c r="C11" t="n">
@@ -4122,24 +4183,24 @@
     </row>
     <row r="12">
       <c r="A12" s="3" t="n">
-        <v>45367</v>
+        <v>45370</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>POR</t>
+          <t>BRK</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="3" t="n">
-        <v>45370</v>
+        <v>45372</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>BRK</t>
+          <t>ORL</t>
         </is>
       </c>
       <c r="C13" t="n">
@@ -4148,11 +4209,11 @@
     </row>
     <row r="14">
       <c r="A14" s="3" t="n">
-        <v>45372</v>
+        <v>45373</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>ORL</t>
+          <t>MIA</t>
         </is>
       </c>
       <c r="C14" t="n">
@@ -4161,11 +4222,11 @@
     </row>
     <row r="15">
       <c r="A15" s="3" t="n">
-        <v>45373</v>
+        <v>45375</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>MIA</t>
+          <t>DET</t>
         </is>
       </c>
       <c r="C15" t="n">
@@ -4174,24 +4235,24 @@
     </row>
     <row r="16">
       <c r="A16" s="3" t="n">
-        <v>45375</v>
+        <v>45377</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>DET</t>
+          <t>OKC</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="3" t="n">
-        <v>45377</v>
+        <v>45379</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>OKC</t>
+          <t>MIL</t>
         </is>
       </c>
       <c r="C17" t="n">
@@ -4200,11 +4261,11 @@
     </row>
     <row r="18">
       <c r="A18" s="3" t="n">
-        <v>45379</v>
+        <v>45381</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>MIL</t>
+          <t>BOS</t>
         </is>
       </c>
       <c r="C18" t="n">
@@ -4213,11 +4274,11 @@
     </row>
     <row r="19">
       <c r="A19" s="3" t="n">
-        <v>45381</v>
+        <v>45383</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>BOS</t>
+          <t>PHO</t>
         </is>
       </c>
       <c r="C19" t="n">
@@ -4226,11 +4287,11 @@
     </row>
     <row r="20">
       <c r="A20" s="3" t="n">
-        <v>45383</v>
+        <v>45385</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>PHO</t>
+          <t>ORL</t>
         </is>
       </c>
       <c r="C20" t="n">
@@ -4239,11 +4300,11 @@
     </row>
     <row r="21">
       <c r="A21" s="3" t="n">
-        <v>45385</v>
+        <v>45387</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>ORL</t>
+          <t>SAS</t>
         </is>
       </c>
       <c r="C21" t="n">
@@ -4252,24 +4313,24 @@
     </row>
     <row r="22">
       <c r="A22" s="3" t="n">
-        <v>45387</v>
+        <v>45389</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>SAS</t>
+          <t>PHO</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="3" t="n">
-        <v>45389</v>
+        <v>45391</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>PHO</t>
+          <t>POR</t>
         </is>
       </c>
       <c r="C23" t="n">
@@ -4278,11 +4339,11 @@
     </row>
     <row r="24">
       <c r="A24" s="3" t="n">
-        <v>45391</v>
+        <v>45393</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>POR</t>
+          <t>SAC</t>
         </is>
       </c>
       <c r="C24" t="n">
@@ -4291,11 +4352,11 @@
     </row>
     <row r="25">
       <c r="A25" s="3" t="n">
-        <v>45393</v>
+        <v>45394</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>SAC</t>
+          <t>GSW</t>
         </is>
       </c>
       <c r="C25" t="n">
@@ -4304,27 +4365,14 @@
     </row>
     <row r="26">
       <c r="A26" s="3" t="n">
-        <v>45394</v>
+        <v>45396</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>GSW</t>
+          <t>LAL</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="3" t="n">
-        <v>45396</v>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>LAL</t>
-        </is>
-      </c>
-      <c r="C27" t="n">
         <v>1</v>
       </c>
     </row>

--- a/data/CurrentSeason/NOP.xlsx
+++ b/data/CurrentSeason/NOP.xlsx
@@ -433,7 +433,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S58"/>
+  <dimension ref="A1:S59"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4012,6 +4012,67 @@
         <v>1</v>
       </c>
       <c r="S58" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>58</v>
+      </c>
+      <c r="B59" s="3" t="n">
+        <v>45347</v>
+      </c>
+      <c r="C59" t="n">
+        <v>-2</v>
+      </c>
+      <c r="D59" t="n">
+        <v>106</v>
+      </c>
+      <c r="E59" t="n">
+        <v>99.09999999999999</v>
+      </c>
+      <c r="F59" t="n">
+        <v>0.545</v>
+      </c>
+      <c r="G59" t="n">
+        <v>16.8</v>
+      </c>
+      <c r="H59" t="n">
+        <v>24.5</v>
+      </c>
+      <c r="I59" t="n">
+        <v>0.114</v>
+      </c>
+      <c r="J59" t="n">
+        <v>106.9</v>
+      </c>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>CHI</t>
+        </is>
+      </c>
+      <c r="L59" t="n">
+        <v>114</v>
+      </c>
+      <c r="M59" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="N59" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="O59" t="n">
+        <v>24.5</v>
+      </c>
+      <c r="P59" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="Q59" t="n">
+        <v>115</v>
+      </c>
+      <c r="R59" t="n">
+        <v>1</v>
+      </c>
+      <c r="S59" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4026,7 +4087,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C26"/>
+  <dimension ref="A1:C25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4053,24 +4114,24 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>45347</v>
+        <v>45349</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>CHI</t>
+          <t>NYK</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>45349</v>
+        <v>45350</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>NYK</t>
+          <t>IND</t>
         </is>
       </c>
       <c r="C3" t="n">
@@ -4079,7 +4140,7 @@
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>45350</v>
+        <v>45352</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
@@ -4087,29 +4148,29 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>45352</v>
+        <v>45356</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>IND</t>
+          <t>TOR</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="3" t="n">
-        <v>45356</v>
+        <v>45359</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>TOR</t>
+          <t>PHI</t>
         </is>
       </c>
       <c r="C6" t="n">
@@ -4118,11 +4179,11 @@
     </row>
     <row r="7">
       <c r="A7" s="3" t="n">
-        <v>45359</v>
+        <v>45361</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>PHI</t>
+          <t>ATL</t>
         </is>
       </c>
       <c r="C7" t="n">
@@ -4131,24 +4192,24 @@
     </row>
     <row r="8">
       <c r="A8" s="3" t="n">
-        <v>45361</v>
+        <v>45364</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>ATL</t>
+          <t>CLE</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="3" t="n">
-        <v>45364</v>
+        <v>45366</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>CLE</t>
+          <t>LAC</t>
         </is>
       </c>
       <c r="C9" t="n">
@@ -4157,11 +4218,11 @@
     </row>
     <row r="10">
       <c r="A10" s="3" t="n">
-        <v>45366</v>
+        <v>45367</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>LAC</t>
+          <t>POR</t>
         </is>
       </c>
       <c r="C10" t="n">
@@ -4170,24 +4231,24 @@
     </row>
     <row r="11">
       <c r="A11" s="3" t="n">
-        <v>45367</v>
+        <v>45370</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>POR</t>
+          <t>BRK</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="3" t="n">
-        <v>45370</v>
+        <v>45372</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>BRK</t>
+          <t>ORL</t>
         </is>
       </c>
       <c r="C12" t="n">
@@ -4196,11 +4257,11 @@
     </row>
     <row r="13">
       <c r="A13" s="3" t="n">
-        <v>45372</v>
+        <v>45373</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>ORL</t>
+          <t>MIA</t>
         </is>
       </c>
       <c r="C13" t="n">
@@ -4209,11 +4270,11 @@
     </row>
     <row r="14">
       <c r="A14" s="3" t="n">
-        <v>45373</v>
+        <v>45375</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>MIA</t>
+          <t>DET</t>
         </is>
       </c>
       <c r="C14" t="n">
@@ -4222,24 +4283,24 @@
     </row>
     <row r="15">
       <c r="A15" s="3" t="n">
-        <v>45375</v>
+        <v>45377</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>DET</t>
+          <t>OKC</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="3" t="n">
-        <v>45377</v>
+        <v>45379</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>OKC</t>
+          <t>MIL</t>
         </is>
       </c>
       <c r="C16" t="n">
@@ -4248,11 +4309,11 @@
     </row>
     <row r="17">
       <c r="A17" s="3" t="n">
-        <v>45379</v>
+        <v>45381</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>MIL</t>
+          <t>BOS</t>
         </is>
       </c>
       <c r="C17" t="n">
@@ -4261,11 +4322,11 @@
     </row>
     <row r="18">
       <c r="A18" s="3" t="n">
-        <v>45381</v>
+        <v>45383</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>BOS</t>
+          <t>PHO</t>
         </is>
       </c>
       <c r="C18" t="n">
@@ -4274,11 +4335,11 @@
     </row>
     <row r="19">
       <c r="A19" s="3" t="n">
-        <v>45383</v>
+        <v>45385</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>PHO</t>
+          <t>ORL</t>
         </is>
       </c>
       <c r="C19" t="n">
@@ -4287,11 +4348,11 @@
     </row>
     <row r="20">
       <c r="A20" s="3" t="n">
-        <v>45385</v>
+        <v>45387</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>ORL</t>
+          <t>SAS</t>
         </is>
       </c>
       <c r="C20" t="n">
@@ -4300,24 +4361,24 @@
     </row>
     <row r="21">
       <c r="A21" s="3" t="n">
-        <v>45387</v>
+        <v>45389</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>SAS</t>
+          <t>PHO</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="3" t="n">
-        <v>45389</v>
+        <v>45391</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>PHO</t>
+          <t>POR</t>
         </is>
       </c>
       <c r="C22" t="n">
@@ -4326,11 +4387,11 @@
     </row>
     <row r="23">
       <c r="A23" s="3" t="n">
-        <v>45391</v>
+        <v>45393</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>POR</t>
+          <t>SAC</t>
         </is>
       </c>
       <c r="C23" t="n">
@@ -4339,11 +4400,11 @@
     </row>
     <row r="24">
       <c r="A24" s="3" t="n">
-        <v>45393</v>
+        <v>45394</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>SAC</t>
+          <t>GSW</t>
         </is>
       </c>
       <c r="C24" t="n">
@@ -4352,27 +4413,14 @@
     </row>
     <row r="25">
       <c r="A25" s="3" t="n">
-        <v>45394</v>
+        <v>45396</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>GSW</t>
+          <t>LAL</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="3" t="n">
-        <v>45396</v>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>LAL</t>
-        </is>
-      </c>
-      <c r="C26" t="n">
         <v>1</v>
       </c>
     </row>

--- a/data/CurrentSeason/NOP.xlsx
+++ b/data/CurrentSeason/NOP.xlsx
@@ -4019,7 +4019,7 @@
       <c r="A59" t="n">
         <v>58</v>
       </c>
-      <c r="B59" s="3" t="n">
+      <c r="B59" s="2" t="n">
         <v>45347</v>
       </c>
       <c r="C59" t="n">

--- a/data/CurrentSeason/NOP.xlsx
+++ b/data/CurrentSeason/NOP.xlsx
@@ -433,7 +433,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S59"/>
+  <dimension ref="A1:S60"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4074,6 +4074,67 @@
       </c>
       <c r="S59" t="n">
         <v>0</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>59</v>
+      </c>
+      <c r="B60" s="3" t="n">
+        <v>45349</v>
+      </c>
+      <c r="C60" t="n">
+        <v>1</v>
+      </c>
+      <c r="D60" t="n">
+        <v>115</v>
+      </c>
+      <c r="E60" t="n">
+        <v>88.2</v>
+      </c>
+      <c r="F60" t="n">
+        <v>0.623</v>
+      </c>
+      <c r="G60" t="n">
+        <v>13.8</v>
+      </c>
+      <c r="H60" t="n">
+        <v>28.6</v>
+      </c>
+      <c r="I60" t="n">
+        <v>0.247</v>
+      </c>
+      <c r="J60" t="n">
+        <v>130.4</v>
+      </c>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>NYK</t>
+        </is>
+      </c>
+      <c r="L60" t="n">
+        <v>92</v>
+      </c>
+      <c r="M60" t="n">
+        <v>0.458</v>
+      </c>
+      <c r="N60" t="n">
+        <v>10.6</v>
+      </c>
+      <c r="O60" t="n">
+        <v>27.7</v>
+      </c>
+      <c r="P60" t="n">
+        <v>0.193</v>
+      </c>
+      <c r="Q60" t="n">
+        <v>104.3</v>
+      </c>
+      <c r="R60" t="n">
+        <v>0</v>
+      </c>
+      <c r="S60" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -4087,7 +4148,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C25"/>
+  <dimension ref="A1:C24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4114,11 +4175,11 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>45349</v>
+        <v>45350</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>NYK</t>
+          <t>IND</t>
         </is>
       </c>
       <c r="C2" t="n">
@@ -4127,7 +4188,7 @@
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>45350</v>
+        <v>45352</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
@@ -4135,29 +4196,29 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>45352</v>
+        <v>45356</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>IND</t>
+          <t>TOR</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>45356</v>
+        <v>45359</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>TOR</t>
+          <t>PHI</t>
         </is>
       </c>
       <c r="C5" t="n">
@@ -4166,11 +4227,11 @@
     </row>
     <row r="6">
       <c r="A6" s="3" t="n">
-        <v>45359</v>
+        <v>45361</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>PHI</t>
+          <t>ATL</t>
         </is>
       </c>
       <c r="C6" t="n">
@@ -4179,24 +4240,24 @@
     </row>
     <row r="7">
       <c r="A7" s="3" t="n">
-        <v>45361</v>
+        <v>45364</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>ATL</t>
+          <t>CLE</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="3" t="n">
-        <v>45364</v>
+        <v>45366</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>CLE</t>
+          <t>LAC</t>
         </is>
       </c>
       <c r="C8" t="n">
@@ -4205,11 +4266,11 @@
     </row>
     <row r="9">
       <c r="A9" s="3" t="n">
-        <v>45366</v>
+        <v>45367</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>LAC</t>
+          <t>POR</t>
         </is>
       </c>
       <c r="C9" t="n">
@@ -4218,24 +4279,24 @@
     </row>
     <row r="10">
       <c r="A10" s="3" t="n">
-        <v>45367</v>
+        <v>45370</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>POR</t>
+          <t>BRK</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="3" t="n">
-        <v>45370</v>
+        <v>45372</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>BRK</t>
+          <t>ORL</t>
         </is>
       </c>
       <c r="C11" t="n">
@@ -4244,11 +4305,11 @@
     </row>
     <row r="12">
       <c r="A12" s="3" t="n">
-        <v>45372</v>
+        <v>45373</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>ORL</t>
+          <t>MIA</t>
         </is>
       </c>
       <c r="C12" t="n">
@@ -4257,11 +4318,11 @@
     </row>
     <row r="13">
       <c r="A13" s="3" t="n">
-        <v>45373</v>
+        <v>45375</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>MIA</t>
+          <t>DET</t>
         </is>
       </c>
       <c r="C13" t="n">
@@ -4270,24 +4331,24 @@
     </row>
     <row r="14">
       <c r="A14" s="3" t="n">
-        <v>45375</v>
+        <v>45377</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>DET</t>
+          <t>OKC</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="3" t="n">
-        <v>45377</v>
+        <v>45379</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>OKC</t>
+          <t>MIL</t>
         </is>
       </c>
       <c r="C15" t="n">
@@ -4296,11 +4357,11 @@
     </row>
     <row r="16">
       <c r="A16" s="3" t="n">
-        <v>45379</v>
+        <v>45381</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>MIL</t>
+          <t>BOS</t>
         </is>
       </c>
       <c r="C16" t="n">
@@ -4309,11 +4370,11 @@
     </row>
     <row r="17">
       <c r="A17" s="3" t="n">
-        <v>45381</v>
+        <v>45383</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>BOS</t>
+          <t>PHO</t>
         </is>
       </c>
       <c r="C17" t="n">
@@ -4322,11 +4383,11 @@
     </row>
     <row r="18">
       <c r="A18" s="3" t="n">
-        <v>45383</v>
+        <v>45385</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>PHO</t>
+          <t>ORL</t>
         </is>
       </c>
       <c r="C18" t="n">
@@ -4335,11 +4396,11 @@
     </row>
     <row r="19">
       <c r="A19" s="3" t="n">
-        <v>45385</v>
+        <v>45387</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>ORL</t>
+          <t>SAS</t>
         </is>
       </c>
       <c r="C19" t="n">
@@ -4348,24 +4409,24 @@
     </row>
     <row r="20">
       <c r="A20" s="3" t="n">
-        <v>45387</v>
+        <v>45389</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>SAS</t>
+          <t>PHO</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="3" t="n">
-        <v>45389</v>
+        <v>45391</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>PHO</t>
+          <t>POR</t>
         </is>
       </c>
       <c r="C21" t="n">
@@ -4374,11 +4435,11 @@
     </row>
     <row r="22">
       <c r="A22" s="3" t="n">
-        <v>45391</v>
+        <v>45393</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>POR</t>
+          <t>SAC</t>
         </is>
       </c>
       <c r="C22" t="n">
@@ -4387,11 +4448,11 @@
     </row>
     <row r="23">
       <c r="A23" s="3" t="n">
-        <v>45393</v>
+        <v>45394</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>SAC</t>
+          <t>GSW</t>
         </is>
       </c>
       <c r="C23" t="n">
@@ -4400,27 +4461,14 @@
     </row>
     <row r="24">
       <c r="A24" s="3" t="n">
-        <v>45394</v>
+        <v>45396</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>GSW</t>
+          <t>LAL</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="3" t="n">
-        <v>45396</v>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>LAL</t>
-        </is>
-      </c>
-      <c r="C25" t="n">
         <v>1</v>
       </c>
     </row>

--- a/data/CurrentSeason/NOP.xlsx
+++ b/data/CurrentSeason/NOP.xlsx
@@ -433,7 +433,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S60"/>
+  <dimension ref="A1:S61"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4080,7 +4080,7 @@
       <c r="A60" t="n">
         <v>59</v>
       </c>
-      <c r="B60" s="3" t="n">
+      <c r="B60" s="2" t="n">
         <v>45349</v>
       </c>
       <c r="C60" t="n">
@@ -4135,6 +4135,67 @@
       </c>
       <c r="S60" t="n">
         <v>1</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>60</v>
+      </c>
+      <c r="B61" s="3" t="n">
+        <v>45350</v>
+      </c>
+      <c r="C61" t="n">
+        <v>-1</v>
+      </c>
+      <c r="D61" t="n">
+        <v>114</v>
+      </c>
+      <c r="E61" t="n">
+        <v>98.90000000000001</v>
+      </c>
+      <c r="F61" t="n">
+        <v>0.528</v>
+      </c>
+      <c r="G61" t="n">
+        <v>9.1</v>
+      </c>
+      <c r="H61" t="n">
+        <v>16.3</v>
+      </c>
+      <c r="I61" t="n">
+        <v>0.211</v>
+      </c>
+      <c r="J61" t="n">
+        <v>115.2</v>
+      </c>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>IND</t>
+        </is>
+      </c>
+      <c r="L61" t="n">
+        <v>123</v>
+      </c>
+      <c r="M61" t="n">
+        <v>0.5590000000000001</v>
+      </c>
+      <c r="N61" t="n">
+        <v>7</v>
+      </c>
+      <c r="O61" t="n">
+        <v>29.8</v>
+      </c>
+      <c r="P61" t="n">
+        <v>0.08799999999999999</v>
+      </c>
+      <c r="Q61" t="n">
+        <v>124.3</v>
+      </c>
+      <c r="R61" t="n">
+        <v>0</v>
+      </c>
+      <c r="S61" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4148,7 +4209,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C24"/>
+  <dimension ref="A1:C23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4175,7 +4236,7 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>45350</v>
+        <v>45352</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -4183,29 +4244,29 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>45352</v>
+        <v>45356</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>IND</t>
+          <t>TOR</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>45356</v>
+        <v>45359</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>TOR</t>
+          <t>PHI</t>
         </is>
       </c>
       <c r="C4" t="n">
@@ -4214,11 +4275,11 @@
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>45359</v>
+        <v>45361</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>PHI</t>
+          <t>ATL</t>
         </is>
       </c>
       <c r="C5" t="n">
@@ -4227,24 +4288,24 @@
     </row>
     <row r="6">
       <c r="A6" s="3" t="n">
-        <v>45361</v>
+        <v>45364</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>ATL</t>
+          <t>CLE</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="3" t="n">
-        <v>45364</v>
+        <v>45366</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>CLE</t>
+          <t>LAC</t>
         </is>
       </c>
       <c r="C7" t="n">
@@ -4253,11 +4314,11 @@
     </row>
     <row r="8">
       <c r="A8" s="3" t="n">
-        <v>45366</v>
+        <v>45367</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>LAC</t>
+          <t>POR</t>
         </is>
       </c>
       <c r="C8" t="n">
@@ -4266,24 +4327,24 @@
     </row>
     <row r="9">
       <c r="A9" s="3" t="n">
-        <v>45367</v>
+        <v>45370</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>POR</t>
+          <t>BRK</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="3" t="n">
-        <v>45370</v>
+        <v>45372</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>BRK</t>
+          <t>ORL</t>
         </is>
       </c>
       <c r="C10" t="n">
@@ -4292,11 +4353,11 @@
     </row>
     <row r="11">
       <c r="A11" s="3" t="n">
-        <v>45372</v>
+        <v>45373</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>ORL</t>
+          <t>MIA</t>
         </is>
       </c>
       <c r="C11" t="n">
@@ -4305,11 +4366,11 @@
     </row>
     <row r="12">
       <c r="A12" s="3" t="n">
-        <v>45373</v>
+        <v>45375</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>MIA</t>
+          <t>DET</t>
         </is>
       </c>
       <c r="C12" t="n">
@@ -4318,24 +4379,24 @@
     </row>
     <row r="13">
       <c r="A13" s="3" t="n">
-        <v>45375</v>
+        <v>45377</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>DET</t>
+          <t>OKC</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="3" t="n">
-        <v>45377</v>
+        <v>45379</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>OKC</t>
+          <t>MIL</t>
         </is>
       </c>
       <c r="C14" t="n">
@@ -4344,11 +4405,11 @@
     </row>
     <row r="15">
       <c r="A15" s="3" t="n">
-        <v>45379</v>
+        <v>45381</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>MIL</t>
+          <t>BOS</t>
         </is>
       </c>
       <c r="C15" t="n">
@@ -4357,11 +4418,11 @@
     </row>
     <row r="16">
       <c r="A16" s="3" t="n">
-        <v>45381</v>
+        <v>45383</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>BOS</t>
+          <t>PHO</t>
         </is>
       </c>
       <c r="C16" t="n">
@@ -4370,11 +4431,11 @@
     </row>
     <row r="17">
       <c r="A17" s="3" t="n">
-        <v>45383</v>
+        <v>45385</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>PHO</t>
+          <t>ORL</t>
         </is>
       </c>
       <c r="C17" t="n">
@@ -4383,11 +4444,11 @@
     </row>
     <row r="18">
       <c r="A18" s="3" t="n">
-        <v>45385</v>
+        <v>45387</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>ORL</t>
+          <t>SAS</t>
         </is>
       </c>
       <c r="C18" t="n">
@@ -4396,24 +4457,24 @@
     </row>
     <row r="19">
       <c r="A19" s="3" t="n">
-        <v>45387</v>
+        <v>45389</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>SAS</t>
+          <t>PHO</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="3" t="n">
-        <v>45389</v>
+        <v>45391</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>PHO</t>
+          <t>POR</t>
         </is>
       </c>
       <c r="C20" t="n">
@@ -4422,11 +4483,11 @@
     </row>
     <row r="21">
       <c r="A21" s="3" t="n">
-        <v>45391</v>
+        <v>45393</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>POR</t>
+          <t>SAC</t>
         </is>
       </c>
       <c r="C21" t="n">
@@ -4435,11 +4496,11 @@
     </row>
     <row r="22">
       <c r="A22" s="3" t="n">
-        <v>45393</v>
+        <v>45394</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>SAC</t>
+          <t>GSW</t>
         </is>
       </c>
       <c r="C22" t="n">
@@ -4448,27 +4509,14 @@
     </row>
     <row r="23">
       <c r="A23" s="3" t="n">
-        <v>45394</v>
+        <v>45396</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>GSW</t>
+          <t>LAL</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="3" t="n">
-        <v>45396</v>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>LAL</t>
-        </is>
-      </c>
-      <c r="C24" t="n">
         <v>1</v>
       </c>
     </row>

--- a/data/CurrentSeason/NOP.xlsx
+++ b/data/CurrentSeason/NOP.xlsx
@@ -4141,7 +4141,7 @@
       <c r="A61" t="n">
         <v>60</v>
       </c>
-      <c r="B61" s="3" t="n">
+      <c r="B61" s="2" t="n">
         <v>45350</v>
       </c>
       <c r="C61" t="n">

--- a/data/CurrentSeason/NOP.xlsx
+++ b/data/CurrentSeason/NOP.xlsx
@@ -433,7 +433,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S61"/>
+  <dimension ref="A1:S62"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4196,6 +4196,67 @@
       </c>
       <c r="S61" t="n">
         <v>0</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>61</v>
+      </c>
+      <c r="B62" s="3" t="n">
+        <v>45352</v>
+      </c>
+      <c r="C62" t="n">
+        <v>1</v>
+      </c>
+      <c r="D62" t="n">
+        <v>129</v>
+      </c>
+      <c r="E62" t="n">
+        <v>100.5</v>
+      </c>
+      <c r="F62" t="n">
+        <v>0.645</v>
+      </c>
+      <c r="G62" t="n">
+        <v>14.9</v>
+      </c>
+      <c r="H62" t="n">
+        <v>28.9</v>
+      </c>
+      <c r="I62" t="n">
+        <v>0.209</v>
+      </c>
+      <c r="J62" t="n">
+        <v>128.4</v>
+      </c>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>IND</t>
+        </is>
+      </c>
+      <c r="L62" t="n">
+        <v>102</v>
+      </c>
+      <c r="M62" t="n">
+        <v>0.474</v>
+      </c>
+      <c r="N62" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="O62" t="n">
+        <v>32.1</v>
+      </c>
+      <c r="P62" t="n">
+        <v>0.126</v>
+      </c>
+      <c r="Q62" t="n">
+        <v>101.5</v>
+      </c>
+      <c r="R62" t="n">
+        <v>1</v>
+      </c>
+      <c r="S62" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -4209,7 +4270,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C23"/>
+  <dimension ref="A1:C22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4236,24 +4297,24 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>45352</v>
+        <v>45356</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>IND</t>
+          <t>TOR</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>45356</v>
+        <v>45359</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>TOR</t>
+          <t>PHI</t>
         </is>
       </c>
       <c r="C3" t="n">
@@ -4262,11 +4323,11 @@
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>45359</v>
+        <v>45361</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>PHI</t>
+          <t>ATL</t>
         </is>
       </c>
       <c r="C4" t="n">
@@ -4275,24 +4336,24 @@
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>45361</v>
+        <v>45364</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>ATL</t>
+          <t>CLE</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="3" t="n">
-        <v>45364</v>
+        <v>45366</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>CLE</t>
+          <t>LAC</t>
         </is>
       </c>
       <c r="C6" t="n">
@@ -4301,11 +4362,11 @@
     </row>
     <row r="7">
       <c r="A7" s="3" t="n">
-        <v>45366</v>
+        <v>45367</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>LAC</t>
+          <t>POR</t>
         </is>
       </c>
       <c r="C7" t="n">
@@ -4314,24 +4375,24 @@
     </row>
     <row r="8">
       <c r="A8" s="3" t="n">
-        <v>45367</v>
+        <v>45370</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>POR</t>
+          <t>BRK</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="3" t="n">
-        <v>45370</v>
+        <v>45372</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>BRK</t>
+          <t>ORL</t>
         </is>
       </c>
       <c r="C9" t="n">
@@ -4340,11 +4401,11 @@
     </row>
     <row r="10">
       <c r="A10" s="3" t="n">
-        <v>45372</v>
+        <v>45373</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>ORL</t>
+          <t>MIA</t>
         </is>
       </c>
       <c r="C10" t="n">
@@ -4353,11 +4414,11 @@
     </row>
     <row r="11">
       <c r="A11" s="3" t="n">
-        <v>45373</v>
+        <v>45375</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>MIA</t>
+          <t>DET</t>
         </is>
       </c>
       <c r="C11" t="n">
@@ -4366,24 +4427,24 @@
     </row>
     <row r="12">
       <c r="A12" s="3" t="n">
-        <v>45375</v>
+        <v>45377</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>DET</t>
+          <t>OKC</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="3" t="n">
-        <v>45377</v>
+        <v>45379</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>OKC</t>
+          <t>MIL</t>
         </is>
       </c>
       <c r="C13" t="n">
@@ -4392,11 +4453,11 @@
     </row>
     <row r="14">
       <c r="A14" s="3" t="n">
-        <v>45379</v>
+        <v>45381</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>MIL</t>
+          <t>BOS</t>
         </is>
       </c>
       <c r="C14" t="n">
@@ -4405,11 +4466,11 @@
     </row>
     <row r="15">
       <c r="A15" s="3" t="n">
-        <v>45381</v>
+        <v>45383</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>BOS</t>
+          <t>PHO</t>
         </is>
       </c>
       <c r="C15" t="n">
@@ -4418,11 +4479,11 @@
     </row>
     <row r="16">
       <c r="A16" s="3" t="n">
-        <v>45383</v>
+        <v>45385</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>PHO</t>
+          <t>ORL</t>
         </is>
       </c>
       <c r="C16" t="n">
@@ -4431,11 +4492,11 @@
     </row>
     <row r="17">
       <c r="A17" s="3" t="n">
-        <v>45385</v>
+        <v>45387</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>ORL</t>
+          <t>SAS</t>
         </is>
       </c>
       <c r="C17" t="n">
@@ -4444,24 +4505,24 @@
     </row>
     <row r="18">
       <c r="A18" s="3" t="n">
-        <v>45387</v>
+        <v>45389</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>SAS</t>
+          <t>PHO</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="3" t="n">
-        <v>45389</v>
+        <v>45391</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>PHO</t>
+          <t>POR</t>
         </is>
       </c>
       <c r="C19" t="n">
@@ -4470,11 +4531,11 @@
     </row>
     <row r="20">
       <c r="A20" s="3" t="n">
-        <v>45391</v>
+        <v>45393</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>POR</t>
+          <t>SAC</t>
         </is>
       </c>
       <c r="C20" t="n">
@@ -4483,11 +4544,11 @@
     </row>
     <row r="21">
       <c r="A21" s="3" t="n">
-        <v>45393</v>
+        <v>45394</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>SAC</t>
+          <t>GSW</t>
         </is>
       </c>
       <c r="C21" t="n">
@@ -4496,27 +4557,14 @@
     </row>
     <row r="22">
       <c r="A22" s="3" t="n">
-        <v>45394</v>
+        <v>45396</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>GSW</t>
+          <t>LAL</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="3" t="n">
-        <v>45396</v>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>LAL</t>
-        </is>
-      </c>
-      <c r="C23" t="n">
         <v>1</v>
       </c>
     </row>

--- a/data/CurrentSeason/NOP.xlsx
+++ b/data/CurrentSeason/NOP.xlsx
@@ -4202,7 +4202,7 @@
       <c r="A62" t="n">
         <v>61</v>
       </c>
-      <c r="B62" s="3" t="n">
+      <c r="B62" s="2" t="n">
         <v>45352</v>
       </c>
       <c r="C62" t="n">

--- a/data/CurrentSeason/NOP.xlsx
+++ b/data/CurrentSeason/NOP.xlsx
@@ -433,7 +433,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S62"/>
+  <dimension ref="A1:S63"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4256,6 +4256,67 @@
         <v>1</v>
       </c>
       <c r="S62" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>62</v>
+      </c>
+      <c r="B63" s="3" t="n">
+        <v>45356</v>
+      </c>
+      <c r="C63" t="n">
+        <v>2</v>
+      </c>
+      <c r="D63" t="n">
+        <v>139</v>
+      </c>
+      <c r="E63" t="n">
+        <v>101.3</v>
+      </c>
+      <c r="F63" t="n">
+        <v>0.619</v>
+      </c>
+      <c r="G63" t="n">
+        <v>9.1</v>
+      </c>
+      <c r="H63" t="n">
+        <v>33.3</v>
+      </c>
+      <c r="I63" t="n">
+        <v>0.08599999999999999</v>
+      </c>
+      <c r="J63" t="n">
+        <v>137.2</v>
+      </c>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>TOR</t>
+        </is>
+      </c>
+      <c r="L63" t="n">
+        <v>98</v>
+      </c>
+      <c r="M63" t="n">
+        <v>0.457</v>
+      </c>
+      <c r="N63" t="n">
+        <v>9.699999999999999</v>
+      </c>
+      <c r="O63" t="n">
+        <v>19.6</v>
+      </c>
+      <c r="P63" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="Q63" t="n">
+        <v>96.7</v>
+      </c>
+      <c r="R63" t="n">
+        <v>0</v>
+      </c>
+      <c r="S63" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4270,7 +4331,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C22"/>
+  <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4297,11 +4358,11 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>45356</v>
+        <v>45359</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>TOR</t>
+          <t>PHI</t>
         </is>
       </c>
       <c r="C2" t="n">
@@ -4310,11 +4371,11 @@
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>45359</v>
+        <v>45361</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>PHI</t>
+          <t>ATL</t>
         </is>
       </c>
       <c r="C3" t="n">
@@ -4323,24 +4384,24 @@
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>45361</v>
+        <v>45364</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>ATL</t>
+          <t>CLE</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>45364</v>
+        <v>45366</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>CLE</t>
+          <t>LAC</t>
         </is>
       </c>
       <c r="C5" t="n">
@@ -4349,11 +4410,11 @@
     </row>
     <row r="6">
       <c r="A6" s="3" t="n">
-        <v>45366</v>
+        <v>45367</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>LAC</t>
+          <t>POR</t>
         </is>
       </c>
       <c r="C6" t="n">
@@ -4362,24 +4423,24 @@
     </row>
     <row r="7">
       <c r="A7" s="3" t="n">
-        <v>45367</v>
+        <v>45370</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>POR</t>
+          <t>BRK</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="3" t="n">
-        <v>45370</v>
+        <v>45372</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>BRK</t>
+          <t>ORL</t>
         </is>
       </c>
       <c r="C8" t="n">
@@ -4388,11 +4449,11 @@
     </row>
     <row r="9">
       <c r="A9" s="3" t="n">
-        <v>45372</v>
+        <v>45373</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>ORL</t>
+          <t>MIA</t>
         </is>
       </c>
       <c r="C9" t="n">
@@ -4401,11 +4462,11 @@
     </row>
     <row r="10">
       <c r="A10" s="3" t="n">
-        <v>45373</v>
+        <v>45375</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>MIA</t>
+          <t>DET</t>
         </is>
       </c>
       <c r="C10" t="n">
@@ -4414,24 +4475,24 @@
     </row>
     <row r="11">
       <c r="A11" s="3" t="n">
-        <v>45375</v>
+        <v>45377</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>DET</t>
+          <t>OKC</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="3" t="n">
-        <v>45377</v>
+        <v>45379</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>OKC</t>
+          <t>MIL</t>
         </is>
       </c>
       <c r="C12" t="n">
@@ -4440,11 +4501,11 @@
     </row>
     <row r="13">
       <c r="A13" s="3" t="n">
-        <v>45379</v>
+        <v>45381</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>MIL</t>
+          <t>BOS</t>
         </is>
       </c>
       <c r="C13" t="n">
@@ -4453,11 +4514,11 @@
     </row>
     <row r="14">
       <c r="A14" s="3" t="n">
-        <v>45381</v>
+        <v>45383</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>BOS</t>
+          <t>PHO</t>
         </is>
       </c>
       <c r="C14" t="n">
@@ -4466,11 +4527,11 @@
     </row>
     <row r="15">
       <c r="A15" s="3" t="n">
-        <v>45383</v>
+        <v>45385</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>PHO</t>
+          <t>ORL</t>
         </is>
       </c>
       <c r="C15" t="n">
@@ -4479,11 +4540,11 @@
     </row>
     <row r="16">
       <c r="A16" s="3" t="n">
-        <v>45385</v>
+        <v>45387</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>ORL</t>
+          <t>SAS</t>
         </is>
       </c>
       <c r="C16" t="n">
@@ -4492,24 +4553,24 @@
     </row>
     <row r="17">
       <c r="A17" s="3" t="n">
-        <v>45387</v>
+        <v>45389</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>SAS</t>
+          <t>PHO</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="3" t="n">
-        <v>45389</v>
+        <v>45391</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>PHO</t>
+          <t>POR</t>
         </is>
       </c>
       <c r="C18" t="n">
@@ -4518,11 +4579,11 @@
     </row>
     <row r="19">
       <c r="A19" s="3" t="n">
-        <v>45391</v>
+        <v>45393</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>POR</t>
+          <t>SAC</t>
         </is>
       </c>
       <c r="C19" t="n">
@@ -4531,11 +4592,11 @@
     </row>
     <row r="20">
       <c r="A20" s="3" t="n">
-        <v>45393</v>
+        <v>45394</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>SAC</t>
+          <t>GSW</t>
         </is>
       </c>
       <c r="C20" t="n">
@@ -4544,27 +4605,14 @@
     </row>
     <row r="21">
       <c r="A21" s="3" t="n">
-        <v>45394</v>
+        <v>45396</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>GSW</t>
+          <t>LAL</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="3" t="n">
-        <v>45396</v>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>LAL</t>
-        </is>
-      </c>
-      <c r="C22" t="n">
         <v>1</v>
       </c>
     </row>

--- a/data/CurrentSeason/NOP.xlsx
+++ b/data/CurrentSeason/NOP.xlsx
@@ -4263,7 +4263,7 @@
       <c r="A63" t="n">
         <v>62</v>
       </c>
-      <c r="B63" s="3" t="n">
+      <c r="B63" s="2" t="n">
         <v>45356</v>
       </c>
       <c r="C63" t="n">

--- a/data/CurrentSeason/NOP.xlsx
+++ b/data/CurrentSeason/NOP.xlsx
@@ -433,7 +433,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S63"/>
+  <dimension ref="A1:S64"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4317,6 +4317,67 @@
         <v>0</v>
       </c>
       <c r="S63" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>63</v>
+      </c>
+      <c r="B64" s="3" t="n">
+        <v>45359</v>
+      </c>
+      <c r="C64" t="n">
+        <v>3</v>
+      </c>
+      <c r="D64" t="n">
+        <v>103</v>
+      </c>
+      <c r="E64" t="n">
+        <v>90.40000000000001</v>
+      </c>
+      <c r="F64" t="n">
+        <v>0.513</v>
+      </c>
+      <c r="G64" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="H64" t="n">
+        <v>23.7</v>
+      </c>
+      <c r="I64" t="n">
+        <v>0.278</v>
+      </c>
+      <c r="J64" t="n">
+        <v>113.9</v>
+      </c>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>PHI</t>
+        </is>
+      </c>
+      <c r="L64" t="n">
+        <v>95</v>
+      </c>
+      <c r="M64" t="n">
+        <v>0.449</v>
+      </c>
+      <c r="N64" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="O64" t="n">
+        <v>25</v>
+      </c>
+      <c r="P64" t="n">
+        <v>0.182</v>
+      </c>
+      <c r="Q64" t="n">
+        <v>105</v>
+      </c>
+      <c r="R64" t="n">
+        <v>0</v>
+      </c>
+      <c r="S64" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4331,7 +4392,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4358,11 +4419,11 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>45359</v>
+        <v>45361</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>PHI</t>
+          <t>ATL</t>
         </is>
       </c>
       <c r="C2" t="n">
@@ -4371,24 +4432,24 @@
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>45361</v>
+        <v>45364</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>ATL</t>
+          <t>CLE</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>45364</v>
+        <v>45366</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>CLE</t>
+          <t>LAC</t>
         </is>
       </c>
       <c r="C4" t="n">
@@ -4397,11 +4458,11 @@
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>45366</v>
+        <v>45367</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>LAC</t>
+          <t>POR</t>
         </is>
       </c>
       <c r="C5" t="n">
@@ -4410,24 +4471,24 @@
     </row>
     <row r="6">
       <c r="A6" s="3" t="n">
-        <v>45367</v>
+        <v>45370</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>POR</t>
+          <t>BRK</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="3" t="n">
-        <v>45370</v>
+        <v>45372</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>BRK</t>
+          <t>ORL</t>
         </is>
       </c>
       <c r="C7" t="n">
@@ -4436,11 +4497,11 @@
     </row>
     <row r="8">
       <c r="A8" s="3" t="n">
-        <v>45372</v>
+        <v>45373</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>ORL</t>
+          <t>MIA</t>
         </is>
       </c>
       <c r="C8" t="n">
@@ -4449,11 +4510,11 @@
     </row>
     <row r="9">
       <c r="A9" s="3" t="n">
-        <v>45373</v>
+        <v>45375</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>MIA</t>
+          <t>DET</t>
         </is>
       </c>
       <c r="C9" t="n">
@@ -4462,24 +4523,24 @@
     </row>
     <row r="10">
       <c r="A10" s="3" t="n">
-        <v>45375</v>
+        <v>45377</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>DET</t>
+          <t>OKC</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="3" t="n">
-        <v>45377</v>
+        <v>45379</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>OKC</t>
+          <t>MIL</t>
         </is>
       </c>
       <c r="C11" t="n">
@@ -4488,11 +4549,11 @@
     </row>
     <row r="12">
       <c r="A12" s="3" t="n">
-        <v>45379</v>
+        <v>45381</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>MIL</t>
+          <t>BOS</t>
         </is>
       </c>
       <c r="C12" t="n">
@@ -4501,11 +4562,11 @@
     </row>
     <row r="13">
       <c r="A13" s="3" t="n">
-        <v>45381</v>
+        <v>45383</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>BOS</t>
+          <t>PHO</t>
         </is>
       </c>
       <c r="C13" t="n">
@@ -4514,11 +4575,11 @@
     </row>
     <row r="14">
       <c r="A14" s="3" t="n">
-        <v>45383</v>
+        <v>45385</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>PHO</t>
+          <t>ORL</t>
         </is>
       </c>
       <c r="C14" t="n">
@@ -4527,11 +4588,11 @@
     </row>
     <row r="15">
       <c r="A15" s="3" t="n">
-        <v>45385</v>
+        <v>45387</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>ORL</t>
+          <t>SAS</t>
         </is>
       </c>
       <c r="C15" t="n">
@@ -4540,24 +4601,24 @@
     </row>
     <row r="16">
       <c r="A16" s="3" t="n">
-        <v>45387</v>
+        <v>45389</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>SAS</t>
+          <t>PHO</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="3" t="n">
-        <v>45389</v>
+        <v>45391</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>PHO</t>
+          <t>POR</t>
         </is>
       </c>
       <c r="C17" t="n">
@@ -4566,11 +4627,11 @@
     </row>
     <row r="18">
       <c r="A18" s="3" t="n">
-        <v>45391</v>
+        <v>45393</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>POR</t>
+          <t>SAC</t>
         </is>
       </c>
       <c r="C18" t="n">
@@ -4579,11 +4640,11 @@
     </row>
     <row r="19">
       <c r="A19" s="3" t="n">
-        <v>45393</v>
+        <v>45394</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>SAC</t>
+          <t>GSW</t>
         </is>
       </c>
       <c r="C19" t="n">
@@ -4592,27 +4653,14 @@
     </row>
     <row r="20">
       <c r="A20" s="3" t="n">
-        <v>45394</v>
+        <v>45396</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>GSW</t>
+          <t>LAL</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="3" t="n">
-        <v>45396</v>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>LAL</t>
-        </is>
-      </c>
-      <c r="C21" t="n">
         <v>1</v>
       </c>
     </row>

--- a/data/CurrentSeason/NOP.xlsx
+++ b/data/CurrentSeason/NOP.xlsx
@@ -433,7 +433,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S64"/>
+  <dimension ref="A1:S65"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4324,7 +4324,7 @@
       <c r="A64" t="n">
         <v>63</v>
       </c>
-      <c r="B64" s="3" t="n">
+      <c r="B64" s="2" t="n">
         <v>45359</v>
       </c>
       <c r="C64" t="n">
@@ -4378,6 +4378,67 @@
         <v>0</v>
       </c>
       <c r="S64" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>64</v>
+      </c>
+      <c r="B65" s="3" t="n">
+        <v>45361</v>
+      </c>
+      <c r="C65" t="n">
+        <v>4</v>
+      </c>
+      <c r="D65" t="n">
+        <v>116</v>
+      </c>
+      <c r="E65" t="n">
+        <v>92.8</v>
+      </c>
+      <c r="F65" t="n">
+        <v>0.667</v>
+      </c>
+      <c r="G65" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="H65" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="I65" t="n">
+        <v>0.213</v>
+      </c>
+      <c r="J65" t="n">
+        <v>125.1</v>
+      </c>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>ATL</t>
+        </is>
+      </c>
+      <c r="L65" t="n">
+        <v>103</v>
+      </c>
+      <c r="M65" t="n">
+        <v>0.511</v>
+      </c>
+      <c r="N65" t="n">
+        <v>10.2</v>
+      </c>
+      <c r="O65" t="n">
+        <v>23.5</v>
+      </c>
+      <c r="P65" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="Q65" t="n">
+        <v>111</v>
+      </c>
+      <c r="R65" t="n">
+        <v>0</v>
+      </c>
+      <c r="S65" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4392,7 +4453,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C20"/>
+  <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4419,24 +4480,24 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>45361</v>
+        <v>45364</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>ATL</t>
+          <t>CLE</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>45364</v>
+        <v>45366</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>CLE</t>
+          <t>LAC</t>
         </is>
       </c>
       <c r="C3" t="n">
@@ -4445,11 +4506,11 @@
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>45366</v>
+        <v>45367</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>LAC</t>
+          <t>POR</t>
         </is>
       </c>
       <c r="C4" t="n">
@@ -4458,24 +4519,24 @@
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>45367</v>
+        <v>45370</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>POR</t>
+          <t>BRK</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="3" t="n">
-        <v>45370</v>
+        <v>45372</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>BRK</t>
+          <t>ORL</t>
         </is>
       </c>
       <c r="C6" t="n">
@@ -4484,11 +4545,11 @@
     </row>
     <row r="7">
       <c r="A7" s="3" t="n">
-        <v>45372</v>
+        <v>45373</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>ORL</t>
+          <t>MIA</t>
         </is>
       </c>
       <c r="C7" t="n">
@@ -4497,11 +4558,11 @@
     </row>
     <row r="8">
       <c r="A8" s="3" t="n">
-        <v>45373</v>
+        <v>45375</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>MIA</t>
+          <t>DET</t>
         </is>
       </c>
       <c r="C8" t="n">
@@ -4510,24 +4571,24 @@
     </row>
     <row r="9">
       <c r="A9" s="3" t="n">
-        <v>45375</v>
+        <v>45377</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>DET</t>
+          <t>OKC</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="3" t="n">
-        <v>45377</v>
+        <v>45379</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>OKC</t>
+          <t>MIL</t>
         </is>
       </c>
       <c r="C10" t="n">
@@ -4536,11 +4597,11 @@
     </row>
     <row r="11">
       <c r="A11" s="3" t="n">
-        <v>45379</v>
+        <v>45381</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>MIL</t>
+          <t>BOS</t>
         </is>
       </c>
       <c r="C11" t="n">
@@ -4549,11 +4610,11 @@
     </row>
     <row r="12">
       <c r="A12" s="3" t="n">
-        <v>45381</v>
+        <v>45383</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>BOS</t>
+          <t>PHO</t>
         </is>
       </c>
       <c r="C12" t="n">
@@ -4562,11 +4623,11 @@
     </row>
     <row r="13">
       <c r="A13" s="3" t="n">
-        <v>45383</v>
+        <v>45385</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>PHO</t>
+          <t>ORL</t>
         </is>
       </c>
       <c r="C13" t="n">
@@ -4575,11 +4636,11 @@
     </row>
     <row r="14">
       <c r="A14" s="3" t="n">
-        <v>45385</v>
+        <v>45387</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>ORL</t>
+          <t>SAS</t>
         </is>
       </c>
       <c r="C14" t="n">
@@ -4588,24 +4649,24 @@
     </row>
     <row r="15">
       <c r="A15" s="3" t="n">
-        <v>45387</v>
+        <v>45389</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>SAS</t>
+          <t>PHO</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="3" t="n">
-        <v>45389</v>
+        <v>45391</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>PHO</t>
+          <t>POR</t>
         </is>
       </c>
       <c r="C16" t="n">
@@ -4614,11 +4675,11 @@
     </row>
     <row r="17">
       <c r="A17" s="3" t="n">
-        <v>45391</v>
+        <v>45393</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>POR</t>
+          <t>SAC</t>
         </is>
       </c>
       <c r="C17" t="n">
@@ -4627,11 +4688,11 @@
     </row>
     <row r="18">
       <c r="A18" s="3" t="n">
-        <v>45393</v>
+        <v>45394</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>SAC</t>
+          <t>GSW</t>
         </is>
       </c>
       <c r="C18" t="n">
@@ -4640,27 +4701,14 @@
     </row>
     <row r="19">
       <c r="A19" s="3" t="n">
-        <v>45394</v>
+        <v>45396</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>GSW</t>
+          <t>LAL</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="3" t="n">
-        <v>45396</v>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>LAL</t>
-        </is>
-      </c>
-      <c r="C20" t="n">
         <v>1</v>
       </c>
     </row>

--- a/data/CurrentSeason/NOP.xlsx
+++ b/data/CurrentSeason/NOP.xlsx
@@ -4385,7 +4385,7 @@
       <c r="A65" t="n">
         <v>64</v>
       </c>
-      <c r="B65" s="3" t="n">
+      <c r="B65" s="2" t="n">
         <v>45361</v>
       </c>
       <c r="C65" t="n">

--- a/data/CurrentSeason/NOP.xlsx
+++ b/data/CurrentSeason/NOP.xlsx
@@ -433,7 +433,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S65"/>
+  <dimension ref="A1:S66"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4440,6 +4440,67 @@
       </c>
       <c r="S65" t="n">
         <v>1</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>65</v>
+      </c>
+      <c r="B66" s="3" t="n">
+        <v>45364</v>
+      </c>
+      <c r="C66" t="n">
+        <v>-1</v>
+      </c>
+      <c r="D66" t="n">
+        <v>95</v>
+      </c>
+      <c r="E66" t="n">
+        <v>93.7</v>
+      </c>
+      <c r="F66" t="n">
+        <v>0.463</v>
+      </c>
+      <c r="G66" t="n">
+        <v>10.7</v>
+      </c>
+      <c r="H66" t="n">
+        <v>15.6</v>
+      </c>
+      <c r="I66" t="n">
+        <v>0.263</v>
+      </c>
+      <c r="J66" t="n">
+        <v>101.4</v>
+      </c>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>CLE</t>
+        </is>
+      </c>
+      <c r="L66" t="n">
+        <v>116</v>
+      </c>
+      <c r="M66" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="N66" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="O66" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="P66" t="n">
+        <v>0.022</v>
+      </c>
+      <c r="Q66" t="n">
+        <v>123.8</v>
+      </c>
+      <c r="R66" t="n">
+        <v>1</v>
+      </c>
+      <c r="S66" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4453,7 +4514,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C19"/>
+  <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4480,11 +4541,11 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>45364</v>
+        <v>45366</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>CLE</t>
+          <t>LAC</t>
         </is>
       </c>
       <c r="C2" t="n">
@@ -4493,11 +4554,11 @@
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>45366</v>
+        <v>45367</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>LAC</t>
+          <t>POR</t>
         </is>
       </c>
       <c r="C3" t="n">
@@ -4506,24 +4567,24 @@
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>45367</v>
+        <v>45370</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>POR</t>
+          <t>BRK</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>45370</v>
+        <v>45372</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>BRK</t>
+          <t>ORL</t>
         </is>
       </c>
       <c r="C5" t="n">
@@ -4532,11 +4593,11 @@
     </row>
     <row r="6">
       <c r="A6" s="3" t="n">
-        <v>45372</v>
+        <v>45373</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>ORL</t>
+          <t>MIA</t>
         </is>
       </c>
       <c r="C6" t="n">
@@ -4545,11 +4606,11 @@
     </row>
     <row r="7">
       <c r="A7" s="3" t="n">
-        <v>45373</v>
+        <v>45375</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>MIA</t>
+          <t>DET</t>
         </is>
       </c>
       <c r="C7" t="n">
@@ -4558,24 +4619,24 @@
     </row>
     <row r="8">
       <c r="A8" s="3" t="n">
-        <v>45375</v>
+        <v>45377</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>DET</t>
+          <t>OKC</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="3" t="n">
-        <v>45377</v>
+        <v>45379</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>OKC</t>
+          <t>MIL</t>
         </is>
       </c>
       <c r="C9" t="n">
@@ -4584,11 +4645,11 @@
     </row>
     <row r="10">
       <c r="A10" s="3" t="n">
-        <v>45379</v>
+        <v>45381</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>MIL</t>
+          <t>BOS</t>
         </is>
       </c>
       <c r="C10" t="n">
@@ -4597,11 +4658,11 @@
     </row>
     <row r="11">
       <c r="A11" s="3" t="n">
-        <v>45381</v>
+        <v>45383</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>BOS</t>
+          <t>PHO</t>
         </is>
       </c>
       <c r="C11" t="n">
@@ -4610,11 +4671,11 @@
     </row>
     <row r="12">
       <c r="A12" s="3" t="n">
-        <v>45383</v>
+        <v>45385</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>PHO</t>
+          <t>ORL</t>
         </is>
       </c>
       <c r="C12" t="n">
@@ -4623,11 +4684,11 @@
     </row>
     <row r="13">
       <c r="A13" s="3" t="n">
-        <v>45385</v>
+        <v>45387</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>ORL</t>
+          <t>SAS</t>
         </is>
       </c>
       <c r="C13" t="n">
@@ -4636,24 +4697,24 @@
     </row>
     <row r="14">
       <c r="A14" s="3" t="n">
-        <v>45387</v>
+        <v>45389</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>SAS</t>
+          <t>PHO</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="3" t="n">
-        <v>45389</v>
+        <v>45391</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>PHO</t>
+          <t>POR</t>
         </is>
       </c>
       <c r="C15" t="n">
@@ -4662,11 +4723,11 @@
     </row>
     <row r="16">
       <c r="A16" s="3" t="n">
-        <v>45391</v>
+        <v>45393</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>POR</t>
+          <t>SAC</t>
         </is>
       </c>
       <c r="C16" t="n">
@@ -4675,11 +4736,11 @@
     </row>
     <row r="17">
       <c r="A17" s="3" t="n">
-        <v>45393</v>
+        <v>45394</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>SAC</t>
+          <t>GSW</t>
         </is>
       </c>
       <c r="C17" t="n">
@@ -4688,27 +4749,14 @@
     </row>
     <row r="18">
       <c r="A18" s="3" t="n">
-        <v>45394</v>
+        <v>45396</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>GSW</t>
+          <t>LAL</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="3" t="n">
-        <v>45396</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>LAL</t>
-        </is>
-      </c>
-      <c r="C19" t="n">
         <v>1</v>
       </c>
     </row>

--- a/data/CurrentSeason/NOP.xlsx
+++ b/data/CurrentSeason/NOP.xlsx
@@ -4446,7 +4446,7 @@
       <c r="A66" t="n">
         <v>65</v>
       </c>
-      <c r="B66" s="3" t="n">
+      <c r="B66" s="2" t="n">
         <v>45364</v>
       </c>
       <c r="C66" t="n">

--- a/data/CurrentSeason/NOP.xlsx
+++ b/data/CurrentSeason/NOP.xlsx
@@ -433,7 +433,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S66"/>
+  <dimension ref="A1:S67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4501,6 +4501,67 @@
       </c>
       <c r="S66" t="n">
         <v>0</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>66</v>
+      </c>
+      <c r="B67" s="3" t="n">
+        <v>45366</v>
+      </c>
+      <c r="C67" t="n">
+        <v>1</v>
+      </c>
+      <c r="D67" t="n">
+        <v>112</v>
+      </c>
+      <c r="E67" t="n">
+        <v>91.5</v>
+      </c>
+      <c r="F67" t="n">
+        <v>0.5570000000000001</v>
+      </c>
+      <c r="G67" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="H67" t="n">
+        <v>22</v>
+      </c>
+      <c r="I67" t="n">
+        <v>0.172</v>
+      </c>
+      <c r="J67" t="n">
+        <v>122.3</v>
+      </c>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>LAC</t>
+        </is>
+      </c>
+      <c r="L67" t="n">
+        <v>104</v>
+      </c>
+      <c r="M67" t="n">
+        <v>0.5580000000000001</v>
+      </c>
+      <c r="N67" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="O67" t="n">
+        <v>13.9</v>
+      </c>
+      <c r="P67" t="n">
+        <v>0.234</v>
+      </c>
+      <c r="Q67" t="n">
+        <v>113.6</v>
+      </c>
+      <c r="R67" t="n">
+        <v>1</v>
+      </c>
+      <c r="S67" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -4514,7 +4575,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C18"/>
+  <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4541,11 +4602,11 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>45366</v>
+        <v>45367</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>LAC</t>
+          <t>POR</t>
         </is>
       </c>
       <c r="C2" t="n">
@@ -4554,24 +4615,24 @@
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>45367</v>
+        <v>45370</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>POR</t>
+          <t>BRK</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>45370</v>
+        <v>45372</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>BRK</t>
+          <t>ORL</t>
         </is>
       </c>
       <c r="C4" t="n">
@@ -4580,11 +4641,11 @@
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>45372</v>
+        <v>45373</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>ORL</t>
+          <t>MIA</t>
         </is>
       </c>
       <c r="C5" t="n">
@@ -4593,11 +4654,11 @@
     </row>
     <row r="6">
       <c r="A6" s="3" t="n">
-        <v>45373</v>
+        <v>45375</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>MIA</t>
+          <t>DET</t>
         </is>
       </c>
       <c r="C6" t="n">
@@ -4606,24 +4667,24 @@
     </row>
     <row r="7">
       <c r="A7" s="3" t="n">
-        <v>45375</v>
+        <v>45377</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>DET</t>
+          <t>OKC</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="3" t="n">
-        <v>45377</v>
+        <v>45379</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>OKC</t>
+          <t>MIL</t>
         </is>
       </c>
       <c r="C8" t="n">
@@ -4632,11 +4693,11 @@
     </row>
     <row r="9">
       <c r="A9" s="3" t="n">
-        <v>45379</v>
+        <v>45381</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>MIL</t>
+          <t>BOS</t>
         </is>
       </c>
       <c r="C9" t="n">
@@ -4645,11 +4706,11 @@
     </row>
     <row r="10">
       <c r="A10" s="3" t="n">
-        <v>45381</v>
+        <v>45383</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>BOS</t>
+          <t>PHO</t>
         </is>
       </c>
       <c r="C10" t="n">
@@ -4658,11 +4719,11 @@
     </row>
     <row r="11">
       <c r="A11" s="3" t="n">
-        <v>45383</v>
+        <v>45385</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>PHO</t>
+          <t>ORL</t>
         </is>
       </c>
       <c r="C11" t="n">
@@ -4671,11 +4732,11 @@
     </row>
     <row r="12">
       <c r="A12" s="3" t="n">
-        <v>45385</v>
+        <v>45387</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>ORL</t>
+          <t>SAS</t>
         </is>
       </c>
       <c r="C12" t="n">
@@ -4684,24 +4745,24 @@
     </row>
     <row r="13">
       <c r="A13" s="3" t="n">
-        <v>45387</v>
+        <v>45389</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>SAS</t>
+          <t>PHO</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="3" t="n">
-        <v>45389</v>
+        <v>45391</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>PHO</t>
+          <t>POR</t>
         </is>
       </c>
       <c r="C14" t="n">
@@ -4710,11 +4771,11 @@
     </row>
     <row r="15">
       <c r="A15" s="3" t="n">
-        <v>45391</v>
+        <v>45393</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>POR</t>
+          <t>SAC</t>
         </is>
       </c>
       <c r="C15" t="n">
@@ -4723,11 +4784,11 @@
     </row>
     <row r="16">
       <c r="A16" s="3" t="n">
-        <v>45393</v>
+        <v>45394</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>SAC</t>
+          <t>GSW</t>
         </is>
       </c>
       <c r="C16" t="n">
@@ -4736,27 +4797,14 @@
     </row>
     <row r="17">
       <c r="A17" s="3" t="n">
-        <v>45394</v>
+        <v>45396</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>GSW</t>
+          <t>LAL</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="3" t="n">
-        <v>45396</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>LAL</t>
-        </is>
-      </c>
-      <c r="C18" t="n">
         <v>1</v>
       </c>
     </row>

--- a/data/CurrentSeason/NOP.xlsx
+++ b/data/CurrentSeason/NOP.xlsx
@@ -433,7 +433,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S67"/>
+  <dimension ref="A1:S69"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4507,7 +4507,7 @@
       <c r="A67" t="n">
         <v>66</v>
       </c>
-      <c r="B67" s="3" t="n">
+      <c r="B67" s="2" t="n">
         <v>45366</v>
       </c>
       <c r="C67" t="n">
@@ -4561,6 +4561,128 @@
         <v>1</v>
       </c>
       <c r="S67" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>67</v>
+      </c>
+      <c r="B68" s="3" t="n">
+        <v>45367</v>
+      </c>
+      <c r="C68" t="n">
+        <v>2</v>
+      </c>
+      <c r="D68" t="n">
+        <v>126</v>
+      </c>
+      <c r="E68" t="n">
+        <v>96.5</v>
+      </c>
+      <c r="F68" t="n">
+        <v>0.603</v>
+      </c>
+      <c r="G68" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="H68" t="n">
+        <v>27.8</v>
+      </c>
+      <c r="I68" t="n">
+        <v>0.093</v>
+      </c>
+      <c r="J68" t="n">
+        <v>130.6</v>
+      </c>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>POR</t>
+        </is>
+      </c>
+      <c r="L68" t="n">
+        <v>107</v>
+      </c>
+      <c r="M68" t="n">
+        <v>0.571</v>
+      </c>
+      <c r="N68" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="O68" t="n">
+        <v>25.6</v>
+      </c>
+      <c r="P68" t="n">
+        <v>0.131</v>
+      </c>
+      <c r="Q68" t="n">
+        <v>110.9</v>
+      </c>
+      <c r="R68" t="n">
+        <v>1</v>
+      </c>
+      <c r="S68" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>68</v>
+      </c>
+      <c r="B69" s="3" t="n">
+        <v>45370</v>
+      </c>
+      <c r="C69" t="n">
+        <v>3</v>
+      </c>
+      <c r="D69" t="n">
+        <v>104</v>
+      </c>
+      <c r="E69" t="n">
+        <v>89.5</v>
+      </c>
+      <c r="F69" t="n">
+        <v>0.5659999999999999</v>
+      </c>
+      <c r="G69" t="n">
+        <v>12.8</v>
+      </c>
+      <c r="H69" t="n">
+        <v>28.2</v>
+      </c>
+      <c r="I69" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="J69" t="n">
+        <v>116.2</v>
+      </c>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>BRK</t>
+        </is>
+      </c>
+      <c r="L69" t="n">
+        <v>91</v>
+      </c>
+      <c r="M69" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="N69" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="O69" t="n">
+        <v>27.5</v>
+      </c>
+      <c r="P69" t="n">
+        <v>0.202</v>
+      </c>
+      <c r="Q69" t="n">
+        <v>101.6</v>
+      </c>
+      <c r="R69" t="n">
+        <v>0</v>
+      </c>
+      <c r="S69" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4575,7 +4697,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4602,24 +4724,24 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>45367</v>
+        <v>45372</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>POR</t>
+          <t>ORL</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>45370</v>
+        <v>45373</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>BRK</t>
+          <t>MIA</t>
         </is>
       </c>
       <c r="C3" t="n">
@@ -4628,11 +4750,11 @@
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>45372</v>
+        <v>45375</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>ORL</t>
+          <t>DET</t>
         </is>
       </c>
       <c r="C4" t="n">
@@ -4641,37 +4763,37 @@
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>45373</v>
+        <v>45377</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>MIA</t>
+          <t>OKC</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="3" t="n">
-        <v>45375</v>
+        <v>45379</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>DET</t>
+          <t>MIL</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="3" t="n">
-        <v>45377</v>
+        <v>45381</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>OKC</t>
+          <t>BOS</t>
         </is>
       </c>
       <c r="C7" t="n">
@@ -4680,11 +4802,11 @@
     </row>
     <row r="8">
       <c r="A8" s="3" t="n">
-        <v>45379</v>
+        <v>45383</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>MIL</t>
+          <t>PHO</t>
         </is>
       </c>
       <c r="C8" t="n">
@@ -4693,11 +4815,11 @@
     </row>
     <row r="9">
       <c r="A9" s="3" t="n">
-        <v>45381</v>
+        <v>45385</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>BOS</t>
+          <t>ORL</t>
         </is>
       </c>
       <c r="C9" t="n">
@@ -4706,11 +4828,11 @@
     </row>
     <row r="10">
       <c r="A10" s="3" t="n">
-        <v>45383</v>
+        <v>45387</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>PHO</t>
+          <t>SAS</t>
         </is>
       </c>
       <c r="C10" t="n">
@@ -4719,37 +4841,37 @@
     </row>
     <row r="11">
       <c r="A11" s="3" t="n">
-        <v>45385</v>
+        <v>45389</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>ORL</t>
+          <t>PHO</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="3" t="n">
-        <v>45387</v>
+        <v>45391</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>SAS</t>
+          <t>POR</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="3" t="n">
-        <v>45389</v>
+        <v>45393</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>PHO</t>
+          <t>SAC</t>
         </is>
       </c>
       <c r="C13" t="n">
@@ -4758,11 +4880,11 @@
     </row>
     <row r="14">
       <c r="A14" s="3" t="n">
-        <v>45391</v>
+        <v>45394</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>POR</t>
+          <t>GSW</t>
         </is>
       </c>
       <c r="C14" t="n">
@@ -4771,40 +4893,14 @@
     </row>
     <row r="15">
       <c r="A15" s="3" t="n">
-        <v>45393</v>
+        <v>45396</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>SAC</t>
+          <t>LAL</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="3" t="n">
-        <v>45394</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>GSW</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="3" t="n">
-        <v>45396</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>LAL</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
         <v>1</v>
       </c>
     </row>

--- a/data/CurrentSeason/NOP.xlsx
+++ b/data/CurrentSeason/NOP.xlsx
@@ -4568,7 +4568,7 @@
       <c r="A68" t="n">
         <v>67</v>
       </c>
-      <c r="B68" s="3" t="n">
+      <c r="B68" s="2" t="n">
         <v>45367</v>
       </c>
       <c r="C68" t="n">
@@ -4629,7 +4629,7 @@
       <c r="A69" t="n">
         <v>68</v>
       </c>
-      <c r="B69" s="3" t="n">
+      <c r="B69" s="2" t="n">
         <v>45370</v>
       </c>
       <c r="C69" t="n">

--- a/data/CurrentSeason/NOP.xlsx
+++ b/data/CurrentSeason/NOP.xlsx
@@ -433,7 +433,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S69"/>
+  <dimension ref="A1:S70"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4684,6 +4684,67 @@
       </c>
       <c r="S69" t="n">
         <v>1</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>69</v>
+      </c>
+      <c r="B70" s="3" t="n">
+        <v>45372</v>
+      </c>
+      <c r="C70" t="n">
+        <v>-1</v>
+      </c>
+      <c r="D70" t="n">
+        <v>106</v>
+      </c>
+      <c r="E70" t="n">
+        <v>98.59999999999999</v>
+      </c>
+      <c r="F70" t="n">
+        <v>0.584</v>
+      </c>
+      <c r="G70" t="n">
+        <v>17.3</v>
+      </c>
+      <c r="H70" t="n">
+        <v>9.1</v>
+      </c>
+      <c r="I70" t="n">
+        <v>0.208</v>
+      </c>
+      <c r="J70" t="n">
+        <v>107.5</v>
+      </c>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>ORL</t>
+        </is>
+      </c>
+      <c r="L70" t="n">
+        <v>121</v>
+      </c>
+      <c r="M70" t="n">
+        <v>0.628</v>
+      </c>
+      <c r="N70" t="n">
+        <v>12.9</v>
+      </c>
+      <c r="O70" t="n">
+        <v>25</v>
+      </c>
+      <c r="P70" t="n">
+        <v>0.151</v>
+      </c>
+      <c r="Q70" t="n">
+        <v>122.7</v>
+      </c>
+      <c r="R70" t="n">
+        <v>0</v>
+      </c>
+      <c r="S70" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4697,7 +4758,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4724,11 +4785,11 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>45372</v>
+        <v>45373</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>ORL</t>
+          <t>MIA</t>
         </is>
       </c>
       <c r="C2" t="n">
@@ -4737,11 +4798,11 @@
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>45373</v>
+        <v>45375</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>MIA</t>
+          <t>DET</t>
         </is>
       </c>
       <c r="C3" t="n">
@@ -4750,24 +4811,24 @@
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>45375</v>
+        <v>45377</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>DET</t>
+          <t>OKC</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>45377</v>
+        <v>45379</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>OKC</t>
+          <t>MIL</t>
         </is>
       </c>
       <c r="C5" t="n">
@@ -4776,11 +4837,11 @@
     </row>
     <row r="6">
       <c r="A6" s="3" t="n">
-        <v>45379</v>
+        <v>45381</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>MIL</t>
+          <t>BOS</t>
         </is>
       </c>
       <c r="C6" t="n">
@@ -4789,11 +4850,11 @@
     </row>
     <row r="7">
       <c r="A7" s="3" t="n">
-        <v>45381</v>
+        <v>45383</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>BOS</t>
+          <t>PHO</t>
         </is>
       </c>
       <c r="C7" t="n">
@@ -4802,11 +4863,11 @@
     </row>
     <row r="8">
       <c r="A8" s="3" t="n">
-        <v>45383</v>
+        <v>45385</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>PHO</t>
+          <t>ORL</t>
         </is>
       </c>
       <c r="C8" t="n">
@@ -4815,11 +4876,11 @@
     </row>
     <row r="9">
       <c r="A9" s="3" t="n">
-        <v>45385</v>
+        <v>45387</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>ORL</t>
+          <t>SAS</t>
         </is>
       </c>
       <c r="C9" t="n">
@@ -4828,24 +4889,24 @@
     </row>
     <row r="10">
       <c r="A10" s="3" t="n">
-        <v>45387</v>
+        <v>45389</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>SAS</t>
+          <t>PHO</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="3" t="n">
-        <v>45389</v>
+        <v>45391</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>PHO</t>
+          <t>POR</t>
         </is>
       </c>
       <c r="C11" t="n">
@@ -4854,11 +4915,11 @@
     </row>
     <row r="12">
       <c r="A12" s="3" t="n">
-        <v>45391</v>
+        <v>45393</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>POR</t>
+          <t>SAC</t>
         </is>
       </c>
       <c r="C12" t="n">
@@ -4867,11 +4928,11 @@
     </row>
     <row r="13">
       <c r="A13" s="3" t="n">
-        <v>45393</v>
+        <v>45394</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>SAC</t>
+          <t>GSW</t>
         </is>
       </c>
       <c r="C13" t="n">
@@ -4880,27 +4941,14 @@
     </row>
     <row r="14">
       <c r="A14" s="3" t="n">
-        <v>45394</v>
+        <v>45396</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>GSW</t>
+          <t>LAL</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="3" t="n">
-        <v>45396</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>LAL</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
         <v>1</v>
       </c>
     </row>

--- a/data/CurrentSeason/NOP.xlsx
+++ b/data/CurrentSeason/NOP.xlsx
@@ -433,7 +433,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S70"/>
+  <dimension ref="A1:S71"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4690,7 +4690,7 @@
       <c r="A70" t="n">
         <v>69</v>
       </c>
-      <c r="B70" s="3" t="n">
+      <c r="B70" s="2" t="n">
         <v>45372</v>
       </c>
       <c r="C70" t="n">
@@ -4745,6 +4745,67 @@
       </c>
       <c r="S70" t="n">
         <v>0</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>70</v>
+      </c>
+      <c r="B71" s="3" t="n">
+        <v>45373</v>
+      </c>
+      <c r="C71" t="n">
+        <v>1</v>
+      </c>
+      <c r="D71" t="n">
+        <v>111</v>
+      </c>
+      <c r="E71" t="n">
+        <v>86.8</v>
+      </c>
+      <c r="F71" t="n">
+        <v>0.622</v>
+      </c>
+      <c r="G71" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="H71" t="n">
+        <v>30.8</v>
+      </c>
+      <c r="I71" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="J71" t="n">
+        <v>127.9</v>
+      </c>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>MIA</t>
+        </is>
+      </c>
+      <c r="L71" t="n">
+        <v>88</v>
+      </c>
+      <c r="M71" t="n">
+        <v>0.436</v>
+      </c>
+      <c r="N71" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="O71" t="n">
+        <v>13.7</v>
+      </c>
+      <c r="P71" t="n">
+        <v>0.151</v>
+      </c>
+      <c r="Q71" t="n">
+        <v>101.4</v>
+      </c>
+      <c r="R71" t="n">
+        <v>0</v>
+      </c>
+      <c r="S71" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -4758,7 +4819,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C14"/>
+  <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4785,11 +4846,11 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>45373</v>
+        <v>45375</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>MIA</t>
+          <t>DET</t>
         </is>
       </c>
       <c r="C2" t="n">
@@ -4798,24 +4859,24 @@
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>45375</v>
+        <v>45377</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>DET</t>
+          <t>OKC</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>45377</v>
+        <v>45379</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>OKC</t>
+          <t>MIL</t>
         </is>
       </c>
       <c r="C4" t="n">
@@ -4824,11 +4885,11 @@
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>45379</v>
+        <v>45381</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>MIL</t>
+          <t>BOS</t>
         </is>
       </c>
       <c r="C5" t="n">
@@ -4837,11 +4898,11 @@
     </row>
     <row r="6">
       <c r="A6" s="3" t="n">
-        <v>45381</v>
+        <v>45383</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>BOS</t>
+          <t>PHO</t>
         </is>
       </c>
       <c r="C6" t="n">
@@ -4850,11 +4911,11 @@
     </row>
     <row r="7">
       <c r="A7" s="3" t="n">
-        <v>45383</v>
+        <v>45385</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>PHO</t>
+          <t>ORL</t>
         </is>
       </c>
       <c r="C7" t="n">
@@ -4863,11 +4924,11 @@
     </row>
     <row r="8">
       <c r="A8" s="3" t="n">
-        <v>45385</v>
+        <v>45387</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>ORL</t>
+          <t>SAS</t>
         </is>
       </c>
       <c r="C8" t="n">
@@ -4876,24 +4937,24 @@
     </row>
     <row r="9">
       <c r="A9" s="3" t="n">
-        <v>45387</v>
+        <v>45389</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>SAS</t>
+          <t>PHO</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="3" t="n">
-        <v>45389</v>
+        <v>45391</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>PHO</t>
+          <t>POR</t>
         </is>
       </c>
       <c r="C10" t="n">
@@ -4902,11 +4963,11 @@
     </row>
     <row r="11">
       <c r="A11" s="3" t="n">
-        <v>45391</v>
+        <v>45393</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>POR</t>
+          <t>SAC</t>
         </is>
       </c>
       <c r="C11" t="n">
@@ -4915,11 +4976,11 @@
     </row>
     <row r="12">
       <c r="A12" s="3" t="n">
-        <v>45393</v>
+        <v>45394</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>SAC</t>
+          <t>GSW</t>
         </is>
       </c>
       <c r="C12" t="n">
@@ -4928,27 +4989,14 @@
     </row>
     <row r="13">
       <c r="A13" s="3" t="n">
-        <v>45394</v>
+        <v>45396</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>GSW</t>
+          <t>LAL</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="3" t="n">
-        <v>45396</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>LAL</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
         <v>1</v>
       </c>
     </row>

--- a/data/CurrentSeason/NOP.xlsx
+++ b/data/CurrentSeason/NOP.xlsx
@@ -4751,7 +4751,7 @@
       <c r="A71" t="n">
         <v>70</v>
       </c>
-      <c r="B71" s="3" t="n">
+      <c r="B71" s="2" t="n">
         <v>45373</v>
       </c>
       <c r="C71" t="n">

--- a/data/CurrentSeason/NOP.xlsx
+++ b/data/CurrentSeason/NOP.xlsx
@@ -433,7 +433,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S71"/>
+  <dimension ref="A1:S72"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4805,6 +4805,67 @@
         <v>0</v>
       </c>
       <c r="S71" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>71</v>
+      </c>
+      <c r="B72" s="3" t="n">
+        <v>45375</v>
+      </c>
+      <c r="C72" t="n">
+        <v>2</v>
+      </c>
+      <c r="D72" t="n">
+        <v>114</v>
+      </c>
+      <c r="E72" t="n">
+        <v>97</v>
+      </c>
+      <c r="F72" t="n">
+        <v>0.574</v>
+      </c>
+      <c r="G72" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="H72" t="n">
+        <v>14.3</v>
+      </c>
+      <c r="I72" t="n">
+        <v>0.259</v>
+      </c>
+      <c r="J72" t="n">
+        <v>117.6</v>
+      </c>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>DET</t>
+        </is>
+      </c>
+      <c r="L72" t="n">
+        <v>101</v>
+      </c>
+      <c r="M72" t="n">
+        <v>0.475</v>
+      </c>
+      <c r="N72" t="n">
+        <v>14.7</v>
+      </c>
+      <c r="O72" t="n">
+        <v>22.2</v>
+      </c>
+      <c r="P72" t="n">
+        <v>0.329</v>
+      </c>
+      <c r="Q72" t="n">
+        <v>104.2</v>
+      </c>
+      <c r="R72" t="n">
+        <v>0</v>
+      </c>
+      <c r="S72" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4819,7 +4880,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4846,24 +4907,24 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>45375</v>
+        <v>45377</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>DET</t>
+          <t>OKC</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>45377</v>
+        <v>45379</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>OKC</t>
+          <t>MIL</t>
         </is>
       </c>
       <c r="C3" t="n">
@@ -4872,11 +4933,11 @@
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>45379</v>
+        <v>45381</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>MIL</t>
+          <t>BOS</t>
         </is>
       </c>
       <c r="C4" t="n">
@@ -4885,11 +4946,11 @@
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>45381</v>
+        <v>45383</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>BOS</t>
+          <t>PHO</t>
         </is>
       </c>
       <c r="C5" t="n">
@@ -4898,11 +4959,11 @@
     </row>
     <row r="6">
       <c r="A6" s="3" t="n">
-        <v>45383</v>
+        <v>45385</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>PHO</t>
+          <t>ORL</t>
         </is>
       </c>
       <c r="C6" t="n">
@@ -4911,11 +4972,11 @@
     </row>
     <row r="7">
       <c r="A7" s="3" t="n">
-        <v>45385</v>
+        <v>45387</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>ORL</t>
+          <t>SAS</t>
         </is>
       </c>
       <c r="C7" t="n">
@@ -4924,24 +4985,24 @@
     </row>
     <row r="8">
       <c r="A8" s="3" t="n">
-        <v>45387</v>
+        <v>45389</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>SAS</t>
+          <t>PHO</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="3" t="n">
-        <v>45389</v>
+        <v>45391</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>PHO</t>
+          <t>POR</t>
         </is>
       </c>
       <c r="C9" t="n">
@@ -4950,11 +5011,11 @@
     </row>
     <row r="10">
       <c r="A10" s="3" t="n">
-        <v>45391</v>
+        <v>45393</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>POR</t>
+          <t>SAC</t>
         </is>
       </c>
       <c r="C10" t="n">
@@ -4963,11 +5024,11 @@
     </row>
     <row r="11">
       <c r="A11" s="3" t="n">
-        <v>45393</v>
+        <v>45394</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>SAC</t>
+          <t>GSW</t>
         </is>
       </c>
       <c r="C11" t="n">
@@ -4976,27 +5037,14 @@
     </row>
     <row r="12">
       <c r="A12" s="3" t="n">
-        <v>45394</v>
+        <v>45396</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>GSW</t>
+          <t>LAL</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="3" t="n">
-        <v>45396</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>LAL</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
         <v>1</v>
       </c>
     </row>

--- a/data/CurrentSeason/NOP.xlsx
+++ b/data/CurrentSeason/NOP.xlsx
@@ -4812,7 +4812,7 @@
       <c r="A72" t="n">
         <v>71</v>
       </c>
-      <c r="B72" s="3" t="n">
+      <c r="B72" s="2" t="n">
         <v>45375</v>
       </c>
       <c r="C72" t="n">

--- a/data/CurrentSeason/NOP.xlsx
+++ b/data/CurrentSeason/NOP.xlsx
@@ -433,7 +433,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S72"/>
+  <dimension ref="A1:S73"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4867,6 +4867,67 @@
       </c>
       <c r="S72" t="n">
         <v>1</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>72</v>
+      </c>
+      <c r="B73" s="3" t="n">
+        <v>45377</v>
+      </c>
+      <c r="C73" t="n">
+        <v>-1</v>
+      </c>
+      <c r="D73" t="n">
+        <v>112</v>
+      </c>
+      <c r="E73" t="n">
+        <v>97.09999999999999</v>
+      </c>
+      <c r="F73" t="n">
+        <v>0.535</v>
+      </c>
+      <c r="G73" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="H73" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="I73" t="n">
+        <v>0.233</v>
+      </c>
+      <c r="J73" t="n">
+        <v>115.3</v>
+      </c>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>OKC</t>
+        </is>
+      </c>
+      <c r="L73" t="n">
+        <v>119</v>
+      </c>
+      <c r="M73" t="n">
+        <v>0.622</v>
+      </c>
+      <c r="N73" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="O73" t="n">
+        <v>17.9</v>
+      </c>
+      <c r="P73" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="Q73" t="n">
+        <v>122.5</v>
+      </c>
+      <c r="R73" t="n">
+        <v>1</v>
+      </c>
+      <c r="S73" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4880,7 +4941,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4907,11 +4968,11 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>45377</v>
+        <v>45379</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>OKC</t>
+          <t>MIL</t>
         </is>
       </c>
       <c r="C2" t="n">
@@ -4920,11 +4981,11 @@
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>45379</v>
+        <v>45381</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>MIL</t>
+          <t>BOS</t>
         </is>
       </c>
       <c r="C3" t="n">
@@ -4933,11 +4994,11 @@
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>45381</v>
+        <v>45383</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>BOS</t>
+          <t>PHO</t>
         </is>
       </c>
       <c r="C4" t="n">
@@ -4946,11 +5007,11 @@
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>45383</v>
+        <v>45385</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>PHO</t>
+          <t>ORL</t>
         </is>
       </c>
       <c r="C5" t="n">
@@ -4959,11 +5020,11 @@
     </row>
     <row r="6">
       <c r="A6" s="3" t="n">
-        <v>45385</v>
+        <v>45387</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>ORL</t>
+          <t>SAS</t>
         </is>
       </c>
       <c r="C6" t="n">
@@ -4972,24 +5033,24 @@
     </row>
     <row r="7">
       <c r="A7" s="3" t="n">
-        <v>45387</v>
+        <v>45389</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>SAS</t>
+          <t>PHO</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="3" t="n">
-        <v>45389</v>
+        <v>45391</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>PHO</t>
+          <t>POR</t>
         </is>
       </c>
       <c r="C8" t="n">
@@ -4998,11 +5059,11 @@
     </row>
     <row r="9">
       <c r="A9" s="3" t="n">
-        <v>45391</v>
+        <v>45393</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>POR</t>
+          <t>SAC</t>
         </is>
       </c>
       <c r="C9" t="n">
@@ -5011,11 +5072,11 @@
     </row>
     <row r="10">
       <c r="A10" s="3" t="n">
-        <v>45393</v>
+        <v>45394</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>SAC</t>
+          <t>GSW</t>
         </is>
       </c>
       <c r="C10" t="n">
@@ -5024,27 +5085,14 @@
     </row>
     <row r="11">
       <c r="A11" s="3" t="n">
-        <v>45394</v>
+        <v>45396</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>GSW</t>
+          <t>LAL</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="3" t="n">
-        <v>45396</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>LAL</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
         <v>1</v>
       </c>
     </row>

--- a/data/CurrentSeason/NOP.xlsx
+++ b/data/CurrentSeason/NOP.xlsx
@@ -4873,7 +4873,7 @@
       <c r="A73" t="n">
         <v>72</v>
       </c>
-      <c r="B73" s="3" t="n">
+      <c r="B73" s="2" t="n">
         <v>45377</v>
       </c>
       <c r="C73" t="n">
